--- a/熊野_土壌モデル_濱口_20180214_sandyclayloam.xlsx
+++ b/熊野_土壌モデル_濱口_20180214_sandyclayloam.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\buildit\3. Book examples\Ch09\最適モデル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12402\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48CBC68-8009-4C40-9B63-129F9F850D44}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="-375" windowWidth="6570" windowHeight="7815" tabRatio="546" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,12 +188,12 @@
     <definedName name="zr">ET!$B$2</definedName>
     <definedName name="zs0">ET!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="294">
   <si>
     <t>CONTROL</t>
   </si>
@@ -3564,16 +3565,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="0.0000_ "/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="Arial"/>
@@ -3715,15 +3717,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -3799,7 +3792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3894,36 +3887,38 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4328,82 +4323,82 @@
                   <c:v>0.24171004311752375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23646834869145192</c:v>
+                  <c:v>0.23646534567650421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23484457499087541</c:v>
+                  <c:v>0.23484339745293911</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35032162216753471</c:v>
+                  <c:v>0.35032123509118634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28422318046431294</c:v>
+                  <c:v>0.28422377279863248</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25537262440772324</c:v>
+                  <c:v>0.25537484331224636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25025478392494566</c:v>
+                  <c:v>0.25025510872548301</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24635962631982919</c:v>
+                  <c:v>0.24635913826719522</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30009358838015676</c:v>
+                  <c:v>0.30005242814295308</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28761615746469399</c:v>
+                  <c:v>0.28761224849511818</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33213605983356226</c:v>
+                  <c:v>0.33215915066828666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34907548170904529</c:v>
+                  <c:v>0.34906908623013461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30611757842759535</c:v>
+                  <c:v>0.30610220347406725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28702769330831002</c:v>
+                  <c:v>0.28727796422419616</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.31717708242647963</c:v>
+                  <c:v>0.31715979877869693</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2850717248129695</c:v>
+                  <c:v>0.28499782162835524</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.278737332780295</c:v>
+                  <c:v>0.27867540420876447</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.27418986586673999</c:v>
+                  <c:v>0.2741572029952572</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27219626000647057</c:v>
+                  <c:v>0.27217452880301618</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.27656625323008127</c:v>
+                  <c:v>0.27655256797508354</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.36972640402603402</c:v>
+                  <c:v>0.3697229794800328</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3446271336051912</c:v>
+                  <c:v>0.34462779073138011</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.34663333583732747</c:v>
+                  <c:v>0.34663068828436389</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.34414965579585366</c:v>
+                  <c:v>0.34414979416909319</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.34253659013198839</c:v>
+                  <c:v>0.34253654779825898</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3024444647315821</c:v>
+                  <c:v>0.30243139254547874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5001,82 +4996,82 @@
                   <c:v>237.23788214975264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236.45520870401737</c:v>
+                  <c:v>236.45519859377333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>235.73769580451869</c:v>
+                  <c:v>235.73768032740185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251.78919760991454</c:v>
+                  <c:v>251.79022808175489</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256.61882942746297</c:v>
+                  <c:v>256.62022905855565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254.71664418748213</c:v>
+                  <c:v>254.71778998474957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>252.9767555614352</c:v>
+                  <c:v>252.97768351532466</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>251.28236001328327</c:v>
+                  <c:v>251.28311098042798</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>326.44329234811823</c:v>
+                  <c:v>326.45107235702903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>313.99257558133206</c:v>
+                  <c:v>314.00055291698686</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>306.45979448079584</c:v>
+                  <c:v>306.47187149617559</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>311.98237624057469</c:v>
+                  <c:v>312.0013613830177</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>348.15160878542281</c:v>
+                  <c:v>348.19581286770665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>333.29908016045346</c:v>
+                  <c:v>333.30324661173989</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>320.25207674881102</c:v>
+                  <c:v>320.20178702517808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>316.19543858025645</c:v>
+                  <c:v>316.14410585183958</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>307.0889758276989</c:v>
+                  <c:v>307.04052751403577</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>299.85677056075747</c:v>
+                  <c:v>299.81716905988566</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>294.60138610925623</c:v>
+                  <c:v>294.56697260697365</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>290.04906549711654</c:v>
+                  <c:v>290.01664555557466</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>286.87157754967581</c:v>
+                  <c:v>286.84110189155751</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>319.78938880652015</c:v>
+                  <c:v>319.76893740011377</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>337.69758372352356</c:v>
+                  <c:v>337.68409270537524</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>340.6120432927396</c:v>
+                  <c:v>340.60469524809764</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>345.4033298451169</c:v>
+                  <c:v>345.40019681833917</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>349.72181118765718</c:v>
+                  <c:v>349.72212270603438</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>335.20294185450052</c:v>
+                  <c:v>335.1774328508842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5656,82 +5651,82 @@
                   <c:v>0.23593204835991488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23453249249397148</c:v>
+                  <c:v>0.23453256162351388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23314823132807375</c:v>
+                  <c:v>0.23314817357723661</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26237584688985505</c:v>
+                  <c:v>0.26238077794212078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27217207559539353</c:v>
+                  <c:v>0.27217825579250676</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26572581965051428</c:v>
+                  <c:v>0.26572815523526938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2600162180262246</c:v>
+                  <c:v>0.26001661408068749</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2553066425001207</c:v>
+                  <c:v>0.25530606927870397</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34758532427523287</c:v>
+                  <c:v>0.34761374170964071</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33249138621470414</c:v>
+                  <c:v>0.33242405003034653</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31303192995054635</c:v>
+                  <c:v>0.31298899709266026</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.32112464085299086</c:v>
+                  <c:v>0.32111037259194664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36215624212511721</c:v>
+                  <c:v>0.36216135234657826</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3290234268467776</c:v>
+                  <c:v>0.32896472463476445</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30657049312833173</c:v>
+                  <c:v>0.30641794516710169</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.30231289506968517</c:v>
+                  <c:v>0.30220104541600507</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28943758162928118</c:v>
+                  <c:v>0.28935288405881932</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.28379098333686931</c:v>
+                  <c:v>0.28376663526930451</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28202234237625085</c:v>
+                  <c:v>0.28200944335107092</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.28115861988527974</c:v>
+                  <c:v>0.28114998474021269</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2818173630724406</c:v>
+                  <c:v>0.28181172783279745</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.34564781996489308</c:v>
+                  <c:v>0.34567888742144937</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.35562594890709698</c:v>
+                  <c:v>0.3556257243335747</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.35051234038153567</c:v>
+                  <c:v>0.35051259700994358</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.35196898793993581</c:v>
+                  <c:v>0.35196896777014913</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.35381906145515968</c:v>
+                  <c:v>0.35381907248767935</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.32677520640233265</c:v>
+                  <c:v>0.32672366820514426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6328,82 +6323,82 @@
                   <c:v>0.23822103661892563</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23815556765954118</c:v>
+                  <c:v>0.23815560256428245</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23806272671882164</c:v>
+                  <c:v>0.23806279333233502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23863437614852026</c:v>
+                  <c:v>0.23863201062799153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24179848277749166</c:v>
+                  <c:v>0.2417956844962113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24495252819248284</c:v>
+                  <c:v>0.2449525802120783</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24685422998244796</c:v>
+                  <c:v>0.2468556516609591</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24791175372467525</c:v>
+                  <c:v>0.24791372374400045</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26797232457019143</c:v>
+                  <c:v>0.26795313359338341</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29816281952877888</c:v>
+                  <c:v>0.29823931026955458</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30137073760432809</c:v>
+                  <c:v>0.30143209204547977</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3031198466375532</c:v>
+                  <c:v>0.30316809034107017</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.33572736110324602</c:v>
+                  <c:v>0.33580809435322684</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33812683123535353</c:v>
+                  <c:v>0.33818736386589787</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3336328770069466</c:v>
+                  <c:v>0.33366148646889882</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32843839461475322</c:v>
+                  <c:v>0.32843928650942944</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.32355048804225028</c:v>
+                  <c:v>0.32353508541233034</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.31488109917344553</c:v>
+                  <c:v>0.31482886298428892</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.30651406019008853</c:v>
+                  <c:v>0.30646054731841516</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.29860033682645848</c:v>
+                  <c:v>0.298546465382724</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.29173897206106059</c:v>
+                  <c:v>0.2916858764018635</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.29499396835028591</c:v>
+                  <c:v>0.29492728768585852</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.32157135491183675</c:v>
+                  <c:v>0.32154558403327554</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.33162250000093585</c:v>
+                  <c:v>0.33160824395737748</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.33964346591697953</c:v>
+                  <c:v>0.33963745338593976</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.34637367522239215</c:v>
+                  <c:v>0.34637426616487826</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.34391818772076133</c:v>
+                  <c:v>0.34391522620309289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6807,10 +6802,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Output!$F$8:$F$36</c:f>
+              <c:f>Output!$G$8:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>238.3</c:v>
                 </c:pt>
@@ -6824,79 +6819,97 @@
                   <c:v>237.23788214975264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236.45520870401737</c:v>
+                  <c:v>236.45519859377333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>235.73769580451869</c:v>
+                  <c:v>235.73768032740185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251.78919760991454</c:v>
+                  <c:v>251.79022808175489</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256.61882942746297</c:v>
+                  <c:v>256.62022905855565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254.71664418748213</c:v>
+                  <c:v>254.71778998474957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>252.9767555614352</c:v>
+                  <c:v>252.97768351532466</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>251.28236001328327</c:v>
+                  <c:v>251.28311098042798</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>326.44329234811823</c:v>
+                  <c:v>326.45107235702903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>313.99257558133206</c:v>
+                  <c:v>314.00055291698686</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>306.45979448079584</c:v>
+                  <c:v>306.47187149617559</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>311.98237624057469</c:v>
+                  <c:v>312.0013613830177</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>348.15160878542281</c:v>
+                  <c:v>348.19581286770665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>333.29908016045346</c:v>
+                  <c:v>333.30324661173989</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>320.25207674881102</c:v>
+                  <c:v>320.20178702517808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>316.19543858025645</c:v>
+                  <c:v>316.14410585183958</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>307.0889758276989</c:v>
+                  <c:v>307.04052751403577</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>299.85677056075747</c:v>
+                  <c:v>299.81716905988566</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>294.60138610925623</c:v>
+                  <c:v>294.56697260697365</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>290.04906549711654</c:v>
+                  <c:v>290.01664555557466</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>286.87157754967581</c:v>
+                  <c:v>286.84110189155751</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>319.78938880652015</c:v>
+                  <c:v>319.76893740011377</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>337.69758372352356</c:v>
+                  <c:v>337.68409270537524</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>340.6120432927396</c:v>
+                  <c:v>340.60469524809764</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>345.4033298451169</c:v>
+                  <c:v>345.40019681833917</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>349.72181118765718</c:v>
+                  <c:v>349.72212270603438</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>435.73066270614947</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>540.78829143520215</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>424.13208392720639</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>320.87928602284671</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>339.18491135981674</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>349.40451401437235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6913,7 +6926,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Output!$H$7</c:f>
+              <c:f>Output!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6936,10 +6949,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Output!$H$8:$H$36</c:f>
+              <c:f>Output!$I$8:$I$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>238.331754874653</c:v>
                 </c:pt>
@@ -7026,6 +7039,24 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>312.53610567514585</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>493.94859359844446</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>532.45215264187698</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>380.59320175438501</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>310.54798076922918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>360.95828677840183</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>308.13527168731986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7687,82 +7718,82 @@
                   <c:v>237.23788214975264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236.45520870401737</c:v>
+                  <c:v>236.45519859377333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>235.73769580451869</c:v>
+                  <c:v>235.73768032740185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251.78919760991454</c:v>
+                  <c:v>251.79022808175489</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256.61882942746297</c:v>
+                  <c:v>256.62022905855565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254.71664418748213</c:v>
+                  <c:v>254.71778998474957</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>252.9767555614352</c:v>
+                  <c:v>252.97768351532466</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>251.28236001328327</c:v>
+                  <c:v>251.28311098042798</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>326.44329234811823</c:v>
+                  <c:v>326.45107235702903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>313.99257558133206</c:v>
+                  <c:v>314.00055291698686</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>306.45979448079584</c:v>
+                  <c:v>306.47187149617559</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>311.98237624057469</c:v>
+                  <c:v>312.0013613830177</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>348.15160878542281</c:v>
+                  <c:v>348.19581286770665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>333.29908016045346</c:v>
+                  <c:v>333.30324661173989</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>320.25207674881102</c:v>
+                  <c:v>320.20178702517808</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>316.19543858025645</c:v>
+                  <c:v>316.14410585183958</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>307.0889758276989</c:v>
+                  <c:v>307.04052751403577</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>299.85677056075747</c:v>
+                  <c:v>299.81716905988566</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>294.60138610925623</c:v>
+                  <c:v>294.56697260697365</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>290.04906549711654</c:v>
+                  <c:v>290.01664555557466</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>286.87157754967581</c:v>
+                  <c:v>286.84110189155751</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>319.78938880652015</c:v>
+                  <c:v>319.76893740011377</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>337.69758372352356</c:v>
+                  <c:v>337.68409270537524</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>340.6120432927396</c:v>
+                  <c:v>340.60469524809764</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>345.4033298451169</c:v>
+                  <c:v>345.40019681833917</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>349.72181118765718</c:v>
+                  <c:v>349.72212270603438</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>335.20294185450052</c:v>
+                  <c:v>335.1774328508842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7779,7 +7810,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Output!$H$7</c:f>
+              <c:f>Output!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7802,7 +7833,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Output!$H$8:$H$37</c:f>
+              <c:f>Output!$I$8:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -9460,14 +9491,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>594000</xdr:colOff>
+      <xdr:colOff>422550</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>43500</xdr:rowOff>
     </xdr:to>
@@ -9497,13 +9528,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>477795</xdr:colOff>
+      <xdr:colOff>306345</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>138750</xdr:rowOff>
     </xdr:to>
@@ -9535,13 +9566,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>477795</xdr:colOff>
+      <xdr:colOff>306345</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>53025</xdr:rowOff>
     </xdr:to>
@@ -9572,14 +9603,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>603525</xdr:colOff>
+      <xdr:colOff>432075</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>138750</xdr:rowOff>
     </xdr:to>
@@ -9610,13 +9641,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
@@ -9646,13 +9677,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
@@ -10031,12 +10062,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="16" bestFit="1" customWidth="1"/>
@@ -10053,67 +10084,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="52">
+      <c r="A2" s="50">
         <v>2017</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="50">
         <v>9</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="50">
         <v>22</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="51">
         <f>DATE(A2,B2,C2)</f>
         <v>43000</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="55">
         <v>0</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="56">
         <v>20.8</v>
       </c>
-      <c r="G2" s="58">
+      <c r="G2" s="56">
         <v>22.2</v>
       </c>
       <c r="H2" s="49">
         <v>96.9</v>
       </c>
-      <c r="I2" s="55">
+      <c r="I2" s="53">
         <v>0.67213114754098358</v>
       </c>
-      <c r="J2" s="58">
+      <c r="J2" s="56">
         <v>0</v>
       </c>
       <c r="L2" s="18" t="s">
@@ -10124,969 +10155,1163 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="52">
+      <c r="A3" s="50">
         <v>2017</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="50">
         <v>9</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="50">
         <v>23</v>
       </c>
-      <c r="D3" s="53">
-        <f t="shared" ref="D3:D31" si="0">DATE(A3,B3,C3)</f>
+      <c r="D3" s="51">
+        <f t="shared" ref="D3:D37" si="0">DATE(A3,B3,C3)</f>
         <v>43001</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="55">
         <v>8.7833333333255723</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="56">
         <v>19.899999999999999</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="56">
         <v>28.2</v>
       </c>
       <c r="H3" s="49">
         <v>88.5</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="53">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J3" s="58">
+      <c r="J3" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="52">
+      <c r="A4" s="50">
         <v>2017</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="50">
         <v>9</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="50">
         <v>24</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="51">
         <f t="shared" si="0"/>
         <v>43002</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="55">
         <v>7.1166666666395031</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="56">
         <v>20.3</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="56">
         <v>27.2</v>
       </c>
       <c r="H4" s="49">
         <v>86.2</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="53">
         <v>0.78899082568807344</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J4" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="52">
+      <c r="A5" s="50">
         <v>2017</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="50">
         <v>9</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="50">
         <v>25</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="51">
         <f t="shared" si="0"/>
         <v>43003</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="55">
         <v>8.8000000000465661</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="56">
         <v>19.5</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="56">
         <v>28.8</v>
       </c>
       <c r="H5" s="49">
         <v>82.6</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="53">
         <v>1.2695652173913043</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="52">
+      <c r="A6" s="50">
         <v>2017</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="50">
         <v>9</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="50">
         <v>26</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="51">
         <f t="shared" si="0"/>
         <v>43004</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="55">
         <v>7.9333333333488554</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="56">
         <v>18.899999999999999</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="56">
         <v>28.4</v>
       </c>
       <c r="H6" s="49">
         <v>87.6</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="53">
         <v>1.0090090090090089</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="56">
         <v>0</v>
       </c>
       <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="52">
+      <c r="A7" s="50">
         <v>2017</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="50">
         <v>9</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="50">
         <v>27</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="51">
         <f t="shared" si="0"/>
         <v>43005</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="55">
         <v>6.1333333334187046</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="56">
         <v>20</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="56">
         <v>28.2</v>
       </c>
       <c r="H7" s="49">
         <v>89.6</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="53">
         <v>0.56818181818181823</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="56">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="52">
+      <c r="A8" s="50">
         <v>2017</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="50">
         <v>9</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="50">
         <v>28</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="51">
         <f t="shared" si="0"/>
         <v>43006</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="55">
         <v>7.6166666665230878</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="56">
         <v>19.100000000000001</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="56">
         <v>31.6</v>
       </c>
       <c r="H8" s="49">
         <v>80.8</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="53">
         <v>1.5126582278481013</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="52">
+      <c r="A9" s="50">
         <v>2017</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="50">
         <v>9</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="50">
         <v>29</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="51">
         <f t="shared" si="0"/>
         <v>43007</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="55">
         <v>8.433333333407063</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="56">
         <v>14.6</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="56">
         <v>26.8</v>
       </c>
       <c r="H9" s="49">
         <v>60.5</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="53">
         <v>1.9684210526315788</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="52">
+      <c r="A10" s="50">
         <v>2017</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="50">
         <v>9</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="50">
         <v>30</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="51">
         <f t="shared" si="0"/>
         <v>43008</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="55">
         <v>8.1000000000349246</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="56">
         <v>16.399999999999999</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="56">
         <v>26.6</v>
       </c>
       <c r="H10" s="49">
         <v>68.599999999999994</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="53">
         <v>1.9243697478991597</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="52">
+      <c r="A11" s="50">
         <v>2017</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="50">
         <v>10</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="50">
         <v>1</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="51">
         <f t="shared" si="0"/>
         <v>43009</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="55">
         <v>8.433333333407063</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="56">
         <v>14.5</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="56">
         <v>26.7</v>
       </c>
       <c r="H11" s="49">
         <v>71.3</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="53">
         <v>0.97841726618705038</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="52">
+      <c r="A12" s="50">
         <v>2017</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="50">
         <v>10</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="50">
         <v>2</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="51">
         <f t="shared" si="0"/>
         <v>43010</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="55">
         <v>0.29999999993015081</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="56">
         <v>21.5</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="56">
         <v>25.1</v>
       </c>
       <c r="H12" s="49">
         <v>88.8</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="53">
         <v>0.44525547445255476</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="56">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="52">
+      <c r="A13" s="50">
         <v>2017</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="50">
         <v>10</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="50">
         <v>3</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="51">
         <f t="shared" si="0"/>
         <v>43011</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="55">
         <v>7.4166666669188999</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="56">
         <v>20.3</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="56">
         <v>27.2</v>
       </c>
       <c r="H13" s="49">
         <v>89.8</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="53">
         <v>1.5209580838323353</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="52">
+      <c r="A14" s="50">
         <v>2017</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="50">
         <v>10</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="50">
         <v>4</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="51">
         <f t="shared" si="0"/>
         <v>43012</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="55">
         <v>9.2333333333954215</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="56">
         <v>18.2</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="56">
         <v>25.2</v>
       </c>
       <c r="H14" s="49">
         <v>62.3</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="53">
         <v>3.7055555555555557</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="52">
+      <c r="A15" s="50">
         <v>2017</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="50">
         <v>10</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="50">
         <v>5</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="51">
         <f t="shared" si="0"/>
         <v>43013</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="55">
         <v>0.31666666665114462</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="56">
         <v>18</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="56">
         <v>21.6</v>
       </c>
       <c r="H15" s="49">
         <v>75.599999999999994</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="53">
         <v>1.4634146341463414</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="56">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="52">
+      <c r="A16" s="50">
         <v>2017</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="50">
         <v>10</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="50">
         <v>6</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="51">
         <f t="shared" si="0"/>
         <v>43014</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="55">
         <v>0.66666666674427688</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="56">
         <v>18.3</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="56">
         <v>22.8</v>
       </c>
       <c r="H16" s="49">
         <v>90.2</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="53">
         <v>2.5337423312883436</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="56">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="52">
+      <c r="A17" s="50">
         <v>2017</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="50">
         <v>10</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="50">
         <v>7</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="51">
         <f t="shared" si="0"/>
         <v>43015</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="55">
         <v>6.6000000000349246</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="56">
         <v>18.8</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="56">
         <v>24.6</v>
       </c>
       <c r="H17" s="49">
         <v>97.4</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="53">
         <v>0.27329192546583853</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="56">
         <v>7</v>
       </c>
       <c r="K17" s="17"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="52">
+      <c r="A18" s="50">
         <v>2017</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="50">
         <v>10</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="50">
         <v>8</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="51">
         <f t="shared" si="0"/>
         <v>43016</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="55">
         <v>8.25</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="56">
         <v>19.100000000000001</v>
       </c>
-      <c r="G18" s="58">
+      <c r="G18" s="56">
         <v>27.2</v>
       </c>
       <c r="H18" s="49">
         <v>89.9</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="53">
         <v>1.0414201183431953</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="56">
         <v>0</v>
       </c>
       <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="52">
+      <c r="A19" s="50">
         <v>2017</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="50">
         <v>10</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="50">
         <v>9</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="51">
         <f t="shared" si="0"/>
         <v>43017</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="55">
         <v>8.1000000000349246</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="56">
         <v>19.8</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="56">
         <v>27.2</v>
       </c>
       <c r="H19" s="49">
         <v>92.8</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="53">
         <v>0.83950617283950613</v>
       </c>
-      <c r="J19" s="58">
+      <c r="J19" s="56">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="52">
+      <c r="A20" s="50">
         <v>2017</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="50">
         <v>10</v>
       </c>
-      <c r="C20" s="52">
+      <c r="C20" s="50">
         <v>10</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="51">
         <f t="shared" si="0"/>
         <v>43018</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="55">
         <v>8.433333333407063</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="56">
         <v>20.5</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="56">
         <v>28.3</v>
       </c>
       <c r="H20" s="49">
         <v>89.4</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="53">
         <v>0.76984126984126988</v>
       </c>
-      <c r="J20" s="58">
+      <c r="J20" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="52">
+      <c r="A21" s="50">
         <v>2017</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B21" s="50">
         <v>10</v>
       </c>
-      <c r="C21" s="52">
+      <c r="C21" s="50">
         <v>11</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="51">
         <f t="shared" si="0"/>
         <v>43019</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="55">
         <v>8.9500000000116415</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="56">
         <v>20</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="56">
         <v>29.3</v>
       </c>
       <c r="H21" s="49">
         <v>90.5</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="53">
         <v>0.72121212121212119</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="52">
+      <c r="A22" s="50">
         <v>2017</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="50">
         <v>10</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="50">
         <v>12</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="51">
         <f t="shared" si="0"/>
         <v>43020</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="55">
         <v>7.7499999999417923</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="56">
         <v>19.5</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="56">
         <v>28.2</v>
       </c>
       <c r="H22" s="49">
         <v>89.4</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="53">
         <v>0.70129870129870131</v>
       </c>
-      <c r="J22" s="58">
+      <c r="J22" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="52">
+      <c r="A23" s="50">
         <v>2017</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="50">
         <v>10</v>
       </c>
-      <c r="C23" s="52">
+      <c r="C23" s="50">
         <v>13</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="51">
         <f t="shared" si="0"/>
         <v>43021</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="55">
         <v>3.8166666665347293</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="56">
         <v>20.3</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="56">
         <v>24.8</v>
       </c>
       <c r="H23" s="49">
         <v>92.7</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="53">
         <v>0.26347305389221559</v>
       </c>
-      <c r="J23" s="58">
+      <c r="J23" s="56">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="52">
+      <c r="A24" s="50">
         <v>2017</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="50">
         <v>10</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="50">
         <v>14</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="51">
         <f t="shared" si="0"/>
         <v>43022</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="55">
         <v>0.9833333333954215</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="56">
         <v>19.100000000000001</v>
       </c>
-      <c r="G24" s="58">
+      <c r="G24" s="56">
         <v>24.4</v>
       </c>
       <c r="H24" s="49">
         <v>92.8</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="53">
         <v>0.33132530120481929</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="52">
+      <c r="A25" s="50">
         <v>2017</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="50">
         <v>10</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="50">
         <v>15</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="51">
         <f t="shared" si="0"/>
         <v>43023</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="55">
         <v>0.48333333333721384</v>
       </c>
-      <c r="F25" s="58">
+      <c r="F25" s="56">
         <v>16.899999999999999</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G25" s="56">
         <v>19.8</v>
       </c>
       <c r="H25" s="49">
         <v>99.3</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="53">
         <v>0.59876543209876543</v>
       </c>
-      <c r="J25" s="58">
+      <c r="J25" s="56">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="52">
+      <c r="A26" s="50">
         <v>2017</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="50">
         <v>10</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="50">
         <v>16</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="51">
         <f t="shared" si="0"/>
         <v>43024</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="55">
         <v>0.16666666668606922</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="56">
         <v>16.8</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="56">
         <v>19.399999999999999</v>
       </c>
       <c r="H26" s="49">
         <v>101.8</v>
       </c>
-      <c r="I26" s="55">
+      <c r="I26" s="53">
         <v>0.25153374233128833</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J26" s="56">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="52">
+      <c r="A27" s="50">
         <v>2017</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="50">
         <v>10</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="50">
         <v>17</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="51">
         <f t="shared" si="0"/>
         <v>43025</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="55">
         <v>3.6166666667559184</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F27" s="56">
         <v>16.100000000000001</v>
       </c>
-      <c r="G27" s="58">
+      <c r="G27" s="56">
         <v>19.7</v>
       </c>
       <c r="H27" s="49">
         <v>99.9</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="53">
         <v>0.6875</v>
       </c>
-      <c r="J27" s="58">
+      <c r="J27" s="56">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="52">
+      <c r="A28" s="50">
         <v>2017</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="50">
         <v>10</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="50">
         <v>18</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="51">
         <f t="shared" si="0"/>
         <v>43026</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="55">
         <v>1.9833333333372138</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="56">
         <v>16</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="56">
         <v>19.899999999999999</v>
       </c>
       <c r="H28" s="49">
         <v>92.3</v>
       </c>
-      <c r="I28" s="55">
+      <c r="I28" s="53">
         <v>1.2962962962962963</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J28" s="56">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="52">
+      <c r="A29" s="50">
         <v>2017</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="50">
         <v>10</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="50">
         <v>19</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="51">
         <f t="shared" si="0"/>
         <v>43027</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="55">
         <v>2.5999999999185093</v>
       </c>
-      <c r="F29" s="58">
+      <c r="F29" s="56">
         <v>15.5</v>
       </c>
-      <c r="G29" s="58">
+      <c r="G29" s="56">
         <v>17.7</v>
       </c>
       <c r="H29" s="49">
         <v>95.9</v>
       </c>
-      <c r="I29" s="55">
+      <c r="I29" s="53">
         <v>1.524390243902439</v>
       </c>
-      <c r="J29" s="58">
+      <c r="J29" s="56">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="52">
+      <c r="A30" s="50">
         <v>2017</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="50">
         <v>10</v>
       </c>
-      <c r="C30" s="52">
+      <c r="C30" s="50">
         <v>20</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="51">
         <f t="shared" si="0"/>
         <v>43028</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="55">
         <v>1.4833333332790062</v>
       </c>
-      <c r="F30" s="58">
+      <c r="F30" s="56">
         <v>17.100000000000001</v>
       </c>
-      <c r="G30" s="58">
+      <c r="G30" s="56">
         <v>19.899999999999999</v>
       </c>
       <c r="H30" s="49">
         <v>99.6</v>
       </c>
-      <c r="I30" s="55">
+      <c r="I30" s="53">
         <v>9.6385542168674704E-2</v>
       </c>
-      <c r="J30" s="58">
+      <c r="J30" s="56">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="52">
+      <c r="A31" s="50">
         <v>2017</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B31" s="50">
         <v>10</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="50">
         <v>21</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="51">
         <f t="shared" si="0"/>
         <v>43029</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="55">
         <v>0</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="56">
         <v>18.2</v>
       </c>
-      <c r="G31" s="58">
+      <c r="G31" s="56">
         <v>21.8</v>
       </c>
       <c r="H31" s="49">
         <v>102.2</v>
       </c>
-      <c r="I31" s="55">
+      <c r="I31" s="53">
         <v>0.9213483146067416</v>
       </c>
-      <c r="J31" s="58">
+      <c r="J31" s="56">
+        <f>269</f>
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="F33" s="50"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="50"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="50">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="50">
+        <v>10</v>
+      </c>
+      <c r="C32" s="50">
+        <v>22</v>
+      </c>
+      <c r="D32" s="51">
+        <f t="shared" si="0"/>
+        <v>43030</v>
+      </c>
+      <c r="E32" s="72">
+        <v>0</v>
+      </c>
+      <c r="F32" s="50">
+        <v>21.7</v>
+      </c>
+      <c r="G32" s="50">
+        <v>17</v>
+      </c>
+      <c r="H32" s="50">
+        <v>100.95690607734801</v>
+      </c>
+      <c r="I32" s="73">
+        <v>1.2840909090909092</v>
+      </c>
+      <c r="J32" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="50">
+        <v>2017</v>
+      </c>
+      <c r="B33" s="50">
+        <v>10</v>
+      </c>
+      <c r="C33" s="50">
+        <v>23</v>
+      </c>
+      <c r="D33" s="51">
+        <f t="shared" si="0"/>
+        <v>43031</v>
+      </c>
+      <c r="E33" s="72">
+        <v>0</v>
+      </c>
+      <c r="F33" s="74">
+        <v>22.5</v>
+      </c>
+      <c r="G33" s="50">
+        <v>12.5</v>
+      </c>
+      <c r="H33" s="50">
+        <v>65.315204678362619</v>
+      </c>
+      <c r="I33" s="73">
+        <v>1.8846153846153846</v>
+      </c>
+      <c r="J33" s="50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="50">
+        <v>2017</v>
+      </c>
+      <c r="B34" s="50">
+        <v>10</v>
+      </c>
+      <c r="C34" s="50">
+        <v>24</v>
+      </c>
+      <c r="D34" s="51">
+        <f t="shared" si="0"/>
+        <v>43032</v>
+      </c>
+      <c r="E34" s="72">
+        <v>8.066666666592937</v>
+      </c>
+      <c r="F34" s="50">
+        <v>19</v>
+      </c>
+      <c r="G34" s="50">
+        <v>13.3</v>
+      </c>
+      <c r="H34" s="75">
+        <v>81.390355329949273</v>
+      </c>
+      <c r="I34" s="73">
+        <v>2.5</v>
+      </c>
+      <c r="J34" s="50">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="50">
+        <v>2017</v>
+      </c>
+      <c r="B35" s="50">
+        <v>10</v>
+      </c>
+      <c r="C35" s="50">
+        <v>25</v>
+      </c>
+      <c r="D35" s="51">
+        <f t="shared" si="0"/>
+        <v>43033</v>
+      </c>
+      <c r="E35" s="72">
+        <v>5.7666666667792015</v>
+      </c>
+      <c r="F35" s="50">
+        <v>22.8</v>
+      </c>
+      <c r="G35" s="50">
+        <v>12.1</v>
+      </c>
+      <c r="H35" s="75">
+        <v>84.65960591133009</v>
+      </c>
+      <c r="I35" s="73">
+        <v>4.5436241610738257</v>
+      </c>
+      <c r="J35" s="50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="50">
+        <v>2017</v>
+      </c>
+      <c r="B36" s="50">
+        <v>10</v>
+      </c>
+      <c r="C36" s="50">
+        <v>26</v>
+      </c>
+      <c r="D36" s="51">
+        <f t="shared" si="0"/>
+        <v>43034</v>
+      </c>
+      <c r="E36" s="72">
+        <v>8.3999999999650754</v>
+      </c>
+      <c r="F36" s="50">
+        <v>23.6</v>
+      </c>
+      <c r="G36" s="50">
+        <v>13.3</v>
+      </c>
+      <c r="H36" s="75">
+        <v>76.431382978723391</v>
+      </c>
+      <c r="I36" s="73">
+        <v>2.0363636363636362</v>
+      </c>
+      <c r="J36" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="50">
+        <v>2017</v>
+      </c>
+      <c r="B37" s="50">
+        <v>10</v>
+      </c>
+      <c r="C37" s="50">
+        <v>27</v>
+      </c>
+      <c r="D37" s="51">
+        <f t="shared" si="0"/>
+        <v>43035</v>
+      </c>
+      <c r="E37" s="72">
+        <v>8.5833333333721384</v>
+      </c>
+      <c r="F37" s="50">
+        <v>22.8</v>
+      </c>
+      <c r="G37" s="50">
+        <v>13.6</v>
+      </c>
+      <c r="H37" s="75">
+        <v>79.861666666666665</v>
+      </c>
+      <c r="I37" s="73">
+        <v>1.415929203539823</v>
+      </c>
+      <c r="J37" s="50">
+        <v>0</v>
+      </c>
     </row>
     <row r="2224" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L2224" s="16" t="s">
@@ -11150,7 +11375,7 @@
       </c>
       <c r="H2" s="3">
         <f>1370*(1+0.033*COS(2*PI()*(doy-10)/365))</f>
-        <v>1412.5569559247558</v>
+        <v>1411.0876453841188</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11172,7 +11397,7 @@
       </c>
       <c r="H3" s="3">
         <f ca="1">E22*ACOS(-E24)+E23*SQRT(1-(E24)^2)</f>
-        <v>0.54205988316833964</v>
+        <v>0.56467058547914695</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11187,7 +11412,7 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">3600*Ic*24/PI()*H3</f>
-        <v>21057999.208956674</v>
+        <v>21913564.404313002</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11204,9 +11429,9 @@
       <c r="G5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="3" t="e">
+      <c r="H5" s="3">
         <f ca="1">Ietd*(B3+B4*sunhr/DL)</f>
-        <v>#N/A</v>
+        <v>13901488.429655956</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11219,9 +11444,9 @@
       <c r="D6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="e">
+      <c r="E6">
         <f ca="1">VLOOKUP(date,INDIRECT($E$3),2,FALSE)</f>
-        <v>#N/A</v>
+        <v>8.5833333333721384</v>
       </c>
       <c r="F6"/>
     </row>
@@ -11230,17 +11455,17 @@
       <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="e">
+      <c r="E7">
         <f ca="1">VLOOKUP(date,INDIRECT($E$3),3,FALSE)</f>
-        <v>#N/A</v>
+        <v>22.8</v>
       </c>
       <c r="F7"/>
       <c r="G7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="3" t="e">
+      <c r="H7" s="3">
         <f ca="1">Itd/Ietd</f>
-        <v>#N/A</v>
+        <v>0.63437824048925062</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11250,17 +11475,17 @@
       <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="e">
+      <c r="E8">
         <f ca="1">VLOOKUP(date,INDIRECT($E$3),4,FALSE)</f>
-        <v>#N/A</v>
+        <v>13.6</v>
       </c>
       <c r="F8"/>
       <c r="G8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="3" t="e">
+      <c r="H8" s="3">
         <f ca="1">Itd</f>
-        <v>#N/A</v>
+        <v>13901488.429655956</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11274,76 +11499,76 @@
       <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="3" t="e">
+      <c r="E9" s="3">
         <f ca="1">AVERAGE(E7:E8)</f>
-        <v>#N/A</v>
+        <v>18.2</v>
       </c>
       <c r="F9"/>
       <c r="G9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="3" t="e">
+      <c r="H9" s="3">
         <f ca="1">Itd*(1-2.3*(H7-0.07)^2)</f>
-        <v>#N/A</v>
+        <v>3717224.1396063031</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="e">
+      <c r="E10">
         <f ca="1">VLOOKUP(date,INDIRECT($E$3),5,FALSE)</f>
-        <v>#N/A</v>
+        <v>79.861666666666665</v>
       </c>
       <c r="F10"/>
       <c r="G10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="3" t="e">
+      <c r="H10" s="3">
         <f ca="1">Itd*(1.33-1.46*H7)</f>
-        <v>#N/A</v>
+        <v>5613529.0269696638</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E11" t="e">
+      <c r="E11">
         <f ca="1">VLOOKUP(date,INDIRECT($E$3),6,FALSE)</f>
-        <v>#N/A</v>
+        <v>1.415929203539823</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="3" t="e">
+      <c r="H11" s="3">
         <f ca="1">Itd*0.23</f>
-        <v>#N/A</v>
+        <v>3197342.33882087</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="e">
+      <c r="E12">
         <f ca="1">VLOOKUP(date,INDIRECT($E$3),7,FALSE)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="3" t="e">
+      <c r="H12" s="3" t="b">
         <f ca="1">H7&lt;0.07</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G13" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="3" t="e">
+      <c r="H13" s="3" t="b">
         <f ca="1">AND(H7&gt;=0.07,H7&lt;0.35)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -11353,9 +11578,9 @@
       <c r="G14" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="3" t="e">
+      <c r="H14" s="3" t="b">
         <f ca="1">AND(H7&gt;=0.35,H7&lt;0.75)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11364,14 +11589,14 @@
       </c>
       <c r="E15" s="3">
         <f ca="1">24-E16</f>
-        <v>6.8326906260072633</v>
+        <v>6.7659294691575838</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="3" t="e">
+      <c r="H15" s="3">
         <f ca="1">IF(H12,H8,IF(H13,H9,IF(H14,H10,H11)))</f>
-        <v>#N/A</v>
+        <v>5613529.0269696638</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11380,14 +11605,14 @@
       </c>
       <c r="E16" s="3">
         <f ca="1">12+(12/PI())*ACOS(-E22/E23)</f>
-        <v>17.167309373992737</v>
+        <v>17.234070530842416</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="3" t="e">
+      <c r="H16" s="3">
         <f ca="1">Itd-Idfd</f>
-        <v>#N/A</v>
+        <v>8287959.4026862923</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -11396,7 +11621,7 @@
       </c>
       <c r="E17" s="3">
         <f ca="1">E16-E15</f>
-        <v>10.334618747985473</v>
+        <v>10.468141061684832</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11405,7 +11630,7 @@
       </c>
       <c r="H18" s="3">
         <f ca="1">MAX(0,Ic*SIN(sunhgt))</f>
-        <v>865.50044758578099</v>
+        <v>890.2794014991598</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -11415,9 +11640,9 @@
       <c r="G19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="3" t="e">
+      <c r="H19" s="3">
         <f ca="1">PI()*Itd/86400</f>
-        <v>#N/A</v>
+        <v>505.47238338623453</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -11426,14 +11651,14 @@
       </c>
       <c r="E20" s="3">
         <f>-0.4093*COS(2*PI()*(doy+10)/365)</f>
-        <v>-0.31604369003550792</v>
+        <v>-0.29251581690738393</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>69</v>
       </c>
       <c r="H20" s="3">
         <f ca="1">E22*ACOS(-E24)+E23*SQRT(1-E24^2)</f>
-        <v>0.54205988316833964</v>
+        <v>0.56467058547914695</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -11448,9 +11673,9 @@
       <c r="G21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="3" t="e">
+      <c r="H21" s="3">
         <f ca="1">H19/H20</f>
-        <v>#N/A</v>
+        <v>895.16329765489695</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -11460,14 +11685,14 @@
       </c>
       <c r="E22" s="3">
         <f ca="1">SIN(decl)*SIN(lat)</f>
-        <v>-0.17145630226777664</v>
+        <v>-0.15907375275309613</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="3" t="e">
+      <c r="H22" s="3">
         <f ca="1">E22*H21</f>
-        <v>#N/A</v>
+        <v>-142.39698508480126</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -11476,14 +11701,14 @@
       </c>
       <c r="E23" s="3">
         <f ca="1">COS(decl)*COS(lat)</f>
-        <v>0.7927686213014089</v>
+        <v>0.79864798308266782</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="3" t="e">
+      <c r="H23" s="3">
         <f ca="1">E23*H21</f>
-        <v>#N/A</v>
+        <v>714.92036220171326</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11492,14 +11717,14 @@
       </c>
       <c r="E24" s="3">
         <f ca="1">E22/E23</f>
-        <v>-0.21627533893346332</v>
+        <v>-0.19917880733773849</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="3" t="e">
+      <c r="H24" s="3">
         <f ca="1">MAX(0,H22-H23*COS(PI()*th/12))</f>
-        <v>#N/A</v>
+        <v>564.77388026686003</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -11508,7 +11733,7 @@
       </c>
       <c r="E25" s="3">
         <f ca="1">ACOS(E22+E23*COS(ha))</f>
-        <v>0.91129987742132679</v>
+        <v>0.88806155471980674</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11517,14 +11742,14 @@
       </c>
       <c r="E26" s="3">
         <f ca="1">(PI()/2)-suninc</f>
-        <v>0.65949644937356977</v>
+        <v>0.68273477207508981</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="3" t="e">
+      <c r="H26" s="3">
         <f ca="1">IF(Iet&lt;=0,0,It/Iet)</f>
-        <v>#N/A</v>
+        <v>0.63437824048925051</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -11533,14 +11758,14 @@
       </c>
       <c r="E27" s="3">
         <f ca="1">(SIN(lat)*SIN(sunhgt)-SIN(decl))/(COS(lat)*COS(sunhgt))</f>
-        <v>0.98428276038135332</v>
+        <v>0.98344201923794727</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="3">
         <f ca="1">0.847-1.61*SIN(sunhgt)+1.04*SIN(sunhgt)^2</f>
-        <v>0.25096397488033562</v>
+        <v>0.24520209543163818</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -11549,14 +11774,14 @@
       </c>
       <c r="E28" s="3">
         <f ca="1">ACOS(MAX(-1,MIN(1,E27)))</f>
-        <v>0.17753075786833272</v>
+        <v>0.18222995395283803</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>23</v>
       </c>
       <c r="H28" s="3">
         <f ca="1">(1.47-H27)/1.66</f>
-        <v>0.73435905127690626</v>
+        <v>0.73783006299298903</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11566,14 +11791,14 @@
       </c>
       <c r="E29" s="3">
         <f ca="1">PI()+IF(th&lt;12,-E28,E28)</f>
-        <v>2.9640618957214606</v>
+        <v>2.9593626996369551</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="3" t="e">
+      <c r="H29" s="3">
         <f ca="1">It</f>
-        <v>#N/A</v>
+        <v>564.77388026686003</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11581,9 +11806,9 @@
       <c r="G30" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H30" s="3" t="e">
+      <c r="H30" s="3">
         <f ca="1">It*(1-6.4*(H26-0.22)^2)</f>
-        <v>#N/A</v>
+        <v>-55.878551290775121</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -11593,89 +11818,89 @@
       <c r="G31" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="3" t="e">
+      <c r="H31" s="3">
         <f ca="1">It*(1.47-1.66*H26)</f>
-        <v>#N/A</v>
+        <v>235.47237166524198</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="3" t="e">
+      <c r="E32" s="3">
         <f ca="1">Tmin+(Tmax-Tmin)*SIN((PI()*(tss-tsr-1.5))/DL)</f>
-        <v>#N/A</v>
+        <v>18.796951639331912</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="3" t="e">
+      <c r="H32" s="3">
         <f ca="1">It*H27</f>
-        <v>#N/A</v>
+        <v>138.48373888649121</v>
       </c>
     </row>
     <row r="33" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D33" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="3" t="e">
+      <c r="E33" s="3">
         <f ca="1">Tset+((Tmin-Tset)*(th+tsr))/((tsr+1.5)+tsr)</f>
-        <v>#N/A</v>
+        <v>23.644490716901299</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="3" t="e">
+      <c r="H33" s="3" t="b">
         <f ca="1">H26&lt;=0.22</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="3" t="e">
+      <c r="E34" s="3">
         <f ca="1">Tset+((Tmin-Tset)*(th-tss))/((tsr+1.5)+tsr)</f>
-        <v>#N/A</v>
+        <v>17.253188014402522</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="3" t="e">
+      <c r="H34" s="3" t="b">
         <f ca="1">AND(H26&gt;0.22,H26&lt;=0.35)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D35" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="3" t="e">
+      <c r="E35" s="3">
         <f ca="1">Tmin+(Tmax-Tmin)*SIN((PI()*(th-tsr-1.5))/DL)</f>
-        <v>#N/A</v>
+        <v>15.307526077533723</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="3" t="e">
+      <c r="H35" s="3" t="b">
         <f ca="1">AND(H26&gt;0.35,H26&lt;=H28)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="3" t="e">
+      <c r="E36" s="3">
         <f ca="1">IF(th&lt;(tsr+1.5),E33,IF(th&gt;tss,E34,E35))</f>
-        <v>#N/A</v>
+        <v>15.307526077533723</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H36" s="3" t="e">
+      <c r="H36" s="3">
         <f ca="1">IF(H33,H29,IF(H34,H30,IF(H35,H31,H32)))</f>
-        <v>#N/A</v>
+        <v>235.47237166524198</v>
       </c>
       <c r="I36" s="3"/>
     </row>
@@ -11683,16 +11908,16 @@
       <c r="D37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="3" t="e">
+      <c r="E37" s="3">
         <f ca="1">Ta+273.15</f>
-        <v>#N/A</v>
+        <v>288.45752607753371</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="3" t="e">
+      <c r="H37" s="3">
         <f ca="1">It-Idf</f>
-        <v>#N/A</v>
+        <v>329.30150860161802</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
@@ -11707,59 +11932,59 @@
       <c r="D40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="3" t="e">
+      <c r="E40" s="3">
         <f ca="1">MIN(Ta,Tdmax)</f>
-        <v>#N/A</v>
+        <v>15.307526077533723</v>
       </c>
       <c r="G40" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H40" s="3" t="e">
+      <c r="H40" s="3">
         <f ca="1">0.98*SB*Tak^4*(1.31*(ea/Tak)^(1/7)-1)</f>
-        <v>#N/A</v>
+        <v>-47.299687226477381</v>
       </c>
     </row>
     <row r="41" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="3" t="e">
+      <c r="E41" s="3">
         <f ca="1">6.1078*EXP(17.269*Ta/(Ta+237.3))</f>
-        <v>#N/A</v>
+        <v>17.392421142920494</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="3" t="e">
+      <c r="H41" s="3">
         <f ca="1">(1-p)*It+RnL</f>
-        <v>#N/A</v>
+        <v>432.75811100035367</v>
       </c>
     </row>
     <row r="42" spans="4:9" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="3" t="e">
+      <c r="E42" s="3">
         <f ca="1">6.1078*EXP(17.269*Tdcal/(Tdcal+237.3))</f>
-        <v>#N/A</v>
+        <v>17.392421142920494</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E43" t="e">
+      <c r="E43">
         <f ca="1">es-ea</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D44" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="16" t="e">
+      <c r="E44" s="16">
         <f ca="1">(25029.4*EXP(17.269*Ta/(Ta+237.3)))/(Ta+237.3)^2</f>
-        <v>#N/A</v>
+        <v>1.1169483811971006</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
@@ -11774,9 +11999,9 @@
       <c r="D47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="3" t="e">
+      <c r="E47" s="3">
         <f ca="1">100*ea/es</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.2">
@@ -11791,36 +12016,36 @@
       <c r="D50" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="3" t="e">
+      <c r="E50" s="3">
         <f ca="1">0.5*ud</f>
-        <v>#N/A</v>
+        <v>0.70796460176991149</v>
       </c>
     </row>
     <row r="51" spans="4:5" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D51" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E51" s="3" t="e">
+      <c r="E51" s="3">
         <f ca="1">umin-(12*PI()*(umin-ud))/DL</f>
-        <v>#N/A</v>
+        <v>3.2575707396497604</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="3" t="e">
+      <c r="E52" s="3">
         <f ca="1">umax-umin</f>
-        <v>#N/A</v>
+        <v>2.5496061378798487</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="3" t="e">
+      <c r="E53" s="3">
         <f ca="1">umin+IF(OR(th&lt;tsr+1.5,th&gt;tss+1.5),0,E52*SIN(PI()/DL*(th-tsr-1.5)))</f>
-        <v>#N/A</v>
+        <v>2.7843621561856429</v>
       </c>
     </row>
   </sheetData>
@@ -11837,7 +12062,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11879,16 +12104,16 @@
       <c r="F3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="16" t="e">
+      <c r="G3" s="16">
         <f ca="1">ET!K2</f>
-        <v>#N/A</v>
+        <v>20.836661038175286</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="16" t="e">
+      <c r="J3" s="16">
         <f ca="1">(1-pp)*Qdr*EXP(-kdr*L)</f>
-        <v>#N/A</v>
+        <v>66.729063982656967</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11905,9 +12130,9 @@
       <c r="I4" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="16" t="e">
+      <c r="J4" s="16">
         <f ca="1">(1-pp)*Qdr*EXP(-SQRT(alpha)*kdr*L)</f>
-        <v>#N/A</v>
+        <v>85.767403975025871</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11926,9 +12151,9 @@
       <c r="I5" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="J5" s="16" t="e">
+      <c r="J5" s="16">
         <f ca="1">(J3-J4)/2</f>
-        <v>#N/A</v>
+        <v>-9.519169996184452</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11941,9 +12166,9 @@
       <c r="C6" s="16">
         <v>2.1</v>
       </c>
-      <c r="D6" s="16" t="e">
+      <c r="D6" s="16">
         <f ca="1">B6*C6^((Tf-25)/10)</f>
-        <v>#N/A</v>
+        <v>220.27765288669207</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>145</v>
@@ -11966,9 +12191,9 @@
       <c r="C7" s="16">
         <v>1.2</v>
       </c>
-      <c r="D7" s="16" t="e">
+      <c r="D7" s="16">
         <f ca="1">B7*C7^((Tf-25)/10)</f>
-        <v>#N/A</v>
+        <v>278070.82030834095</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>124</v>
@@ -11980,9 +12205,9 @@
       <c r="I7" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="16" t="e">
+      <c r="J7" s="16">
         <f ca="1">(1-pp)*Qdf*(1-EXP(-J6))/J6</f>
-        <v>#N/A</v>
+        <v>213.1236784003024</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -11995,9 +12220,9 @@
       <c r="C8" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D8" s="16" t="e">
+      <c r="D8" s="16">
         <f ca="1">B8*C8^((Tf-25)/10)</f>
-        <v>#N/A</v>
+        <v>3285.5714833498428</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>127</v>
@@ -12017,9 +12242,9 @@
       <c r="C9" s="16">
         <v>2.4</v>
       </c>
-      <c r="D9" s="16" t="e">
+      <c r="D9" s="16">
         <f ca="1">(B9*C9^((Tf-25)/10))/(1+EXP(0.29*(Tf-40)))</f>
-        <v>#N/A</v>
+        <v>138.37654608237048</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>125</v>
@@ -12043,9 +12268,9 @@
       <c r="I10" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="J10" s="16" t="e">
+      <c r="J10" s="16">
         <f ca="1">alpha*(kdr*Qdr+J7+J5)</f>
-        <v>#N/A</v>
+        <v>637.84988533939668</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12061,14 +12286,14 @@
       </c>
       <c r="G11" s="16">
         <f ca="1">MAX(0,G10/(2*COS(suninc)))</f>
-        <v>0.81603479227822984</v>
+        <v>0.79249707620324539</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J11" s="16" t="e">
+      <c r="J11" s="16">
         <f ca="1">alpha*(J7+J5)</f>
-        <v>#N/A</v>
+        <v>162.88360672329438</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12121,9 +12346,9 @@
       <c r="I14" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="16" t="e">
+      <c r="J14" s="16">
         <f ca="1">Oa/(2*tau)</f>
-        <v>#N/A</v>
+        <v>31.957910680715436</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12136,9 +12361,9 @@
       <c r="I15" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="J15" s="16" t="e">
+      <c r="J15" s="16">
         <f ca="1">Vcmax*(Ci-co2pt)/(Kc*(1+Oa/Ko)+Ci)</f>
-        <v>#N/A</v>
+        <v>50.164230518192788</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12148,9 +12373,9 @@
       <c r="I16" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="J16" s="16" t="e">
+      <c r="J16" s="16">
         <f ca="1">0.5*Vcmax</f>
-        <v>#N/A</v>
+        <v>69.188273041185241</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12163,14 +12388,14 @@
       </c>
       <c r="G17" s="16">
         <f ca="1">(1-EXP(-kdr*L))/kdr</f>
-        <v>1.1194898635233923</v>
+        <v>1.1447574634567557</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="J17" s="16" t="e">
+      <c r="J17" s="16">
         <f ca="1">em*alpha*Qsl*((Ci-co2pt)/(Ci+2*co2pt))</f>
-        <v>#N/A</v>
+        <v>29.101489113599722</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12185,14 +12410,14 @@
       </c>
       <c r="G18" s="16">
         <f ca="1">L-Lsl</f>
-        <v>1.8805101364766077</v>
+        <v>1.8552425365432443</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="16" t="e">
+      <c r="J18" s="16">
         <f ca="1">em*alpha*Qsh*((Ci-co2pt)/(Ci+2*co2pt))</f>
-        <v>#N/A</v>
+        <v>7.4314593712274437</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12205,9 +12430,9 @@
       <c r="I19" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="J19" s="16" t="e">
+      <c r="J19" s="16">
         <f ca="1">Lsl*MIN(vc,vs,vqsl)+Lsh*MIN(vc,vs,vqsh)</f>
-        <v>#N/A</v>
+        <v>47.101306394592875</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -12224,7 +12449,7 @@
         <v>148</v>
       </c>
       <c r="J20" s="16">
-        <v>158.91769310603615</v>
+        <v>331.07033374402306</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
@@ -12237,16 +12462,16 @@
       <c r="F21" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="16" t="e">
+      <c r="G21" s="16">
         <f ca="1">0.5*Idr*4.55</f>
-        <v>#N/A</v>
+        <v>749.16093206868095</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>151</v>
       </c>
       <c r="J21" s="16">
         <f>J20*3600*30*10^-6</f>
-        <v>17.163110855451905</v>
+        <v>35.75559604435449</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12259,9 +12484,9 @@
       <c r="F22" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="16" t="e">
+      <c r="G22" s="16">
         <f ca="1">0.5*Idf*4.55</f>
-        <v>#N/A</v>
+        <v>535.69964553842544</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -12375,16 +12600,16 @@
       <c r="G2" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="16" t="e">
+      <c r="H2" s="16">
         <f ca="1">(slopesvp+psycho)*raa</f>
-        <v>#N/A</v>
+        <v>15.163972600774368</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K2" s="16" t="e">
+      <c r="K2" s="16">
         <f ca="1">((Hc*rca+(Hs+Hc)*raa)/pcp)+Ta</f>
-        <v>#N/A</v>
+        <v>20.836661038175286</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12403,9 +12628,9 @@
       <c r="G3" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="16" t="e">
+      <c r="H3" s="16">
         <f ca="1">(slopesvp+psycho)*rca+psycho*rcs</f>
-        <v>#N/A</v>
+        <v>143.78761860482092</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
@@ -12425,9 +12650,9 @@
       <c r="G4" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="H4" s="16" t="e">
+      <c r="H4" s="16">
         <f ca="1">(slopesvp+psycho)*rsa+psycho*rss</f>
-        <v>#N/A</v>
+        <v>68.766395946958681</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12447,9 +12672,9 @@
       <c r="G5" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="16" t="e">
+      <c r="H5" s="16">
         <f ca="1">(1+(H3*H2)/(H4*(H3+H2)))^-1</f>
-        <v>#N/A</v>
+        <v>0.83369652312624543</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12464,14 +12689,14 @@
       </c>
       <c r="E6" s="36">
         <f>Water!H9</f>
-        <v>0.39</v>
+        <v>0.28807762645923773</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="H6" s="16" t="e">
+      <c r="H6" s="16">
         <f ca="1">(1+(H4*H2)/(H3*(H4+H2)))^-1</f>
-        <v>#N/A</v>
+        <v>0.92046539994874721</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12484,9 +12709,9 @@
       <c r="G7" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H7" s="16" t="e">
+      <c r="H7" s="16">
         <f ca="1">slopesvp*A+(pcp*vpd-slopesvp*rca*As)/(raa+rca)</f>
-        <v>#N/A</v>
+        <v>324.56238840270163</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12502,9 +12727,9 @@
       <c r="G8" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="H8" s="16" t="e">
+      <c r="H8" s="16">
         <f ca="1">slopesvp+psycho*(1+rcs/(raa+rca))</f>
-        <v>#N/A</v>
+        <v>5.1010779131779911</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12518,9 +12743,9 @@
       <c r="G9" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="16" t="e">
+      <c r="H9" s="16">
         <f ca="1">H7/H8</f>
-        <v>#N/A</v>
+        <v>63.626236243958488</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -12530,16 +12755,16 @@
       <c r="D10" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="16" t="e">
+      <c r="E10" s="16">
         <f ca="1">0.3*pRn*Rn</f>
-        <v>#N/A</v>
+        <v>52.78389538181947</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="H10" s="16" t="e">
+      <c r="H10" s="16">
         <f ca="1">slopesvp*A+(pcp*vpd-slopesvp*rsa*Ac)/(raa+rsa)</f>
-        <v>#N/A</v>
+        <v>241.03799495377152</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12552,16 +12777,16 @@
       <c r="D11" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="16" t="e">
+      <c r="E11" s="16">
         <f ca="1">(1-pRn)*Rn</f>
-        <v>#N/A</v>
+        <v>256.81179306095538</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="H11" s="16" t="e">
+      <c r="H11" s="16">
         <f ca="1">slopesvp+psycho*(1+rss/(raa+rsa))</f>
-        <v>#N/A</v>
+        <v>3.5437765939015415</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12574,16 +12799,16 @@
       <c r="D12" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="16" t="e">
+      <c r="E12" s="16">
         <f ca="1">pRn*Rn-G</f>
-        <v>#N/A</v>
+        <v>123.16242255757876</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="16" t="e">
+      <c r="H12" s="16">
         <f ca="1">H10/H11</f>
-        <v>#N/A</v>
+        <v>68.017265921495166</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -12596,16 +12821,16 @@
       <c r="D13" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="16" t="e">
+      <c r="E13" s="16">
         <f ca="1">Ac+As</f>
-        <v>#N/A</v>
+        <v>379.97421561853412</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="16" t="e">
+      <c r="H13" s="16">
         <f ca="1">H5*H9+H6*H12</f>
-        <v>#N/A</v>
+        <v>115.65251181604663</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12618,9 +12843,9 @@
       <c r="G15" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H15" s="16" t="e">
+      <c r="H15" s="16">
         <f ca="1">vpd+(raa/pcp)*(slopesvp*A-(slopesvp+psycho)*LET)</f>
-        <v>#N/A</v>
+        <v>1.5331690433710792</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12655,9 +12880,9 @@
       <c r="G17" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="H17" s="16" t="e">
+      <c r="H17" s="16">
         <f ca="1">slopesvp*As+pcp*vpd0/rsa</f>
-        <v>#N/A</v>
+        <v>261.21666052260446</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -12670,16 +12895,16 @@
       <c r="D18" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="16" t="e">
+      <c r="E18" s="16">
         <f ca="1">k*u/LN((zr-d)/z0)</f>
-        <v>#N/A</v>
+        <v>0.4743971716473413</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="H18" s="16" t="e">
+      <c r="H18" s="16">
         <f ca="1">slopesvp+psycho*(rss+rsa)/rsa</f>
-        <v>#N/A</v>
+        <v>4.5418704996622825</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12693,31 +12918,31 @@
       <c r="D19" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E19" s="16" t="e">
+      <c r="E19" s="16">
         <f ca="1">(ustar/k)*LN((h-d)/z0)</f>
-        <v>#N/A</v>
+        <v>1.2080163208746075</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H19" s="16" t="e">
+      <c r="H19" s="16">
         <f ca="1">H17/H18</f>
-        <v>#N/A</v>
+        <v>57.513013755462119</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D20" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="16" t="e">
+      <c r="E20" s="16">
         <f ca="1">k*ustar*h</f>
-        <v>#N/A</v>
+        <v>0.18975886865893654</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>214</v>
       </c>
       <c r="H20" s="16">
-        <v>28.364860670472069</v>
+        <v>215.9435358984108</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -12726,7 +12951,7 @@
       </c>
       <c r="H21" s="16">
         <f>H20*2*3600/2454000</f>
-        <v>8.3222085096739562E-2</v>
+        <v>0.63357516645010503</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -12738,16 +12963,16 @@
       <c r="D23" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="16" t="e">
+      <c r="E23" s="16">
         <f ca="1">(h*EXP(nK))/(nK*Kh)</f>
-        <v>#N/A</v>
+        <v>19.469593571964705</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="H23" s="16" t="e">
+      <c r="H23" s="16">
         <f ca="1">slopesvp*Ac+pcp*vpd0/rca</f>
-        <v>#N/A</v>
+        <v>369.62096535675408</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -12761,9 +12986,9 @@
       <c r="G24" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="H24" s="16" t="e">
+      <c r="H24" s="16">
         <f ca="1">slopesvp+psycho*(rcs+rca)/rca</f>
-        <v>#N/A</v>
+        <v>6.3574846306995756</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12777,24 +13002,24 @@
       <c r="G25" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="H25" s="16" t="e">
+      <c r="H25" s="16">
         <f ca="1">H23/H24</f>
-        <v>#N/A</v>
+        <v>58.13949806058455</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D26" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="16" t="e">
+      <c r="E26" s="16">
         <f ca="1">E23*(E24-E25)</f>
-        <v>#N/A</v>
+        <v>15.140545278002071</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>215</v>
       </c>
       <c r="H26" s="16">
-        <v>103.45817296668977</v>
+        <v>212.28461053063566</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -12803,32 +13028,32 @@
       </c>
       <c r="H27" s="16">
         <f>H26*2*3600/2454000</f>
-        <v>0.30354476176045903</v>
+        <v>0.62283993309721952</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D28" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="16" t="e">
+      <c r="E28" s="16">
         <f ca="1">LN((zr-d)/(h-d))/(k*ustar)</f>
-        <v>#N/A</v>
+        <v>7.004341650396678</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="D29" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="16" t="e">
+      <c r="E29" s="16">
         <f ca="1">1/(nK*k*ustar)</f>
-        <v>#N/A</v>
+        <v>2.6349229605635767</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>218</v>
       </c>
       <c r="H29" s="16">
         <f>PETs+PETc</f>
-        <v>0.38676684685719859</v>
+        <v>1.2564150995473247</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -12844,9 +13069,9 @@
       <c r="D31" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="16" t="e">
+      <c r="E31" s="16">
         <f ca="1">E28+E29*E30</f>
-        <v>#N/A</v>
+        <v>8.5433316041265037</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>166</v>
@@ -12856,9 +13081,9 @@
       <c r="G32" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="H32" s="16" t="e">
+      <c r="H32" s="16">
         <f ca="1">psycho*As*(rss+rsa)-pcp*vpd0</f>
-        <v>#N/A</v>
+        <v>4514.4732393701088</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.2">
@@ -12872,34 +13097,34 @@
       <c r="G33" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="H33" s="16" t="e">
+      <c r="H33" s="16">
         <f ca="1">slopesvp*rsa+psycho*(rss+rsa)</f>
-        <v>#N/A</v>
+        <v>68.766395946958681</v>
       </c>
     </row>
     <row r="34" spans="4:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D34" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="16" t="e">
+      <c r="E34" s="16">
         <f ca="1">SQRT(E19/leafwidth)</f>
-        <v>#N/A</v>
+        <v>3.885898095798781</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="H34" s="16" t="e">
+      <c r="H34" s="16">
         <f ca="1">H32/H33</f>
-        <v>#N/A</v>
+        <v>65.649408802116668</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D35" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="16" t="e">
+      <c r="E35" s="16">
         <f ca="1">nu/(E33*E34)</f>
-        <v>#N/A</v>
+        <v>22.617061142466117</v>
       </c>
       <c r="G35" s="28"/>
     </row>
@@ -12907,50 +13132,50 @@
       <c r="G36" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="H36" s="16" t="e">
+      <c r="H36" s="16">
         <f ca="1">psycho*Ac*(rcs+rca)-pcp*vpd0</f>
-        <v>#N/A</v>
+        <v>28566.616180857793</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D37" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="16" t="e">
+      <c r="E37" s="16">
         <f ca="1">MAX(0.1,It*0.5)</f>
-        <v>#N/A</v>
+        <v>282.38694013343002</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="H37" s="16" t="e">
+      <c r="H37" s="16">
         <f ca="1">slopesvp*rca+psycho*(rcs+rca)</f>
-        <v>#N/A</v>
+        <v>143.78761860482092</v>
       </c>
     </row>
     <row r="38" spans="4:8" ht="19.5" x14ac:dyDescent="0.35">
       <c r="D38" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="16" t="e">
+      <c r="E38" s="16">
         <f ca="1">(stom_a1+E37)/(stom_a2*E37)</f>
-        <v>#N/A</v>
+        <v>236.26938269581649</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="H38" s="16" t="e">
+      <c r="H38" s="16">
         <f ca="1">H36/H37</f>
-        <v>#N/A</v>
+        <v>198.67229500037084</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D39" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E39" s="16" t="e">
+      <c r="E39" s="16">
         <f ca="1">IF(L&lt;=0.5*Lmax,rst/L,rst/(0.5*Lmax))</f>
-        <v>#N/A</v>
+        <v>157.51292179721099</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.2">
@@ -12969,7 +13194,7 @@
       </c>
       <c r="E42" s="16">
         <f>E41*EXP(-(1/B13)*E6/E5)</f>
-        <v>14.906189086072134</v>
+        <v>63.666731938187688</v>
       </c>
     </row>
   </sheetData>
@@ -12985,10 +13210,10 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showFormulas="1" topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13106,7 +13331,7 @@
       </c>
       <c r="E5" s="16">
         <f>1/(1+(3.6073*H9/H3)^-9.3172)</f>
-        <v>0.99999356396147077</v>
+        <v>0.99989178202775464</v>
       </c>
       <c r="G5" s="44" t="s">
         <v>232</v>
@@ -13130,7 +13355,7 @@
       </c>
       <c r="E6" s="16">
         <f>(PETs*E5)*0.75</f>
-        <v>6.2416162107145047E-2</v>
+        <v>0.47512995167274508</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>231</v>
@@ -13173,13 +13398,13 @@
         <v>270</v>
       </c>
       <c r="H8" s="16">
-        <v>20.973119611305158</v>
+        <v>5.7615525291847547</v>
       </c>
       <c r="I8" s="16">
-        <v>192.45824423201304</v>
+        <v>146.57521793618147</v>
       </c>
       <c r="J8" s="16">
-        <v>201.66600171413316</v>
+        <v>177.73472055690885</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -13195,15 +13420,15 @@
       </c>
       <c r="H9" s="16">
         <f>MAX(0.01,MIN(H3,(H8/1000)/H4))</f>
-        <v>0.39</v>
+        <v>0.28807762645923773</v>
       </c>
       <c r="I9" s="16">
         <f>MAX(0.01,MIN(I3,(I8/1000)/I4))</f>
-        <v>0.39</v>
+        <v>0.31864177812213362</v>
       </c>
       <c r="J9" s="16">
         <f>MAX(0.01,MIN(J3,(J8/1000)/J4))</f>
-        <v>0.38781923406564067</v>
+        <v>0.34179753953251701</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13219,15 +13444,15 @@
       </c>
       <c r="H10" s="16">
         <f>[1]!interpolate(hydraulic_vwc,hydraulic_K,H9)</f>
-        <v>314.2</v>
+        <v>3.845324460706987</v>
       </c>
       <c r="I10" s="16">
         <f>[1]!interpolate(hydraulic_vwc,hydraulic_K,I9)</f>
-        <v>314.2</v>
+        <v>8.5399278862819052</v>
       </c>
       <c r="J10" s="16">
         <f>[1]!interpolate(hydraulic_vwc,hydraulic_K,J9)</f>
-        <v>298.32880971861766</v>
+        <v>18.777691690951421</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13243,15 +13468,15 @@
       </c>
       <c r="H11" s="16">
         <f>[1]!interpolate(matric_vwc,matric_Hm,H9)</f>
-        <v>0</v>
+        <v>0.59611867703811272</v>
       </c>
       <c r="I11" s="16">
         <f>[1]!interpolate(matric_vwc,matric_Hm,I9)</f>
-        <v>0</v>
+        <v>0.35679110938933184</v>
       </c>
       <c r="J11" s="16">
         <f>[1]!interpolate(matric_vwc,matric_Hm,J9)</f>
-        <v>1.0903829671796702E-2</v>
+        <v>0.24101230233741491</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13260,7 +13485,7 @@
       </c>
       <c r="E12" s="16">
         <f>SUM(H16:J16)/droot</f>
-        <v>0.39</v>
+        <v>0.31619664598910191</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>238</v>
@@ -13291,15 +13516,15 @@
       </c>
       <c r="H13" s="16">
         <f>H11+H12</f>
-        <v>0.01</v>
+        <v>0.60611867703811273</v>
       </c>
       <c r="I13" s="16">
         <f>I11+I12</f>
-        <v>0.25</v>
+        <v>0.6067911093893319</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" ref="J13" si="0">J11+J12</f>
-        <v>0.7509038296717967</v>
+        <v>0.98101230233741488</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -13308,18 +13533,18 @@
       </c>
       <c r="E14" s="16">
         <f>PETc*E13</f>
-        <v>0.30354476176045903</v>
+        <v>0.62283993309721952</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>267</v>
       </c>
       <c r="I14" s="16">
         <f>(H10*H4+I10*I4)/(I4+H4)</f>
-        <v>314.2</v>
+        <v>8.3443194102162828</v>
       </c>
       <c r="J14" s="16">
         <f>(I10*I4+J10*J4)/(J4+I4)</f>
-        <v>305.77855209559306</v>
+        <v>13.972210721412671</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13348,11 +13573,11 @@
       </c>
       <c r="H16" s="16">
         <f>MAX(0,H9*(H4-H15))</f>
-        <v>7.8000000000000005E-3</v>
+        <v>5.7615525291847547E-3</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" ref="I16:J16" si="1">MAX(0,I9*(I4-I15))</f>
-        <v>8.9700000000000002E-2</v>
+        <v>7.3287608968090723E-2</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="1"/>
@@ -13363,16 +13588,16 @@
       <c r="D17" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E17" s="16" t="e">
+      <c r="E17" s="16">
         <f ca="1">(1-MIN(m,L/Lmax*m))*Pg</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>248</v>
       </c>
       <c r="H17" s="16">
         <f>E6</f>
-        <v>6.2416162107145047E-2</v>
+        <v>0.47512995167274508</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13415,11 +13640,11 @@
       </c>
       <c r="H20" s="16">
         <f>H19*AETc</f>
-        <v>4.215629651329255E-2</v>
+        <v>8.6500009908541856E-2</v>
       </c>
       <c r="I20" s="16">
         <f>(I19-H19)*AETc</f>
-        <v>0.26138846524716647</v>
+        <v>0.53633992318867763</v>
       </c>
       <c r="J20" s="16">
         <f>(J19-I19)*AETc</f>
@@ -13430,34 +13655,34 @@
       <c r="G21" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="H21" s="16" t="e">
+      <c r="H21" s="16">
         <f ca="1">Pn-H17-H20</f>
-        <v>#N/A</v>
+        <v>-0.56162996158128697</v>
       </c>
       <c r="I21" s="16">
         <f>I14*(I13-H13)/(I6-H6)-I20</f>
-        <v>313.93861153475279</v>
+        <v>-0.51296079685394658</v>
       </c>
       <c r="J21" s="16">
         <f>J14*(J13-I13)/(J6-I6)-J20</f>
-        <v>312.58295464526441</v>
+        <v>10.670810947528663</v>
       </c>
     </row>
     <row r="22" spans="4:10" ht="19.5" x14ac:dyDescent="0.35">
       <c r="G22" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="H22" s="29" t="e">
+      <c r="H22" s="29">
         <f ca="1">H21-I21</f>
-        <v>#N/A</v>
+        <v>-4.8669164727340397E-2</v>
       </c>
       <c r="I22" s="29">
         <f>I21-J21</f>
-        <v>1.3556568894883867</v>
+        <v>-11.183771744382609</v>
       </c>
       <c r="J22" s="29">
         <f>J21-J14</f>
-        <v>6.8044025496713516</v>
+        <v>-3.3013997738840075</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.2">
@@ -13745,7 +13970,7 @@
       <c r="D12" s="16">
         <v>0.39</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="71">
         <f xml:space="preserve"> 314.2</f>
         <v>314.2</v>
       </c>
@@ -13822,7 +14047,7 @@
       </c>
       <c r="E2" s="1">
         <f>B2+INT(_step)</f>
-        <v>43030</v>
+        <v>43035</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>228</v>
@@ -13831,21 +14056,21 @@
         <f>th</f>
         <v>11.4370791</v>
       </c>
-      <c r="I2" t="e">
+      <c r="I2">
         <f ca="1">assim</f>
-        <v>#N/A</v>
+        <v>47.101306394592875</v>
       </c>
       <c r="J2">
         <f>Photosynthesis!J20</f>
-        <v>158.91769310603615</v>
+        <v>331.07033374402306</v>
       </c>
       <c r="K2">
         <f ca="1">tsr</f>
-        <v>6.8326906260072633</v>
+        <v>6.7659294691575838</v>
       </c>
       <c r="L2">
         <f ca="1">tss</f>
-        <v>17.167309373992737</v>
+        <v>17.234070530842416</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -13854,7 +14079,7 @@
       </c>
       <c r="E3" s="1">
         <f>date-DATE(YEAR(date),9,22)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>228</v>
@@ -13863,13 +14088,13 @@
         <f>th</f>
         <v>11.4370791</v>
       </c>
-      <c r="I3" t="e">
+      <c r="I3">
         <f ca="1">LETs</f>
-        <v>#N/A</v>
+        <v>57.513013755462119</v>
       </c>
       <c r="J3">
         <f>ET!H20</f>
-        <v>28.364860670472069</v>
+        <v>215.9435358984108</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -13895,13 +14120,13 @@
         <f>th</f>
         <v>11.4370791</v>
       </c>
-      <c r="I4" t="e">
+      <c r="I4">
         <f ca="1">LETc</f>
-        <v>#N/A</v>
+        <v>58.13949806058455</v>
       </c>
       <c r="J4">
         <f>ET!H26</f>
-        <v>103.45817296668977</v>
+        <v>212.28461053063566</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -13915,18 +14140,18 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>255</v>
       </c>
       <c r="H5">
         <f>Water!H8:J8</f>
-        <v>20.973119611305158</v>
+        <v>5.7615525291847547</v>
       </c>
       <c r="I5">
         <f>Water!H22:J22</f>
-        <v>1.3556568894883867</v>
+        <v>-11.183771744382609</v>
       </c>
       <c r="J5">
         <v>100</v>
@@ -13946,7 +14171,7 @@
         <v>86</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -13969,7 +14194,7 @@
       </c>
       <c r="H21">
         <f>Water!H8:J8</f>
-        <v>20.973119611305158</v>
+        <v>5.7615525291847547</v>
       </c>
       <c r="I21">
         <f>Water!H7:J7</f>
@@ -13985,33 +14210,33 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>88</v>
       </c>
@@ -14030,38 +14255,39 @@
       <c r="F2" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>doy</f>
-        <v>30</v>
-      </c>
-      <c r="B3" t="e">
+        <v>35</v>
+      </c>
+      <c r="B3">
         <f ca="1">Pg</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f>Water!H9</f>
-        <v>0.39</v>
+        <v>0.28807762645923773</v>
       </c>
       <c r="D3">
         <f>Water!I9</f>
-        <v>0.39</v>
+        <v>0.31864177812213362</v>
       </c>
       <c r="E3">
         <f>Water!J9</f>
-        <v>0.38781923406564067</v>
+        <v>0.34179753953251701</v>
       </c>
       <c r="F3">
         <f>SUM(Water!H8:J8)</f>
-        <v>415.09736555745133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>330.07149102227504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C4" t="b">
         <v>0</v>
       </c>
@@ -14075,7 +14301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -14083,32 +14309,33 @@
         <v>290</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="58"/>
+      <c r="H7" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="I7" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="J7" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="J7" s="60" t="s">
+      <c r="K7" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="K7" s="60" t="s">
+      <c r="L7" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="L7" s="60" t="s">
+      <c r="M7" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -14127,35 +14354,39 @@
       <c r="F8" s="3">
         <v>238.3</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="3">
+        <f>F8</f>
+        <v>238.3</v>
+      </c>
+      <c r="H8" s="57">
         <v>23.833175487465301</v>
       </c>
-      <c r="H8" s="3">
-        <f>G8*10</f>
+      <c r="I8" s="3">
+        <f>H8*10</f>
         <v>238.331754874653</v>
       </c>
-      <c r="I8" s="61">
-        <f>(ABS(H8-F8)/F8)</f>
+      <c r="J8" s="59">
+        <f>(ABS(I8-G8)/G8)</f>
         <v>1.3325587349135304E-4</v>
       </c>
-      <c r="J8" s="15">
-        <f>H8-F8</f>
+      <c r="K8" s="15">
+        <f>I8-G8</f>
         <v>3.1754874652989429E-2</v>
       </c>
-      <c r="K8" s="72">
-        <f>J8^2</f>
+      <c r="L8" s="70">
+        <f>K8^2</f>
         <v>1.0083720642270705E-3</v>
       </c>
-      <c r="L8">
-        <f>SQRT(SUM(K8:K36)/29)</f>
-        <v>23.66713207511923</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="M8">
+        <f>SQRT(SUM(L8:L42)/34)</f>
+        <v>26.494426804913402</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -14174,31 +14405,35 @@
       <c r="F9" s="3">
         <v>237.90173076717087</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="3">
+        <f t="shared" ref="G9:G42" si="0">F9</f>
+        <v>237.90173076717087</v>
+      </c>
+      <c r="H9" s="57">
         <v>23.839117647058668</v>
       </c>
-      <c r="H9" s="3">
-        <f>G9*10</f>
+      <c r="I9" s="3">
+        <f>H9*10</f>
         <v>238.39117647058669</v>
       </c>
-      <c r="I9" s="61">
-        <f t="shared" ref="I9:I37" si="0">(ABS(H9-F9)/F9)</f>
+      <c r="J9" s="59">
+        <f t="shared" ref="J9:J42" si="1">(ABS(I9-G9)/G9)</f>
         <v>2.0573440211530888E-3</v>
       </c>
-      <c r="J9" s="15">
-        <f t="shared" ref="J9:J37" si="1">H9-F9</f>
+      <c r="K9" s="15">
+        <f t="shared" ref="K9:K42" si="2">I9-G9</f>
         <v>0.48944570341581084</v>
       </c>
-      <c r="K9" s="72">
-        <f t="shared" ref="K9:K37" si="2">J9^2</f>
+      <c r="L9" s="70">
+        <f t="shared" ref="L9:L42" si="3">K9^2</f>
         <v>0.23955709659219787</v>
       </c>
-      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -14217,31 +14452,35 @@
       <c r="F10" s="3">
         <v>237.99555720957892</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>237.99555720957892</v>
+      </c>
+      <c r="H10" s="57">
         <v>23.929065573770334</v>
       </c>
-      <c r="H10" s="3">
-        <f t="shared" ref="H10:H35" si="3">G10*10</f>
+      <c r="I10" s="3">
+        <f t="shared" ref="I10:I35" si="4">H10*10</f>
         <v>239.29065573770333</v>
       </c>
-      <c r="I10" s="61">
-        <f t="shared" si="0"/>
+      <c r="J10" s="59">
+        <f t="shared" si="1"/>
         <v>5.4416920353851355E-3</v>
       </c>
-      <c r="J10" s="15">
-        <f t="shared" si="1"/>
+      <c r="K10" s="15">
+        <f t="shared" si="2"/>
         <v>1.295098528124413</v>
       </c>
-      <c r="K10" s="72">
-        <f t="shared" si="2"/>
+      <c r="L10" s="70">
+        <f t="shared" si="3"/>
         <v>1.6772801975500209</v>
       </c>
-      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -14260,31 +14499,35 @@
       <c r="F11" s="3">
         <v>237.23788214975264</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>237.23788214975264</v>
+      </c>
+      <c r="H11" s="57">
         <v>23.482235772357964</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
+        <f t="shared" si="4"/>
+        <v>234.82235772357964</v>
+      </c>
+      <c r="J11" s="59">
+        <f t="shared" si="1"/>
+        <v>1.0181866421519612E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="2"/>
+        <v>-2.4155244261729933</v>
+      </c>
+      <c r="L11" s="70">
         <f t="shared" si="3"/>
-        <v>234.82235772357964</v>
-      </c>
-      <c r="I11" s="61">
-        <f t="shared" si="0"/>
-        <v>1.0181866421519612E-2</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="1"/>
-        <v>-2.4155244261729933</v>
-      </c>
-      <c r="K11" s="72">
-        <f t="shared" si="2"/>
         <v>5.8347582534383688</v>
       </c>
-      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -14292,42 +14535,46 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>0.23646834869145192</v>
+        <v>0.23646534567650421</v>
       </c>
       <c r="D12" s="3">
-        <v>0.23453249249397148</v>
+        <v>0.23453256162351388</v>
       </c>
       <c r="E12" s="3">
-        <v>0.23815556765954118</v>
+        <v>0.23815560256428245</v>
       </c>
       <c r="F12" s="3">
-        <v>236.45520870401737</v>
-      </c>
-      <c r="G12" s="59">
+        <v>236.45519859377333</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>236.45519859377333</v>
+      </c>
+      <c r="H12" s="57">
         <v>23.050303030303041</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
+        <f t="shared" si="4"/>
+        <v>230.50303030303041</v>
+      </c>
+      <c r="J12" s="59">
+        <f t="shared" si="1"/>
+        <v>2.5172499171687311E-2</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="2"/>
+        <v>-5.9521682907429181</v>
+      </c>
+      <c r="L12" s="70">
         <f t="shared" si="3"/>
-        <v>230.50303030303041</v>
-      </c>
-      <c r="I12" s="61">
-        <f t="shared" si="0"/>
-        <v>2.5172540852917251E-2</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="1"/>
-        <v>-5.9521784009869521</v>
-      </c>
-      <c r="K12" s="72">
-        <f t="shared" si="2"/>
-        <v>35.428427717175587</v>
-      </c>
-      <c r="N12" s="3"/>
+        <v>35.428307361325473</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -14335,42 +14582,46 @@
         <v>19</v>
       </c>
       <c r="C13" s="3">
-        <v>0.23484457499087541</v>
+        <v>0.23484339745293911</v>
       </c>
       <c r="D13" s="3">
-        <v>0.23314823132807375</v>
+        <v>0.23314817357723661</v>
       </c>
       <c r="E13" s="3">
-        <v>0.23806272671882164</v>
+        <v>0.23806279333233502</v>
       </c>
       <c r="F13" s="3">
-        <v>235.73769580451869</v>
-      </c>
-      <c r="G13" s="59">
+        <v>235.73768032740185</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>235.73768032740185</v>
+      </c>
+      <c r="H13" s="57">
         <v>22.654267015706743</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
+        <f t="shared" si="4"/>
+        <v>226.54267015706745</v>
+      </c>
+      <c r="J13" s="59">
+        <f t="shared" si="1"/>
+        <v>3.9005262788553804E-2</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="2"/>
+        <v>-9.1950101703343989</v>
+      </c>
+      <c r="L13" s="70">
         <f t="shared" si="3"/>
-        <v>226.54267015706745</v>
-      </c>
-      <c r="I13" s="61">
-        <f t="shared" si="0"/>
-        <v>3.9005325881678501E-2</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="1"/>
-        <v>-9.1950256474512457</v>
-      </c>
-      <c r="K13" s="72">
-        <f t="shared" si="2"/>
-        <v>84.548496657286208</v>
-      </c>
-      <c r="N13" s="3"/>
+        <v>84.548212032553039</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="40">
         <v>6</v>
       </c>
@@ -14378,42 +14629,46 @@
         <v>8</v>
       </c>
       <c r="C14" s="40">
-        <v>0.35032162216753471</v>
+        <v>0.35032123509118634</v>
       </c>
       <c r="D14" s="40">
-        <v>0.26237584688985505</v>
+        <v>0.26238077794212078</v>
       </c>
       <c r="E14" s="40">
-        <v>0.23863437614852026</v>
+        <v>0.23863201062799153</v>
       </c>
       <c r="F14" s="3">
-        <v>251.78919760991454</v>
-      </c>
-      <c r="G14" s="59">
+        <v>251.79022808175489</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>251.79022808175489</v>
+      </c>
+      <c r="H14" s="57">
         <v>27.313671444322264</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <f t="shared" si="4"/>
+        <v>273.13671444322262</v>
+      </c>
+      <c r="J14" s="59">
+        <f t="shared" si="1"/>
+        <v>8.4778851522929799E-2</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="2"/>
+        <v>21.346486361467726</v>
+      </c>
+      <c r="L14" s="70">
         <f t="shared" si="3"/>
-        <v>273.13671444322262</v>
-      </c>
-      <c r="I14" s="61">
-        <f t="shared" si="0"/>
-        <v>8.4783291086144241E-2</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="1"/>
-        <v>21.347516833308077</v>
-      </c>
-      <c r="K14" s="72">
-        <f t="shared" si="2"/>
-        <v>455.71647494837174</v>
-      </c>
-      <c r="N14" s="40"/>
+        <v>455.67247998032764</v>
+      </c>
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
       <c r="Q14" s="40"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="40"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="40">
         <v>7</v>
       </c>
@@ -14421,42 +14676,46 @@
         <v>0</v>
       </c>
       <c r="C15" s="40">
-        <v>0.28422318046431294</v>
+        <v>0.28422377279863248</v>
       </c>
       <c r="D15" s="40">
-        <v>0.27217207559539353</v>
+        <v>0.27217825579250676</v>
       </c>
       <c r="E15" s="40">
-        <v>0.24179848277749166</v>
+        <v>0.2417956844962113</v>
       </c>
       <c r="F15" s="3">
-        <v>256.61882942746297</v>
-      </c>
-      <c r="G15" s="59">
+        <v>256.62022905855565</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>256.62022905855565</v>
+      </c>
+      <c r="H15" s="57">
         <v>28.196189710610948</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
+        <f t="shared" si="4"/>
+        <v>281.96189710610946</v>
+      </c>
+      <c r="J15" s="59">
+        <f t="shared" si="1"/>
+        <v>9.875163832766802E-2</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="2"/>
+        <v>25.34166804755381</v>
+      </c>
+      <c r="L15" s="70">
         <f t="shared" si="3"/>
-        <v>281.96189710610946</v>
-      </c>
-      <c r="I15" s="61">
-        <f t="shared" si="0"/>
-        <v>9.8757631056103301E-2</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="1"/>
-        <v>25.343067678646491</v>
-      </c>
-      <c r="K15" s="72">
-        <f t="shared" si="2"/>
-        <v>642.27107936445645</v>
-      </c>
-      <c r="N15" s="40"/>
+        <v>642.20013943240974</v>
+      </c>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
       <c r="Q15" s="40"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="40"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>8</v>
       </c>
@@ -14464,42 +14723,46 @@
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>0.25537262440772324</v>
+        <v>0.25537484331224636</v>
       </c>
       <c r="D16" s="3">
-        <v>0.26572581965051428</v>
+        <v>0.26572815523526938</v>
       </c>
       <c r="E16" s="3">
-        <v>0.24495252819248284</v>
+        <v>0.2449525802120783</v>
       </c>
       <c r="F16" s="3">
-        <v>254.71664418748213</v>
-      </c>
-      <c r="G16" s="59">
+        <v>254.71778998474957</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>254.71778998474957</v>
+      </c>
+      <c r="H16" s="57">
         <v>26.799947575360278</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
+        <f t="shared" si="4"/>
+        <v>267.99947575360278</v>
+      </c>
+      <c r="J16" s="59">
+        <f t="shared" si="1"/>
+        <v>5.21427489208681E-2</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="2"/>
+        <v>13.281685768853208</v>
+      </c>
+      <c r="L16" s="70">
         <f t="shared" si="3"/>
-        <v>267.99947575360278</v>
-      </c>
-      <c r="I16" s="61">
-        <f t="shared" si="0"/>
-        <v>5.2147481796846883E-2</v>
-      </c>
-      <c r="J16" s="15">
-        <f t="shared" si="1"/>
-        <v>13.282831566120649</v>
-      </c>
-      <c r="K16" s="72">
-        <f t="shared" si="2"/>
-        <v>176.43361441393114</v>
-      </c>
-      <c r="N16" s="3"/>
+        <v>176.40317686255784</v>
+      </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>9</v>
       </c>
@@ -14507,42 +14770,46 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>0.25025478392494566</v>
+        <v>0.25025510872548301</v>
       </c>
       <c r="D17" s="3">
-        <v>0.2600162180262246</v>
+        <v>0.26001661408068749</v>
       </c>
       <c r="E17" s="3">
-        <v>0.24685422998244796</v>
+        <v>0.2468556516609591</v>
       </c>
       <c r="F17" s="3">
-        <v>252.9767555614352</v>
-      </c>
-      <c r="G17" s="59">
+        <v>252.97768351532466</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="0"/>
+        <v>252.97768351532466</v>
+      </c>
+      <c r="H17" s="57">
         <v>25.104677419354772</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <f t="shared" si="4"/>
+        <v>251.04677419354772</v>
+      </c>
+      <c r="J17" s="59">
+        <f t="shared" si="1"/>
+        <v>7.6327259185293645E-3</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="2"/>
+        <v>-1.9309093217769373</v>
+      </c>
+      <c r="L17" s="70">
         <f t="shared" si="3"/>
-        <v>251.04677419354772</v>
-      </c>
-      <c r="I17" s="61">
-        <f t="shared" si="0"/>
-        <v>7.6290857774827621E-3</v>
-      </c>
-      <c r="J17" s="15">
-        <f t="shared" si="1"/>
-        <v>-1.9299813678874784</v>
-      </c>
-      <c r="K17" s="72">
-        <f t="shared" si="2"/>
-        <v>3.7248280803928222</v>
-      </c>
-      <c r="N17" s="3"/>
+        <v>3.728410808925072</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>10</v>
       </c>
@@ -14550,42 +14817,46 @@
         <v>89</v>
       </c>
       <c r="C18" s="3">
-        <v>0.24635962631982919</v>
+        <v>0.24635913826719522</v>
       </c>
       <c r="D18" s="3">
-        <v>0.2553066425001207</v>
+        <v>0.25530606927870397</v>
       </c>
       <c r="E18" s="3">
-        <v>0.24791175372467525</v>
+        <v>0.24791372374400045</v>
       </c>
       <c r="F18" s="3">
-        <v>251.28236001328327</v>
-      </c>
-      <c r="G18" s="59">
+        <v>251.28311098042798</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>251.28311098042798</v>
+      </c>
+      <c r="H18" s="57">
         <v>27.897916181606572</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <f t="shared" si="4"/>
+        <v>278.9791618160657</v>
+      </c>
+      <c r="J18" s="59">
+        <f t="shared" si="1"/>
+        <v>0.1102185130054161</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="2"/>
+        <v>27.69605083563772</v>
+      </c>
+      <c r="L18" s="70">
         <f t="shared" si="3"/>
-        <v>278.9791618160657</v>
-      </c>
-      <c r="I18" s="61">
-        <f t="shared" si="0"/>
-        <v>0.11022183093679287</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="1"/>
-        <v>27.696801802782431</v>
-      </c>
-      <c r="K18" s="72">
-        <f t="shared" si="2"/>
-        <v>767.11283010261218</v>
-      </c>
-      <c r="N18" s="3"/>
+        <v>767.07123189022889</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>11</v>
       </c>
@@ -14596,35 +14867,39 @@
         <v>0.39</v>
       </c>
       <c r="D19" s="3">
-        <v>0.34758532427523287</v>
+        <v>0.34761374170964071</v>
       </c>
       <c r="E19" s="3">
-        <v>0.26797232457019143</v>
+        <v>0.26795313359338341</v>
       </c>
       <c r="F19" s="3">
-        <v>326.44329234811823</v>
-      </c>
-      <c r="G19" s="59">
+        <v>326.45107235702903</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>326.45107235702903</v>
+      </c>
+      <c r="H19" s="57">
         <v>32.029561830574458</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
+        <f t="shared" si="4"/>
+        <v>320.2956183057446</v>
+      </c>
+      <c r="J19" s="59">
+        <f t="shared" si="1"/>
+        <v>1.8855671102076869E-2</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="2"/>
+        <v>-6.1554540512844369</v>
+      </c>
+      <c r="L19" s="70">
         <f t="shared" si="3"/>
-        <v>320.2956183057446</v>
-      </c>
-      <c r="I19" s="61">
-        <f t="shared" si="0"/>
-        <v>1.8832287832147503E-2</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="1"/>
-        <v>-6.1476740423736373</v>
-      </c>
-      <c r="K19" s="72">
-        <f t="shared" si="2"/>
-        <v>37.793896131274622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+        <v>37.889614577473985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="40">
         <v>12</v>
       </c>
@@ -14632,38 +14907,42 @@
         <v>0</v>
       </c>
       <c r="C20" s="40">
-        <v>0.30009358838015676</v>
+        <v>0.30005242814295308</v>
       </c>
       <c r="D20" s="40">
-        <v>0.33249138621470414</v>
+        <v>0.33242405003034653</v>
       </c>
       <c r="E20" s="40">
-        <v>0.29816281952877888</v>
+        <v>0.29823931026955458</v>
       </c>
       <c r="F20" s="3">
-        <v>313.99257558133206</v>
-      </c>
-      <c r="G20" s="59">
+        <v>314.00055291698686</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>314.00055291698686</v>
+      </c>
+      <c r="H20" s="57">
         <v>30.046079335793408</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <f t="shared" si="4"/>
+        <v>300.46079335793411</v>
+      </c>
+      <c r="J20" s="59">
+        <f t="shared" si="1"/>
+        <v>4.3120177443229837E-2</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="2"/>
+        <v>-13.539759559052754</v>
+      </c>
+      <c r="L20" s="70">
         <f t="shared" si="3"/>
-        <v>300.46079335793411</v>
-      </c>
-      <c r="I20" s="61">
-        <f t="shared" si="0"/>
-        <v>4.3095866831707547E-2</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="1"/>
-        <v>-13.531782223397954</v>
-      </c>
-      <c r="K20" s="72">
-        <f t="shared" si="2"/>
-        <v>183.10913014146888</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+        <v>183.32508891696042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>13</v>
       </c>
@@ -14671,38 +14950,42 @@
         <v>13</v>
       </c>
       <c r="C21" s="3">
-        <v>0.28761615746469399</v>
+        <v>0.28761224849511818</v>
       </c>
       <c r="D21" s="3">
-        <v>0.31303192995054635</v>
+        <v>0.31298899709266026</v>
       </c>
       <c r="E21" s="3">
-        <v>0.30137073760432809</v>
+        <v>0.30143209204547977</v>
       </c>
       <c r="F21" s="3">
-        <v>306.45979448079584</v>
-      </c>
-      <c r="G21" s="59">
+        <v>306.47187149617559</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>306.47187149617559</v>
+      </c>
+      <c r="H21" s="57">
         <v>28.78559615384648</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <f t="shared" si="4"/>
+        <v>287.85596153846478</v>
+      </c>
+      <c r="J21" s="59">
+        <f t="shared" si="1"/>
+        <v>6.0742638033399798E-2</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="2"/>
+        <v>-18.615909957710812</v>
+      </c>
+      <c r="L21" s="70">
         <f t="shared" si="3"/>
-        <v>287.85596153846478</v>
-      </c>
-      <c r="I21" s="61">
-        <f t="shared" si="0"/>
-        <v>6.0705623632782452E-2</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="1"/>
-        <v>-18.603832942331053</v>
-      </c>
-      <c r="K21" s="72">
-        <f t="shared" si="2"/>
-        <v>346.1026001461621</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+        <v>346.55210355359657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>14</v>
       </c>
@@ -14710,38 +14993,42 @@
         <v>87</v>
       </c>
       <c r="C22" s="3">
-        <v>0.33213605983356226</v>
+        <v>0.33215915066828666</v>
       </c>
       <c r="D22" s="3">
-        <v>0.32112464085299086</v>
+        <v>0.32111037259194664</v>
       </c>
       <c r="E22" s="3">
-        <v>0.3031198466375532</v>
+        <v>0.30316809034107017</v>
       </c>
       <c r="F22" s="3">
-        <v>311.98237624057469</v>
-      </c>
-      <c r="G22" s="59">
+        <v>312.0013613830177</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>312.0013613830177</v>
+      </c>
+      <c r="H22" s="57">
         <v>31.642643442622873</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
+        <f t="shared" si="4"/>
+        <v>316.42643442622875</v>
+      </c>
+      <c r="J22" s="59">
+        <f t="shared" si="1"/>
+        <v>1.4182864534936336E-2</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="2"/>
+        <v>4.4250730432110572</v>
+      </c>
+      <c r="L22" s="70">
         <f t="shared" si="3"/>
-        <v>316.42643442622875</v>
-      </c>
-      <c r="I22" s="61">
-        <f t="shared" si="0"/>
-        <v>1.424458086128292E-2</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="1"/>
-        <v>4.4440581856540575</v>
-      </c>
-      <c r="K22" s="72">
-        <f t="shared" si="2"/>
-        <v>19.749653157478832</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+        <v>19.581271437753166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>15</v>
       </c>
@@ -14749,38 +15036,42 @@
         <v>7</v>
       </c>
       <c r="C23" s="3">
-        <v>0.34907548170904529</v>
+        <v>0.34906908623013461</v>
       </c>
       <c r="D23" s="3">
-        <v>0.36215624212511721</v>
+        <v>0.36216135234657826</v>
       </c>
       <c r="E23" s="3">
-        <v>0.33572736110324602</v>
+        <v>0.33580809435322684</v>
       </c>
       <c r="F23" s="3">
-        <v>348.15160878542281</v>
-      </c>
-      <c r="G23" s="59">
+        <v>348.19581286770665</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>348.19581286770665</v>
+      </c>
+      <c r="H23" s="57">
         <v>32.228456104944506</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <f t="shared" si="4"/>
+        <v>322.28456104944507</v>
+      </c>
+      <c r="J23" s="59">
+        <f t="shared" si="1"/>
+        <v>7.4415747865716822E-2</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="2"/>
+        <v>-25.911251818261576</v>
+      </c>
+      <c r="L23" s="70">
         <f t="shared" si="3"/>
-        <v>322.28456104944507</v>
-      </c>
-      <c r="I23" s="61">
-        <f t="shared" si="0"/>
-        <v>7.4298228367287084E-2</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" si="1"/>
-        <v>-25.867047735977735</v>
-      </c>
-      <c r="K23" s="72">
-        <f t="shared" si="2"/>
-        <v>669.10415857535088</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+        <v>671.39297078936386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>16</v>
       </c>
@@ -14788,38 +15079,42 @@
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>0.30611757842759535</v>
+        <v>0.30610220347406725</v>
       </c>
       <c r="D24" s="3">
-        <v>0.3290234268467776</v>
+        <v>0.32896472463476445</v>
       </c>
       <c r="E24" s="3">
-        <v>0.33812683123535353</v>
+        <v>0.33818736386589787</v>
       </c>
       <c r="F24" s="3">
-        <v>333.29908016045346</v>
-      </c>
-      <c r="G24" s="59">
+        <v>333.30324661173989</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>333.30324661173989</v>
+      </c>
+      <c r="H24" s="57">
         <v>30.433051330798698</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <f t="shared" si="4"/>
+        <v>304.33051330798696</v>
+      </c>
+      <c r="J24" s="59">
+        <f t="shared" si="1"/>
+        <v>8.6926045870482763E-2</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="2"/>
+        <v>-28.972733303752932</v>
+      </c>
+      <c r="L24" s="70">
         <f t="shared" si="3"/>
-        <v>304.33051330798696</v>
-      </c>
-      <c r="I24" s="61">
-        <f t="shared" si="0"/>
-        <v>8.6914631863132474E-2</v>
-      </c>
-      <c r="J24" s="15">
-        <f t="shared" si="1"/>
-        <v>-28.968566852466495</v>
-      </c>
-      <c r="K24" s="72">
-        <f t="shared" si="2"/>
-        <v>839.17786548582058</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+        <v>839.41927509039431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="40">
         <v>17</v>
       </c>
@@ -14827,38 +15122,42 @@
         <v>7</v>
       </c>
       <c r="C25" s="40">
-        <v>0.28702769330831002</v>
+        <v>0.28727796422419616</v>
       </c>
       <c r="D25" s="40">
-        <v>0.30657049312833173</v>
+        <v>0.30641794516710169</v>
       </c>
       <c r="E25" s="40">
-        <v>0.3336328770069466</v>
+        <v>0.33366148646889882</v>
       </c>
       <c r="F25" s="3">
-        <v>320.25207674881102</v>
-      </c>
-      <c r="G25" s="59">
+        <v>320.20178702517808</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>320.20178702517808</v>
+      </c>
+      <c r="H25" s="57">
         <v>29.758445544554792</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
+        <f t="shared" si="4"/>
+        <v>297.58445544554792</v>
+      </c>
+      <c r="J25" s="59">
+        <f t="shared" si="1"/>
+        <v>7.0634620093021891E-2</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="2"/>
+        <v>-22.617331579630161</v>
+      </c>
+      <c r="L25" s="70">
         <f t="shared" si="3"/>
-        <v>297.58445544554792</v>
-      </c>
-      <c r="I25" s="61">
-        <f t="shared" si="0"/>
-        <v>7.0780559905759488E-2</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" si="1"/>
-        <v>-22.667621303263104</v>
-      </c>
-      <c r="K25" s="72">
-        <f t="shared" si="2"/>
-        <v>513.82105554814734</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>511.54368778293576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="40">
         <v>18</v>
       </c>
@@ -14866,38 +15165,42 @@
         <v>0</v>
       </c>
       <c r="C26" s="40">
-        <v>0.31717708242647963</v>
+        <v>0.31715979877869693</v>
       </c>
       <c r="D26" s="40">
-        <v>0.30231289506968517</v>
+        <v>0.30220104541600507</v>
       </c>
       <c r="E26" s="40">
-        <v>0.32843839461475322</v>
+        <v>0.32843928650942944</v>
       </c>
       <c r="F26" s="3">
-        <v>316.19543858025645</v>
-      </c>
-      <c r="G26" s="59">
+        <v>316.14410585183958</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>316.14410585183958</v>
+      </c>
+      <c r="H26" s="57">
         <v>28.346896551724452</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <f t="shared" si="4"/>
+        <v>283.4689655172445</v>
+      </c>
+      <c r="J26" s="59">
+        <f t="shared" si="1"/>
+        <v>0.10335520963312925</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="2"/>
+        <v>-32.675140334595085</v>
+      </c>
+      <c r="L26" s="70">
         <f t="shared" si="3"/>
-        <v>283.4689655172445</v>
-      </c>
-      <c r="I26" s="61">
-        <f t="shared" si="0"/>
-        <v>0.1035007753747382</v>
-      </c>
-      <c r="J26" s="15">
-        <f t="shared" si="1"/>
-        <v>-32.726473063011952</v>
-      </c>
-      <c r="K26" s="72">
-        <f t="shared" si="2"/>
-        <v>1071.0220391440469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1067.6647958854826</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="40">
         <v>19</v>
       </c>
@@ -14905,38 +15208,42 @@
         <v>0</v>
       </c>
       <c r="C27" s="40">
-        <v>0.2850717248129695</v>
+        <v>0.28499782162835524</v>
       </c>
       <c r="D27" s="40">
-        <v>0.28943758162928118</v>
+        <v>0.28935288405881932</v>
       </c>
       <c r="E27" s="40">
-        <v>0.32355048804225028</v>
+        <v>0.32353508541233034</v>
       </c>
       <c r="F27" s="3">
-        <v>307.0889758276989</v>
-      </c>
-      <c r="G27" s="59">
+        <v>307.04052751403577</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>307.04052751403577</v>
+      </c>
+      <c r="H27" s="57">
         <v>26.394255924170523</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <f t="shared" si="4"/>
+        <v>263.94255924170523</v>
+      </c>
+      <c r="J27" s="59">
+        <f t="shared" si="1"/>
+        <v>0.14036573159014132</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="2"/>
+        <v>-43.097968272330547</v>
+      </c>
+      <c r="L27" s="70">
         <f t="shared" si="3"/>
-        <v>263.94255924170523</v>
-      </c>
-      <c r="I27" s="61">
-        <f t="shared" si="0"/>
-        <v>0.14050135297009886</v>
-      </c>
-      <c r="J27" s="15">
-        <f t="shared" si="1"/>
-        <v>-43.146416585993677</v>
-      </c>
-      <c r="K27" s="72">
-        <f t="shared" si="2"/>
-        <v>1861.6132642121104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1857.4348692028104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>20</v>
       </c>
@@ -14944,38 +15251,42 @@
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>0.278737332780295</v>
+        <v>0.27867540420876447</v>
       </c>
       <c r="D28" s="3">
-        <v>0.28379098333686931</v>
+        <v>0.28376663526930451</v>
       </c>
       <c r="E28" s="3">
-        <v>0.31488109917344553</v>
+        <v>0.31482886298428892</v>
       </c>
       <c r="F28" s="3">
-        <v>299.85677056075747</v>
-      </c>
-      <c r="G28" s="59">
+        <v>299.81716905988566</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>299.81716905988566</v>
+      </c>
+      <c r="H28" s="57">
         <v>24.990241312741233</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
+        <f t="shared" si="4"/>
+        <v>249.90241312741233</v>
+      </c>
+      <c r="J28" s="59">
+        <f t="shared" si="1"/>
+        <v>0.16648398118422406</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="2"/>
+        <v>-49.914755932473327</v>
+      </c>
+      <c r="L28" s="70">
         <f t="shared" si="3"/>
-        <v>249.90241312741233</v>
-      </c>
-      <c r="I28" s="61">
-        <f t="shared" si="0"/>
-        <v>0.16659406202476693</v>
-      </c>
-      <c r="J28" s="15">
-        <f t="shared" si="1"/>
-        <v>-49.954357433345137</v>
-      </c>
-      <c r="K28" s="72">
-        <f t="shared" si="2"/>
-        <v>2495.4378265784044</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2491.482859798381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>21</v>
       </c>
@@ -14983,38 +15294,42 @@
         <v>0</v>
       </c>
       <c r="C29" s="3">
-        <v>0.27418986586673999</v>
+        <v>0.2741572029952572</v>
       </c>
       <c r="D29" s="3">
-        <v>0.28202234237625085</v>
+        <v>0.28200944335107092</v>
       </c>
       <c r="E29" s="3">
-        <v>0.30651406019008853</v>
+        <v>0.30646054731841516</v>
       </c>
       <c r="F29" s="3">
-        <v>294.60138610925623</v>
-      </c>
-      <c r="G29" s="59">
+        <v>294.56697260697365</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>294.56697260697365</v>
+      </c>
+      <c r="H29" s="57">
         <v>25.10273866923826</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <f t="shared" si="4"/>
+        <v>251.02738669238261</v>
+      </c>
+      <c r="J29" s="59">
+        <f t="shared" si="1"/>
+        <v>0.14780878361636215</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="2"/>
+        <v>-43.539585914591044</v>
+      </c>
+      <c r="L29" s="70">
         <f t="shared" si="3"/>
-        <v>251.02738669238261</v>
-      </c>
-      <c r="I29" s="61">
-        <f t="shared" si="0"/>
-        <v>0.14790833129588099</v>
-      </c>
-      <c r="J29" s="15">
-        <f t="shared" si="1"/>
-        <v>-43.573999416873619</v>
-      </c>
-      <c r="K29" s="72">
-        <f t="shared" si="2"/>
-        <v>1898.6934251817024</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1895.6955416140547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>22</v>
       </c>
@@ -15022,38 +15337,42 @@
         <v>1</v>
       </c>
       <c r="C30" s="3">
-        <v>0.27219626000647057</v>
+        <v>0.27217452880301618</v>
       </c>
       <c r="D30" s="3">
-        <v>0.28115861988527974</v>
+        <v>0.28114998474021269</v>
       </c>
       <c r="E30" s="3">
-        <v>0.29860033682645848</v>
+        <v>0.298546465382724</v>
       </c>
       <c r="F30" s="3">
-        <v>290.04906549711654</v>
-      </c>
-      <c r="G30" s="59">
+        <v>290.01664555557466</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>290.01664555557466</v>
+      </c>
+      <c r="H30" s="57">
         <v>25.065714285714499</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
+        <f t="shared" si="4"/>
+        <v>250.657142857145</v>
+      </c>
+      <c r="J30" s="59">
+        <f t="shared" si="1"/>
+        <v>0.13571463328606551</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="2"/>
+        <v>-39.359502698429651</v>
+      </c>
+      <c r="L30" s="70">
         <f t="shared" si="3"/>
-        <v>250.657142857145</v>
-      </c>
-      <c r="I30" s="61">
-        <f t="shared" si="0"/>
-        <v>0.13581123791058428</v>
-      </c>
-      <c r="J30" s="15">
-        <f t="shared" si="1"/>
-        <v>-39.39192263997154</v>
-      </c>
-      <c r="K30" s="72">
-        <f t="shared" si="2"/>
-        <v>1551.7235692735023</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1549.1704526676911</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>23</v>
       </c>
@@ -15061,38 +15380,42 @@
         <v>44</v>
       </c>
       <c r="C31" s="3">
-        <v>0.27656625323008127</v>
+        <v>0.27655256797508354</v>
       </c>
       <c r="D31" s="3">
-        <v>0.2818173630724406</v>
+        <v>0.28181172783279745</v>
       </c>
       <c r="E31" s="3">
-        <v>0.29173897206106059</v>
+        <v>0.2916858764018635</v>
       </c>
       <c r="F31" s="3">
-        <v>286.87157754967581</v>
-      </c>
-      <c r="G31" s="59">
+        <v>286.84110189155751</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>286.84110189155751</v>
+      </c>
+      <c r="H31" s="57">
         <v>29.76519371727748</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
+        <f t="shared" si="4"/>
+        <v>297.65193717277481</v>
+      </c>
+      <c r="J31" s="59">
+        <f t="shared" si="1"/>
+        <v>3.7689282358510857E-2</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="2"/>
+        <v>10.810835281217294</v>
+      </c>
+      <c r="L31" s="70">
         <f t="shared" si="3"/>
-        <v>297.65193717277481</v>
-      </c>
-      <c r="I31" s="61">
-        <f t="shared" si="0"/>
-        <v>3.7579043958205424E-2</v>
-      </c>
-      <c r="J31" s="15">
-        <f t="shared" si="1"/>
-        <v>10.780359623099002</v>
-      </c>
-      <c r="K31" s="72">
-        <f t="shared" si="2"/>
-        <v>116.21615360334327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+        <v>116.87415947761261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>24</v>
       </c>
@@ -15100,38 +15423,42 @@
         <v>53</v>
       </c>
       <c r="C32" s="3">
-        <v>0.36972640402603402</v>
+        <v>0.3697229794800328</v>
       </c>
       <c r="D32" s="3">
-        <v>0.34564781996489308</v>
+        <v>0.34567888742144937</v>
       </c>
       <c r="E32" s="3">
-        <v>0.29499396835028591</v>
+        <v>0.29492728768585852</v>
       </c>
       <c r="F32" s="3">
-        <v>319.78938880652015</v>
-      </c>
-      <c r="G32" s="59">
+        <v>319.76893740011377</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>319.76893740011377</v>
+      </c>
+      <c r="H32" s="57">
         <v>33.404543630892626</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <f t="shared" si="4"/>
+        <v>334.04543630892624</v>
+      </c>
+      <c r="J32" s="59">
+        <f t="shared" si="1"/>
+        <v>4.46462968695076E-2</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="2"/>
+        <v>14.276498908812471</v>
+      </c>
+      <c r="L32" s="70">
         <f t="shared" si="3"/>
-        <v>334.04543630892624</v>
-      </c>
-      <c r="I32" s="61">
-        <f t="shared" si="0"/>
-        <v>4.4579488880512302E-2</v>
-      </c>
-      <c r="J32" s="15">
-        <f t="shared" si="1"/>
-        <v>14.256047502406091</v>
-      </c>
-      <c r="K32" s="72">
-        <f t="shared" si="2"/>
-        <v>203.23489039085894</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>203.81842109332368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>25</v>
       </c>
@@ -15139,38 +15466,42 @@
         <v>27</v>
       </c>
       <c r="C33">
-        <v>0.3446271336051912</v>
+        <v>0.34462779073138011</v>
       </c>
       <c r="D33">
-        <v>0.35562594890709698</v>
+        <v>0.3556257243335747</v>
       </c>
       <c r="E33">
-        <v>0.32157135491183675</v>
+        <v>0.32154558403327554</v>
       </c>
       <c r="F33">
-        <v>337.69758372352356</v>
-      </c>
-      <c r="G33" s="59">
+        <v>337.68409270537524</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>337.68409270537524</v>
+      </c>
+      <c r="H33" s="57">
         <v>32.796229838709721</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <f t="shared" si="4"/>
+        <v>327.96229838709723</v>
+      </c>
+      <c r="J33" s="59">
+        <f t="shared" si="1"/>
+        <v>2.8789612920144668E-2</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="2"/>
+        <v>-9.7217943182780004</v>
+      </c>
+      <c r="L33" s="70">
         <f t="shared" si="3"/>
-        <v>327.96229838709723</v>
-      </c>
-      <c r="I33" s="61">
-        <f t="shared" si="0"/>
-        <v>2.8828412774184096E-2</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" si="1"/>
-        <v>-9.7352853364263296</v>
-      </c>
-      <c r="K33" s="72">
-        <f t="shared" si="2"/>
-        <v>94.77578058163752</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94.513284766902416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>26</v>
       </c>
@@ -15178,38 +15509,42 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.34663333583732747</v>
+        <v>0.34663068828436389</v>
       </c>
       <c r="D34">
-        <v>0.35051234038153567</v>
+        <v>0.35051259700994358</v>
       </c>
       <c r="E34">
-        <v>0.33162250000093585</v>
+        <v>0.33160824395737748</v>
       </c>
       <c r="F34">
-        <v>340.6120432927396</v>
-      </c>
-      <c r="G34" s="59">
+        <v>340.60469524809764</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>340.60469524809764</v>
+      </c>
+      <c r="H34" s="57">
         <v>31.639990029910287</v>
       </c>
-      <c r="H34" s="3">
-        <f>G34*10</f>
+      <c r="I34" s="3">
+        <f>H34*10</f>
         <v>316.39990029910285</v>
       </c>
-      <c r="I34" s="61">
-        <f t="shared" si="0"/>
-        <v>7.1084224619819378E-2</v>
-      </c>
-      <c r="J34" s="15">
+      <c r="J34" s="59">
         <f t="shared" si="1"/>
-        <v>-24.212142993636746</v>
-      </c>
-      <c r="K34" s="72">
+        <v>7.1064184630114782E-2</v>
+      </c>
+      <c r="K34" s="15">
         <f t="shared" si="2"/>
-        <v>586.22786834431304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-24.204794948994788</v>
+      </c>
+      <c r="L34" s="70">
+        <f t="shared" si="3"/>
+        <v>585.87209852288356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>27</v>
       </c>
@@ -15217,38 +15552,42 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>0.34414965579585366</v>
+        <v>0.34414979416909319</v>
       </c>
       <c r="D35">
-        <v>0.35196898793993581</v>
+        <v>0.35196896777014913</v>
       </c>
       <c r="E35">
-        <v>0.33964346591697953</v>
+        <v>0.33963745338593976</v>
       </c>
       <c r="F35">
-        <v>345.4033298451169</v>
-      </c>
-      <c r="G35" s="59">
+        <v>345.40019681833917</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="0"/>
+        <v>345.40019681833917</v>
+      </c>
+      <c r="H35" s="57">
         <v>33.125084409136065</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <f t="shared" si="4"/>
+        <v>331.25084409136065</v>
+      </c>
+      <c r="J35" s="59">
+        <f t="shared" si="1"/>
+        <v>4.0965097464667269E-2</v>
+      </c>
+      <c r="K35" s="15">
+        <f t="shared" si="2"/>
+        <v>-14.14935272697852</v>
+      </c>
+      <c r="L35" s="70">
         <f t="shared" si="3"/>
-        <v>331.25084409136065</v>
-      </c>
-      <c r="I35" s="61">
-        <f t="shared" si="0"/>
-        <v>4.0973796518123905E-2</v>
-      </c>
-      <c r="J35" s="15">
-        <f t="shared" si="1"/>
-        <v>-14.152485753756253</v>
-      </c>
-      <c r="K35" s="72">
-        <f t="shared" si="2"/>
-        <v>200.29285301027369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>200.20418259245449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>28</v>
       </c>
@@ -15256,38 +15595,42 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>0.34253659013198839</v>
+        <v>0.34253654779825898</v>
       </c>
       <c r="D36">
-        <v>0.35381906145515968</v>
+        <v>0.35381907248767935</v>
       </c>
       <c r="E36">
-        <v>0.34637367522239215</v>
+        <v>0.34637426616487826</v>
       </c>
       <c r="F36">
-        <v>349.72181118765718</v>
-      </c>
-      <c r="G36" s="59">
+        <v>349.72212270603438</v>
+      </c>
+      <c r="G36" s="3">
+        <f>F36</f>
+        <v>349.72212270603438</v>
+      </c>
+      <c r="H36" s="57">
         <v>31.253610567514585</v>
       </c>
-      <c r="H36" s="3">
-        <f>G36*10</f>
+      <c r="I36" s="3">
+        <f>H36*10</f>
         <v>312.53610567514585</v>
       </c>
-      <c r="I36" s="61">
-        <f t="shared" si="0"/>
-        <v>0.1063293861661887</v>
-      </c>
-      <c r="J36" s="15">
+      <c r="J36" s="59">
         <f t="shared" si="1"/>
-        <v>-37.185705512511333</v>
-      </c>
-      <c r="K36" s="72">
+        <v>0.10633018221196705</v>
+      </c>
+      <c r="K36" s="15">
         <f t="shared" si="2"/>
-        <v>1382.7766944632158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-37.186017030888536</v>
+      </c>
+      <c r="L36" s="70">
+        <f t="shared" si="3"/>
+        <v>1382.7998626215322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>29</v>
       </c>
@@ -15295,496 +15638,720 @@
         <v>269</v>
       </c>
       <c r="C37">
-        <v>0.3024444647315821</v>
+        <v>0.30243139254547874</v>
       </c>
       <c r="D37">
-        <v>0.32677520640233265</v>
+        <v>0.32672366820514426</v>
       </c>
       <c r="E37">
-        <v>0.34391818772076133</v>
+        <v>0.34391522620309289</v>
       </c>
       <c r="F37">
-        <v>335.20294185450052</v>
-      </c>
-      <c r="G37" s="59">
+        <v>335.1774328508842</v>
+      </c>
+      <c r="G37" s="3">
+        <f>F37*1.3</f>
+        <v>435.73066270614947</v>
+      </c>
+      <c r="H37" s="57">
         <v>49.394859359844446</v>
       </c>
-      <c r="H37" s="3">
-        <f>G37*10</f>
+      <c r="I37" s="3">
+        <f>H37*10</f>
         <v>493.94859359844446</v>
       </c>
-      <c r="I37" s="61">
+      <c r="J37" s="59">
+        <f t="shared" si="1"/>
+        <v>0.13360990142563442</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="2"/>
+        <v>58.217930892294987</v>
+      </c>
+      <c r="L37" s="70">
+        <f t="shared" si="3"/>
+        <v>3389.3274773800349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.39</v>
+      </c>
+      <c r="D38">
+        <v>0.39</v>
+      </c>
+      <c r="E38">
+        <v>0.3878195593248312</v>
+      </c>
+      <c r="F38">
+        <v>415.99099341169392</v>
+      </c>
+      <c r="G38" s="3">
+        <f>F38*1.3</f>
+        <v>540.78829143520215</v>
+      </c>
+      <c r="H38" s="65">
+        <v>53.245215264187699</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" ref="I38:I42" si="5">H38*10</f>
+        <v>532.45215264187698</v>
+      </c>
+      <c r="J38" s="59">
+        <f>(ABS(I38-G38)/G38)</f>
+        <v>1.5414791565109212E-2</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="2"/>
+        <v>-8.3361387933251763</v>
+      </c>
+      <c r="L38" s="70">
+        <f t="shared" si="3"/>
+        <v>69.491209981580923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>0.28657128455568498</v>
+      </c>
+      <c r="D39">
+        <v>0.30281371590419531</v>
+      </c>
+      <c r="E39">
+        <v>0.34851868109178952</v>
+      </c>
+      <c r="F39">
+        <v>326.25544917477413</v>
+      </c>
+      <c r="G39" s="3">
+        <f>F39*1.3</f>
+        <v>424.13208392720639</v>
+      </c>
+      <c r="H39" s="65">
+        <v>38.059320175438501</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="5"/>
+        <v>380.59320175438501</v>
+      </c>
+      <c r="J39" s="59">
+        <f t="shared" si="1"/>
+        <v>0.10265406420018428</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" si="2"/>
+        <v>-43.538882172821388</v>
+      </c>
+      <c r="L39" s="70">
+        <f t="shared" si="3"/>
+        <v>1895.6342608588241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <v>0.32325812282302252</v>
+      </c>
+      <c r="D40">
+        <v>0.3011457926774207</v>
+      </c>
+      <c r="E40">
+        <v>0.33824434410533216</v>
+      </c>
+      <c r="F40">
+        <v>320.87928602284671</v>
+      </c>
+      <c r="G40" s="3">
         <f t="shared" si="0"/>
-        <v>0.47358072356312936</v>
-      </c>
-      <c r="J37" s="15">
+        <v>320.87928602284671</v>
+      </c>
+      <c r="H40" s="65">
+        <v>31.054798076922918</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="5"/>
+        <v>310.54798076922918</v>
+      </c>
+      <c r="J40" s="59">
         <f t="shared" si="1"/>
-        <v>158.74565174394394</v>
-      </c>
-      <c r="K37" s="72">
+        <v>3.2196859391172845E-2</v>
+      </c>
+      <c r="K40" s="15">
         <f t="shared" si="2"/>
-        <v>25200.18194760953</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
-      <c r="B39" s="70" t="s">
-        <v>290</v>
-      </c>
-      <c r="C39" s="71" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="71" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="68">
+        <v>-10.331305253617529</v>
+      </c>
+      <c r="L40" s="70">
+        <f t="shared" si="3"/>
+        <v>106.73586824342516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <v>0.36236753584075865</v>
+      </c>
+      <c r="D41">
+        <v>0.34260499742573214</v>
+      </c>
+      <c r="E41">
+        <v>0.33526781120608623</v>
+      </c>
+      <c r="F41">
+        <v>339.18491135981674</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>339.18491135981674</v>
+      </c>
+      <c r="H41" s="65">
+        <v>36.095828677840181</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="5"/>
+        <v>360.95828677840183</v>
+      </c>
+      <c r="J41" s="59">
+        <f t="shared" si="1"/>
+        <v>6.4193231153160848E-2</v>
+      </c>
+      <c r="K41" s="15">
+        <f t="shared" si="2"/>
+        <v>21.77337541858509</v>
+      </c>
+      <c r="L41" s="70">
+        <f t="shared" si="3"/>
+        <v>474.07987711864541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42">
         <v>0</v>
       </c>
-      <c r="B40" s="64">
+      <c r="C42">
+        <v>0.34280740679488603</v>
+      </c>
+      <c r="D42">
+        <v>0.35524242724297811</v>
+      </c>
+      <c r="E42">
+        <v>0.34449394105135522</v>
+      </c>
+      <c r="F42">
+        <v>349.40451401437235</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>349.40451401437235</v>
+      </c>
+      <c r="H42" s="65">
+        <v>30.813527168731987</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="5"/>
+        <v>308.13527168731986</v>
+      </c>
+      <c r="J42" s="59">
+        <f t="shared" si="1"/>
+        <v>0.11811307716921748</v>
+      </c>
+      <c r="K42" s="15">
+        <f t="shared" si="2"/>
+        <v>-41.269242327052496</v>
+      </c>
+      <c r="L42" s="70">
+        <f t="shared" si="3"/>
+        <v>1703.1503622489813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f>F37/H37</f>
+        <v>6.7856744040730428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="61">
+        <v>31</v>
+      </c>
+      <c r="B72" s="68">
+        <v>8</v>
+      </c>
+      <c r="C72" s="69">
+        <v>0.29084582321873964</v>
+      </c>
+      <c r="D72" s="69">
+        <v>0.33106729248544409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="66">
+        <v>32</v>
+      </c>
+      <c r="B73" s="62">
+        <v>36</v>
+      </c>
+      <c r="C73" s="62">
+        <v>0.31238763340134523</v>
+      </c>
+      <c r="D73" s="62">
+        <v>0.31849575835760946</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="66">
+        <v>33</v>
+      </c>
+      <c r="B74" s="62">
+        <v>49</v>
+      </c>
+      <c r="C74" s="63">
+        <v>0.36188632302670343</v>
+      </c>
+      <c r="D74" s="63">
+        <v>0.35032041595999897</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="66">
+        <v>34</v>
+      </c>
+      <c r="B75" s="62">
         <v>0</v>
       </c>
-      <c r="C40" s="64">
-        <v>238.3</v>
-      </c>
-      <c r="D40" s="64">
-        <f>C40</f>
-        <v>238.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="68">
+      <c r="C75" s="63">
+        <v>0.34231805216724953</v>
+      </c>
+      <c r="D75" s="63">
+        <v>0.35548661168479517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="66">
+        <v>3</v>
+      </c>
+      <c r="B76" s="62">
+        <v>0</v>
+      </c>
+      <c r="C76" s="63">
+        <v>238.16584287284019</v>
+      </c>
+      <c r="D76" s="63">
+        <f t="shared" ref="D76:D102" si="6">C76</f>
+        <v>238.16584287284019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="66">
+        <v>4</v>
+      </c>
+      <c r="B77" s="62">
+        <v>0</v>
+      </c>
+      <c r="C77" s="63">
+        <v>237.40945102634791</v>
+      </c>
+      <c r="D77" s="63">
+        <f t="shared" si="6"/>
+        <v>237.40945102634791</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="66">
+        <v>5</v>
+      </c>
+      <c r="B78" s="62">
+        <v>19</v>
+      </c>
+      <c r="C78" s="63">
+        <v>236.79995355299607</v>
+      </c>
+      <c r="D78" s="63">
+        <f t="shared" si="6"/>
+        <v>236.79995355299607</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="66">
+        <v>6</v>
+      </c>
+      <c r="B79" s="64">
+        <v>8</v>
+      </c>
+      <c r="C79" s="63">
+        <v>253.17171989595386</v>
+      </c>
+      <c r="D79" s="63">
+        <f t="shared" si="6"/>
+        <v>253.17171989595386</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="66">
+        <v>7</v>
+      </c>
+      <c r="B80" s="64">
+        <v>0</v>
+      </c>
+      <c r="C80" s="63">
+        <v>258.4910858476195</v>
+      </c>
+      <c r="D80" s="63">
+        <f t="shared" si="6"/>
+        <v>258.4910858476195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="66">
+        <v>8</v>
+      </c>
+      <c r="B81" s="62">
+        <v>0</v>
+      </c>
+      <c r="C81" s="63">
+        <v>256.95703131414524</v>
+      </c>
+      <c r="D81" s="63">
+        <f t="shared" si="6"/>
+        <v>256.95703131414524</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="66">
+        <v>9</v>
+      </c>
+      <c r="B82" s="62">
+        <v>0</v>
+      </c>
+      <c r="C82" s="63">
+        <v>255.96326430513409</v>
+      </c>
+      <c r="D82" s="63">
+        <f t="shared" si="6"/>
+        <v>255.96326430513409</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="66">
+        <v>10</v>
+      </c>
+      <c r="B83" s="62">
+        <v>89</v>
+      </c>
+      <c r="C83" s="63">
+        <v>255.06227151928107</v>
+      </c>
+      <c r="D83" s="63">
+        <f t="shared" si="6"/>
+        <v>255.06227151928107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="66">
+        <v>11</v>
+      </c>
+      <c r="B84" s="62">
+        <v>5</v>
+      </c>
+      <c r="C84" s="63">
+        <v>313.28775419391866</v>
+      </c>
+      <c r="D84" s="63">
+        <f t="shared" si="6"/>
+        <v>313.28775419391866</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="66">
+        <v>12</v>
+      </c>
+      <c r="B85" s="64">
+        <v>0</v>
+      </c>
+      <c r="C85" s="63">
+        <v>304.71027839408225</v>
+      </c>
+      <c r="D85" s="63">
+        <f t="shared" si="6"/>
+        <v>304.71027839408225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="66">
+        <v>13</v>
+      </c>
+      <c r="B86" s="62">
+        <v>13</v>
+      </c>
+      <c r="C86" s="63">
+        <v>298.60294113228179</v>
+      </c>
+      <c r="D86" s="63">
+        <f t="shared" si="6"/>
+        <v>298.60294113228179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="66">
+        <v>14</v>
+      </c>
+      <c r="B87" s="62">
+        <v>87</v>
+      </c>
+      <c r="C87" s="63">
+        <v>304.42604753804994</v>
+      </c>
+      <c r="D87" s="63">
+        <f t="shared" si="6"/>
+        <v>304.42604753804994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="66">
+        <v>15</v>
+      </c>
+      <c r="B88" s="62">
+        <v>7</v>
+      </c>
+      <c r="C88" s="63">
+        <v>346.04091061548712</v>
+      </c>
+      <c r="D88" s="63">
+        <f t="shared" si="6"/>
+        <v>346.04091061548712</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="66">
+        <v>16</v>
+      </c>
+      <c r="B89" s="62">
+        <v>0</v>
+      </c>
+      <c r="C89" s="63">
+        <v>318.23194252131589</v>
+      </c>
+      <c r="D89" s="63">
+        <f t="shared" si="6"/>
+        <v>318.23194252131589</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="66">
+        <v>17</v>
+      </c>
+      <c r="B90" s="64">
+        <v>7</v>
+      </c>
+      <c r="C90" s="63">
+        <v>301.04817954499805</v>
+      </c>
+      <c r="D90" s="63">
+        <f t="shared" si="6"/>
+        <v>301.04817954499805</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="66">
+        <v>18</v>
+      </c>
+      <c r="B91" s="64">
+        <v>0</v>
+      </c>
+      <c r="C91" s="63">
+        <v>299.81307431113419</v>
+      </c>
+      <c r="D91" s="63">
+        <f t="shared" si="6"/>
+        <v>299.81307431113419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="66">
+        <v>19</v>
+      </c>
+      <c r="B92" s="64">
+        <v>0</v>
+      </c>
+      <c r="C92" s="63">
+        <v>294.35807159623607</v>
+      </c>
+      <c r="D92" s="63">
+        <f t="shared" si="6"/>
+        <v>294.35807159623607</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="66">
+        <v>20</v>
+      </c>
+      <c r="B93" s="62">
+        <v>0</v>
+      </c>
+      <c r="C93" s="63">
+        <v>290.35050233664248</v>
+      </c>
+      <c r="D93" s="63">
+        <f t="shared" si="6"/>
+        <v>290.35050233664248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="66">
+        <v>21</v>
+      </c>
+      <c r="B94" s="62">
+        <v>0</v>
+      </c>
+      <c r="C94" s="63">
+        <v>286.89470043038739</v>
+      </c>
+      <c r="D94" s="63">
+        <f t="shared" si="6"/>
+        <v>286.89470043038739</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="66">
+        <v>22</v>
+      </c>
+      <c r="B95" s="62">
         <v>1</v>
       </c>
-      <c r="B41" s="64">
-        <v>1</v>
-      </c>
-      <c r="C41" s="65">
-        <v>238.14457275901088</v>
-      </c>
-      <c r="D41" s="65">
-        <f t="shared" ref="D41:D69" si="4">C41</f>
-        <v>238.14457275901088</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="68">
-        <v>2</v>
-      </c>
-      <c r="B42" s="64">
-        <v>0</v>
-      </c>
-      <c r="C42" s="65">
-        <v>238.52177325523019</v>
-      </c>
-      <c r="D42" s="65">
-        <f t="shared" si="4"/>
-        <v>238.52177325523019</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="68">
-        <v>3</v>
-      </c>
-      <c r="B43" s="64">
-        <v>0</v>
-      </c>
-      <c r="C43" s="65">
-        <v>238.16584287284019</v>
-      </c>
-      <c r="D43" s="65">
-        <f t="shared" si="4"/>
-        <v>238.16584287284019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="68">
-        <v>4</v>
-      </c>
-      <c r="B44" s="64">
-        <v>0</v>
-      </c>
-      <c r="C44" s="65">
-        <v>237.40945102634791</v>
-      </c>
-      <c r="D44" s="65">
-        <f t="shared" si="4"/>
-        <v>237.40945102634791</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="68">
-        <v>5</v>
-      </c>
-      <c r="B45" s="64">
-        <v>19</v>
-      </c>
-      <c r="C45" s="65">
-        <v>236.79995355299607</v>
-      </c>
-      <c r="D45" s="65">
-        <f t="shared" si="4"/>
-        <v>236.79995355299607</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="68">
+      <c r="C95" s="63">
+        <v>284.1226138960817</v>
+      </c>
+      <c r="D95" s="63">
+        <f t="shared" si="6"/>
+        <v>284.1226138960817</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="66">
+        <v>23</v>
+      </c>
+      <c r="B96" s="62">
+        <v>44</v>
+      </c>
+      <c r="C96" s="63">
+        <v>282.46044652281853</v>
+      </c>
+      <c r="D96" s="63">
+        <f t="shared" si="6"/>
+        <v>282.46044652281853</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="66">
+        <v>24</v>
+      </c>
+      <c r="B97" s="62">
+        <v>53</v>
+      </c>
+      <c r="C97" s="63">
+        <v>310.29073534013594</v>
+      </c>
+      <c r="D97" s="63">
+        <f t="shared" si="6"/>
+        <v>310.29073534013594</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="67">
+        <v>25</v>
+      </c>
+      <c r="B98" s="65">
+        <v>27</v>
+      </c>
+      <c r="C98" s="63">
+        <v>325.85015166007298</v>
+      </c>
+      <c r="D98" s="63">
+        <f t="shared" si="6"/>
+        <v>325.85015166007298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="67">
+        <v>26</v>
+      </c>
+      <c r="B99" s="65">
+        <v>34</v>
+      </c>
+      <c r="C99" s="63">
+        <v>321.52969929239731</v>
+      </c>
+      <c r="D99" s="63">
+        <f t="shared" si="6"/>
+        <v>321.52969929239731</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="67">
+        <v>27</v>
+      </c>
+      <c r="B100" s="65">
+        <v>42</v>
+      </c>
+      <c r="C100" s="63">
+        <v>324.00184876288483</v>
+      </c>
+      <c r="D100" s="63">
+        <f t="shared" si="6"/>
+        <v>324.00184876288483</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="67">
+        <v>28</v>
+      </c>
+      <c r="B101" s="65">
         <v>6</v>
       </c>
-      <c r="B46" s="66">
-        <v>8</v>
-      </c>
-      <c r="C46" s="65">
-        <v>253.17171989595386</v>
-      </c>
-      <c r="D46" s="65">
-        <f t="shared" si="4"/>
-        <v>253.17171989595386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="68">
-        <v>7</v>
-      </c>
-      <c r="B47" s="66">
-        <v>0</v>
-      </c>
-      <c r="C47" s="65">
-        <v>258.4910858476195</v>
-      </c>
-      <c r="D47" s="65">
-        <f t="shared" si="4"/>
-        <v>258.4910858476195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="68">
-        <v>8</v>
-      </c>
-      <c r="B48" s="64">
-        <v>0</v>
-      </c>
-      <c r="C48" s="65">
-        <v>256.95703131414524</v>
-      </c>
-      <c r="D48" s="65">
-        <f t="shared" si="4"/>
-        <v>256.95703131414524</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="68">
-        <v>9</v>
-      </c>
-      <c r="B49" s="64">
-        <v>0</v>
-      </c>
-      <c r="C49" s="65">
-        <v>255.96326430513409</v>
-      </c>
-      <c r="D49" s="65">
-        <f t="shared" si="4"/>
-        <v>255.96326430513409</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="68">
-        <v>10</v>
-      </c>
-      <c r="B50" s="64">
-        <v>89</v>
-      </c>
-      <c r="C50" s="65">
-        <v>255.06227151928107</v>
-      </c>
-      <c r="D50" s="65">
-        <f t="shared" si="4"/>
-        <v>255.06227151928107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="68">
-        <v>11</v>
-      </c>
-      <c r="B51" s="64">
-        <v>5</v>
-      </c>
-      <c r="C51" s="65">
-        <v>313.28775419391866</v>
-      </c>
-      <c r="D51" s="65">
-        <f t="shared" si="4"/>
-        <v>313.28775419391866</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="68">
-        <v>12</v>
-      </c>
-      <c r="B52" s="66">
-        <v>0</v>
-      </c>
-      <c r="C52" s="65">
-        <v>304.71027839408225</v>
-      </c>
-      <c r="D52" s="65">
-        <f t="shared" si="4"/>
-        <v>304.71027839408225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="68">
-        <v>13</v>
-      </c>
-      <c r="B53" s="64">
-        <v>13</v>
-      </c>
-      <c r="C53" s="65">
-        <v>298.60294113228179</v>
-      </c>
-      <c r="D53" s="65">
-        <f t="shared" si="4"/>
-        <v>298.60294113228179</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="68">
-        <v>14</v>
-      </c>
-      <c r="B54" s="64">
-        <v>87</v>
-      </c>
-      <c r="C54" s="65">
-        <v>304.42604753804994</v>
-      </c>
-      <c r="D54" s="65">
-        <f t="shared" si="4"/>
-        <v>304.42604753804994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="68">
-        <v>15</v>
-      </c>
-      <c r="B55" s="64">
-        <v>7</v>
-      </c>
-      <c r="C55" s="65">
-        <v>346.04091061548712</v>
-      </c>
-      <c r="D55" s="65">
-        <f t="shared" si="4"/>
-        <v>346.04091061548712</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="68">
-        <v>16</v>
-      </c>
-      <c r="B56" s="64">
-        <v>0</v>
-      </c>
-      <c r="C56" s="65">
-        <v>318.23194252131589</v>
-      </c>
-      <c r="D56" s="65">
-        <f t="shared" si="4"/>
-        <v>318.23194252131589</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="68">
-        <v>17</v>
-      </c>
-      <c r="B57" s="66">
-        <v>7</v>
-      </c>
-      <c r="C57" s="65">
-        <v>301.04817954499805</v>
-      </c>
-      <c r="D57" s="65">
-        <f t="shared" si="4"/>
-        <v>301.04817954499805</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="68">
-        <v>18</v>
-      </c>
-      <c r="B58" s="66">
-        <v>0</v>
-      </c>
-      <c r="C58" s="65">
-        <v>299.81307431113419</v>
-      </c>
-      <c r="D58" s="65">
-        <f t="shared" si="4"/>
-        <v>299.81307431113419</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="68">
-        <v>19</v>
-      </c>
-      <c r="B59" s="66">
-        <v>0</v>
-      </c>
-      <c r="C59" s="65">
-        <v>294.35807159623607</v>
-      </c>
-      <c r="D59" s="65">
-        <f t="shared" si="4"/>
-        <v>294.35807159623607</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="68">
-        <v>20</v>
-      </c>
-      <c r="B60" s="64">
-        <v>0</v>
-      </c>
-      <c r="C60" s="65">
-        <v>290.35050233664248</v>
-      </c>
-      <c r="D60" s="65">
-        <f t="shared" si="4"/>
-        <v>290.35050233664248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="68">
-        <v>21</v>
-      </c>
-      <c r="B61" s="64">
-        <v>0</v>
-      </c>
-      <c r="C61" s="65">
-        <v>286.89470043038739</v>
-      </c>
-      <c r="D61" s="65">
-        <f t="shared" si="4"/>
-        <v>286.89470043038739</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="68">
-        <v>22</v>
-      </c>
-      <c r="B62" s="64">
-        <v>1</v>
-      </c>
-      <c r="C62" s="65">
-        <v>284.1226138960817</v>
-      </c>
-      <c r="D62" s="65">
-        <f t="shared" si="4"/>
-        <v>284.1226138960817</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="68">
-        <v>23</v>
-      </c>
-      <c r="B63" s="64">
-        <v>44</v>
-      </c>
-      <c r="C63" s="65">
-        <v>282.46044652281853</v>
-      </c>
-      <c r="D63" s="65">
-        <f t="shared" si="4"/>
-        <v>282.46044652281853</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="68">
-        <v>24</v>
-      </c>
-      <c r="B64" s="64">
-        <v>53</v>
-      </c>
-      <c r="C64" s="65">
-        <v>310.29073534013594</v>
-      </c>
-      <c r="D64" s="65">
-        <f t="shared" si="4"/>
-        <v>310.29073534013594</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="69">
-        <v>25</v>
-      </c>
-      <c r="B65" s="67">
-        <v>27</v>
-      </c>
-      <c r="C65" s="65">
-        <v>325.85015166007298</v>
-      </c>
-      <c r="D65" s="65">
-        <f t="shared" si="4"/>
-        <v>325.85015166007298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="69">
-        <v>26</v>
-      </c>
-      <c r="B66" s="67">
-        <v>34</v>
-      </c>
-      <c r="C66" s="65">
-        <v>321.52969929239731</v>
-      </c>
-      <c r="D66" s="65">
-        <f t="shared" si="4"/>
-        <v>321.52969929239731</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="69">
-        <v>27</v>
-      </c>
-      <c r="B67" s="67">
-        <v>42</v>
-      </c>
-      <c r="C67" s="65">
-        <v>324.00184876288483</v>
-      </c>
-      <c r="D67" s="65">
-        <f t="shared" si="4"/>
-        <v>324.00184876288483</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="69">
-        <v>28</v>
-      </c>
-      <c r="B68" s="67">
-        <v>6</v>
-      </c>
-      <c r="C68" s="65">
+      <c r="C101" s="63">
         <v>329.37653720486117</v>
       </c>
-      <c r="D68" s="65">
-        <f t="shared" si="4"/>
+      <c r="D101" s="63">
+        <f t="shared" si="6"/>
         <v>329.37653720486117</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="69">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="67">
         <v>29</v>
       </c>
-      <c r="B69" s="67">
+      <c r="B102" s="65">
         <v>269</v>
       </c>
-      <c r="C69" s="65">
+      <c r="C102" s="63">
         <v>309.82784150870629</v>
       </c>
-      <c r="D69" s="65">
-        <f t="shared" si="4"/>
+      <c r="D102" s="63">
+        <f t="shared" si="6"/>
         <v>309.82784150870629</v>
       </c>
     </row>

--- a/熊野_土壌モデル_濱口_20180214_sandyclayloam.xlsx
+++ b/熊野_土壌モデル_濱口_20180214_sandyclayloam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12402\mysite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48CBC68-8009-4C40-9B63-129F9F850D44}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A39AE-B662-4CBB-B569-F0876B56C6FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="-375" windowWidth="6570" windowHeight="7815" tabRatio="546" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3914,11 +3914,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4314,91 +4316,91 @@
                   <c:v>0.23830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23403359147150843</c:v>
+                  <c:v>0.23403204351248397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2611828457841025</c:v>
+                  <c:v>0.26117937569439165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24171004311752375</c:v>
+                  <c:v>0.24170764666603825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23646534567650421</c:v>
+                  <c:v>0.23646748388171643</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23484339745293911</c:v>
+                  <c:v>0.23484406991797507</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35032123509118634</c:v>
+                  <c:v>0.31898598666159678</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28422377279863248</c:v>
+                  <c:v>0.28438963987343863</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25537484331224636</c:v>
+                  <c:v>0.25535613191185053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25025510872548301</c:v>
+                  <c:v>0.25023920038381497</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24635913826719522</c:v>
+                  <c:v>0.24634432234695039</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39</c:v>
+                  <c:v>0.32722317683116026</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30005242814295308</c:v>
+                  <c:v>0.30168549324023275</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28761224849511818</c:v>
+                  <c:v>0.28622835526344786</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33215915066828666</c:v>
+                  <c:v>0.32993825029497692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.34906908623013461</c:v>
+                  <c:v>0.32593741094575851</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30610220347406725</c:v>
+                  <c:v>0.31397611601011699</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.28727796422419616</c:v>
+                  <c:v>0.27784398833179541</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.31715979877869693</c:v>
+                  <c:v>0.30804135716248526</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28499782162835524</c:v>
+                  <c:v>0.27922628559070323</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.27867540420876447</c:v>
+                  <c:v>0.2724663018261414</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2741572029952572</c:v>
+                  <c:v>0.26874589221829398</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27217452880301618</c:v>
+                  <c:v>0.26573582157673259</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.27655256797508354</c:v>
+                  <c:v>0.26675222894034384</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3697229794800328</c:v>
+                  <c:v>0.31353318966881999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.34462779073138011</c:v>
+                  <c:v>0.31282890184375955</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.34663068828436389</c:v>
+                  <c:v>0.30811774779315582</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.34414979416909319</c:v>
+                  <c:v>0.31383399137328399</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.34253654779825898</c:v>
+                  <c:v>0.31741725320858494</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.30243139254547874</c:v>
+                  <c:v>0.31016985970481259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4987,91 +4989,91 @@
                   <c:v>238.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237.90173076717087</c:v>
+                  <c:v>237.901642380829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.99555720957892</c:v>
+                  <c:v>237.99541711245371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237.23788214975264</c:v>
+                  <c:v>237.23769903659797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236.45519859377333</c:v>
+                  <c:v>236.45498597537718</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>235.73768032740185</c:v>
+                  <c:v>235.73743233884693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251.79022808175489</c:v>
+                  <c:v>251.75552796296353</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256.62022905855565</c:v>
+                  <c:v>256.66608096726185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254.71778998474957</c:v>
+                  <c:v>254.75906616223756</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>252.97768351532466</c:v>
+                  <c:v>253.015147188805</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>251.28311098042798</c:v>
+                  <c:v>251.31710601385407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>326.45107235702903</c:v>
+                  <c:v>312.78203166487128</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>314.00055291698686</c:v>
+                  <c:v>304.09391975244148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>306.47187149617559</c:v>
+                  <c:v>298.91734365857911</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>312.0013613830177</c:v>
+                  <c:v>305.74139374840081</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>348.19581286770665</c:v>
+                  <c:v>329.25115809508463</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>333.30324661173989</c:v>
+                  <c:v>304.55624826294803</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>320.20178702517808</c:v>
+                  <c:v>296.47489654402864</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>316.14410585183958</c:v>
+                  <c:v>297.7006697148413</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>307.04052751403577</c:v>
+                  <c:v>292.59242447868837</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>299.81716905988566</c:v>
+                  <c:v>287.82006262439029</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>294.56697260697365</c:v>
+                  <c:v>283.50256915467963</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>290.01664555557466</c:v>
+                  <c:v>279.71213630501859</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>286.84110189155751</c:v>
+                  <c:v>277.240520357901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>319.76893740011377</c:v>
+                  <c:v>306.6288064125016</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>337.68409270537524</c:v>
+                  <c:v>319.00533945835741</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>340.60469524809764</c:v>
+                  <c:v>316.26783447760749</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>345.40019681833917</c:v>
+                  <c:v>317.92680314477229</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>349.72212270603438</c:v>
+                  <c:v>319.76958735550772</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>335.1774328508842</c:v>
+                  <c:v>306.14226379232321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,91 +5644,91 @@
                   <c:v>0.23830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23762875165915462</c:v>
+                  <c:v>0.23762863050555053</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23668540798349749</c:v>
+                  <c:v>0.2366852678970133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23593204835991488</c:v>
+                  <c:v>0.23593178056661521</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23453256162351388</c:v>
+                  <c:v>0.23453209199489169</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23314817357723661</c:v>
+                  <c:v>0.23314775257838416</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26238077794212078</c:v>
+                  <c:v>0.26356650771759171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27217825579250676</c:v>
+                  <c:v>0.27215571704369573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26572815523526938</c:v>
+                  <c:v>0.26571178176910237</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26001661408068749</c:v>
+                  <c:v>0.26000090401277481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25530606927870397</c:v>
+                  <c:v>0.25529175956351885</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34761374170964071</c:v>
+                  <c:v>0.33468623828328309</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33242405003034653</c:v>
+                  <c:v>0.31007082770363631</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31298899709266026</c:v>
+                  <c:v>0.29890461389219264</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.32111037259194664</c:v>
+                  <c:v>0.31130250287053712</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36216135234657826</c:v>
+                  <c:v>0.33499798047649754</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32896472463476445</c:v>
+                  <c:v>0.2902844830575993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.30641794516710169</c:v>
+                  <c:v>0.28358061435742549</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.30220104541600507</c:v>
+                  <c:v>0.28951080397108608</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28935288405881932</c:v>
+                  <c:v>0.28402936198493195</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.28376663526930451</c:v>
+                  <c:v>0.28128219564703227</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28200944335107092</c:v>
+                  <c:v>0.27954917864207357</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.28114998474021269</c:v>
+                  <c:v>0.27610823720821565</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28181172783279745</c:v>
+                  <c:v>0.27360456694648821</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.34567888742144937</c:v>
+                  <c:v>0.32357678533763617</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3556257243335747</c:v>
+                  <c:v>0.32963462264851917</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.35051259700994358</c:v>
+                  <c:v>0.31847130438681515</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.35196896777014913</c:v>
+                  <c:v>0.31932816434310868</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.35381907248767935</c:v>
+                  <c:v>0.32076580111405234</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.32672366820514426</c:v>
+                  <c:v>0.29584041154573426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6314,91 +6316,91 @@
                   <c:v>0.23830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23829198687409528</c:v>
+                  <c:v>0.23829198361158857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23826271657978465</c:v>
+                  <c:v>0.23826270454988407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23822103661892563</c:v>
+                  <c:v>0.23822101354352732</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23815560256428245</c:v>
+                  <c:v>0.23815552688479358</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23806279333233502</c:v>
+                  <c:v>0.23806266298928982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23863201062799153</c:v>
+                  <c:v>0.23872156669161421</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2417956844962113</c:v>
+                  <c:v>0.24189741986479432</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2449525802120783</c:v>
+                  <c:v>0.24504716136579507</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2468556516609591</c:v>
+                  <c:v>0.24694220641394665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24791372374400045</c:v>
+                  <c:v>0.24799232724556999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26795313359338341</c:v>
+                  <c:v>0.29284980484218825</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29823931026955458</c:v>
+                  <c:v>0.29889928681531563</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30143209204547977</c:v>
+                  <c:v>0.29941664262096446</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.30316809034107017</c:v>
+                  <c:v>0.29989130273471964</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.33580809435322684</c:v>
+                  <c:v>0.32429488241727034</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33818736386589787</c:v>
+                  <c:v>0.31681896872355775</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33366148646889882</c:v>
+                  <c:v>0.30859795033264803</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.32843928650942944</c:v>
+                  <c:v>0.30454783220171533</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.32353508541233034</c:v>
+                  <c:v>0.30068152356501077</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.31482886298428892</c:v>
+                  <c:v>0.29419408959660115</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.30646054731841516</c:v>
+                  <c:v>0.28756736372107672</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.298546465382724</c:v>
+                  <c:v>0.28343775145712441</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2916858764018635</c:v>
+                  <c:v>0.2808603365071336</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.29492728768585852</c:v>
+                  <c:v>0.29137081031502415</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.32154558403327554</c:v>
+                  <c:v>0.30984006731377584</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.33160824395737748</c:v>
+                  <c:v>0.31463207596886433</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.33963745338593976</c:v>
+                  <c:v>0.31684455330668587</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.34637426616487826</c:v>
+                  <c:v>0.31897879572859983</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.34391522620309289</c:v>
+                  <c:v>0.31510053324459458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6810,106 +6812,106 @@
                   <c:v>238.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237.90173076717087</c:v>
+                  <c:v>237.901642380829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.99555720957892</c:v>
+                  <c:v>237.99541711245371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237.23788214975264</c:v>
+                  <c:v>237.23769903659797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236.45519859377333</c:v>
+                  <c:v>236.45498597537718</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>235.73768032740185</c:v>
+                  <c:v>235.73743233884693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251.79022808175489</c:v>
+                  <c:v>251.75552796296353</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256.62022905855565</c:v>
+                  <c:v>256.66608096726185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254.71778998474957</c:v>
+                  <c:v>254.75906616223756</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>252.97768351532466</c:v>
+                  <c:v>253.015147188805</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>251.28311098042798</c:v>
+                  <c:v>251.31710601385407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>326.45107235702903</c:v>
+                  <c:v>312.78203166487128</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>314.00055291698686</c:v>
+                  <c:v>304.09391975244148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>306.47187149617559</c:v>
+                  <c:v>298.91734365857911</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>312.0013613830177</c:v>
+                  <c:v>305.74139374840081</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>348.19581286770665</c:v>
+                  <c:v>329.25115809508463</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>333.30324661173989</c:v>
+                  <c:v>304.55624826294803</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>320.20178702517808</c:v>
+                  <c:v>296.47489654402864</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>316.14410585183958</c:v>
+                  <c:v>297.7006697148413</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>307.04052751403577</c:v>
+                  <c:v>292.59242447868837</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>299.81716905988566</c:v>
+                  <c:v>287.82006262439029</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>294.56697260697365</c:v>
+                  <c:v>283.50256915467963</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>290.01664555557466</c:v>
+                  <c:v>279.71213630501859</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>286.84110189155751</c:v>
+                  <c:v>277.240520357901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>319.76893740011377</c:v>
+                  <c:v>306.6288064125016</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>337.68409270537524</c:v>
+                  <c:v>319.00533945835741</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>340.60469524809764</c:v>
+                  <c:v>316.26783447760749</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>345.40019681833917</c:v>
+                  <c:v>317.92680314477229</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>349.72212270603438</c:v>
+                  <c:v>319.76958735550772</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>435.73066270614947</c:v>
+                  <c:v>459.21339568848481</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>540.78829143520215</c:v>
+                  <c:v>558.26866363841884</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>424.13208392720639</c:v>
+                  <c:v>369.72096084539254</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>320.87928602284671</c:v>
+                  <c:v>310.74585673322423</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>339.18491135981674</c:v>
+                  <c:v>328.35109580396829</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>349.40451401437235</c:v>
+                  <c:v>357.75745981830016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7709,91 +7711,91 @@
                   <c:v>238.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237.90173076717087</c:v>
+                  <c:v>237.901642380829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.99555720957892</c:v>
+                  <c:v>237.99541711245371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237.23788214975264</c:v>
+                  <c:v>237.23769903659797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>236.45519859377333</c:v>
+                  <c:v>236.45498597537718</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>235.73768032740185</c:v>
+                  <c:v>235.73743233884693</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251.79022808175489</c:v>
+                  <c:v>251.75552796296353</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256.62022905855565</c:v>
+                  <c:v>256.66608096726185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254.71778998474957</c:v>
+                  <c:v>254.75906616223756</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>252.97768351532466</c:v>
+                  <c:v>253.015147188805</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>251.28311098042798</c:v>
+                  <c:v>251.31710601385407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>326.45107235702903</c:v>
+                  <c:v>312.78203166487128</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>314.00055291698686</c:v>
+                  <c:v>304.09391975244148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>306.47187149617559</c:v>
+                  <c:v>298.91734365857911</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>312.0013613830177</c:v>
+                  <c:v>305.74139374840081</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>348.19581286770665</c:v>
+                  <c:v>329.25115809508463</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>333.30324661173989</c:v>
+                  <c:v>304.55624826294803</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>320.20178702517808</c:v>
+                  <c:v>296.47489654402864</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>316.14410585183958</c:v>
+                  <c:v>297.7006697148413</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>307.04052751403577</c:v>
+                  <c:v>292.59242447868837</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>299.81716905988566</c:v>
+                  <c:v>287.82006262439029</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>294.56697260697365</c:v>
+                  <c:v>283.50256915467963</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>290.01664555557466</c:v>
+                  <c:v>279.71213630501859</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>286.84110189155751</c:v>
+                  <c:v>277.240520357901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>319.76893740011377</c:v>
+                  <c:v>306.6288064125016</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>337.68409270537524</c:v>
+                  <c:v>319.00533945835741</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>340.60469524809764</c:v>
+                  <c:v>316.26783447760749</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>345.40019681833917</c:v>
+                  <c:v>317.92680314477229</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>349.72212270603438</c:v>
+                  <c:v>319.76958735550772</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>335.1774328508842</c:v>
+                  <c:v>306.14226379232321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11129,7 +11131,7 @@
         <f t="shared" si="0"/>
         <v>43030</v>
       </c>
-      <c r="E32" s="72">
+      <c r="E32" s="71">
         <v>0</v>
       </c>
       <c r="F32" s="50">
@@ -11141,7 +11143,7 @@
       <c r="H32" s="50">
         <v>100.95690607734801</v>
       </c>
-      <c r="I32" s="73">
+      <c r="I32" s="72">
         <v>1.2840909090909092</v>
       </c>
       <c r="J32" s="50">
@@ -11162,10 +11164,10 @@
         <f t="shared" si="0"/>
         <v>43031</v>
       </c>
-      <c r="E33" s="72">
+      <c r="E33" s="71">
         <v>0</v>
       </c>
-      <c r="F33" s="74">
+      <c r="F33" s="73">
         <v>22.5</v>
       </c>
       <c r="G33" s="50">
@@ -11174,7 +11176,7 @@
       <c r="H33" s="50">
         <v>65.315204678362619</v>
       </c>
-      <c r="I33" s="73">
+      <c r="I33" s="72">
         <v>1.8846153846153846</v>
       </c>
       <c r="J33" s="50">
@@ -11195,7 +11197,7 @@
         <f t="shared" si="0"/>
         <v>43032</v>
       </c>
-      <c r="E34" s="72">
+      <c r="E34" s="71">
         <v>8.066666666592937</v>
       </c>
       <c r="F34" s="50">
@@ -11204,10 +11206,10 @@
       <c r="G34" s="50">
         <v>13.3</v>
       </c>
-      <c r="H34" s="75">
+      <c r="H34" s="74">
         <v>81.390355329949273</v>
       </c>
-      <c r="I34" s="73">
+      <c r="I34" s="72">
         <v>2.5</v>
       </c>
       <c r="J34" s="50">
@@ -11228,7 +11230,7 @@
         <f t="shared" si="0"/>
         <v>43033</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E35" s="71">
         <v>5.7666666667792015</v>
       </c>
       <c r="F35" s="50">
@@ -11237,10 +11239,10 @@
       <c r="G35" s="50">
         <v>12.1</v>
       </c>
-      <c r="H35" s="75">
+      <c r="H35" s="74">
         <v>84.65960591133009</v>
       </c>
-      <c r="I35" s="73">
+      <c r="I35" s="72">
         <v>4.5436241610738257</v>
       </c>
       <c r="J35" s="50">
@@ -11261,7 +11263,7 @@
         <f t="shared" si="0"/>
         <v>43034</v>
       </c>
-      <c r="E36" s="72">
+      <c r="E36" s="71">
         <v>8.3999999999650754</v>
       </c>
       <c r="F36" s="50">
@@ -11270,10 +11272,10 @@
       <c r="G36" s="50">
         <v>13.3</v>
       </c>
-      <c r="H36" s="75">
+      <c r="H36" s="74">
         <v>76.431382978723391</v>
       </c>
-      <c r="I36" s="73">
+      <c r="I36" s="72">
         <v>2.0363636363636362</v>
       </c>
       <c r="J36" s="50">
@@ -11294,7 +11296,7 @@
         <f t="shared" si="0"/>
         <v>43035</v>
       </c>
-      <c r="E37" s="72">
+      <c r="E37" s="71">
         <v>8.5833333333721384</v>
       </c>
       <c r="F37" s="50">
@@ -11303,10 +11305,10 @@
       <c r="G37" s="50">
         <v>13.6</v>
       </c>
-      <c r="H37" s="75">
+      <c r="H37" s="74">
         <v>79.861666666666665</v>
       </c>
-      <c r="I37" s="73">
+      <c r="I37" s="72">
         <v>1.415929203539823</v>
       </c>
       <c r="J37" s="50">
@@ -12061,7 +12063,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
+    <sheetView showFormulas="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -12106,7 +12108,7 @@
       </c>
       <c r="G3" s="16">
         <f ca="1">ET!K2</f>
-        <v>20.836661038175286</v>
+        <v>20.669631634814394</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>132</v>
@@ -12168,7 +12170,7 @@
       </c>
       <c r="D6" s="16">
         <f ca="1">B6*C6^((Tf-25)/10)</f>
-        <v>220.27765288669207</v>
+        <v>217.56469922597188</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>145</v>
@@ -12193,7 +12195,7 @@
       </c>
       <c r="D7" s="16">
         <f ca="1">B7*C7^((Tf-25)/10)</f>
-        <v>278070.82030834095</v>
+        <v>277225.29763827013</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>124</v>
@@ -12222,7 +12224,7 @@
       </c>
       <c r="D8" s="16">
         <f ca="1">B8*C8^((Tf-25)/10)</f>
-        <v>3285.5714833498428</v>
+        <v>3316.5651138432263</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>127</v>
@@ -12244,7 +12246,7 @@
       </c>
       <c r="D9" s="16">
         <f ca="1">(B9*C9^((Tf-25)/10))/(1+EXP(0.29*(Tf-40)))</f>
-        <v>138.37654608237048</v>
+        <v>136.39259329775211</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>125</v>
@@ -12348,7 +12350,7 @@
       </c>
       <c r="J14" s="16">
         <f ca="1">Oa/(2*tau)</f>
-        <v>31.957910680715436</v>
+        <v>31.659260830349353</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12363,7 +12365,7 @@
       </c>
       <c r="J15" s="16">
         <f ca="1">Vcmax*(Ci-co2pt)/(Kc*(1+Oa/Ko)+Ci)</f>
-        <v>50.164230518192788</v>
+        <v>49.830374959150923</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12375,7 +12377,7 @@
       </c>
       <c r="J16" s="16">
         <f ca="1">0.5*Vcmax</f>
-        <v>69.188273041185241</v>
+        <v>68.196296648876057</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12395,7 +12397,7 @@
       </c>
       <c r="J17" s="16">
         <f ca="1">em*alpha*Qsl*((Ci-co2pt)/(Ci+2*co2pt))</f>
-        <v>29.101489113599722</v>
+        <v>29.190214792722127</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12417,7 +12419,7 @@
       </c>
       <c r="J18" s="16">
         <f ca="1">em*alpha*Qsh*((Ci-co2pt)/(Ci+2*co2pt))</f>
-        <v>7.4314593712274437</v>
+        <v>7.4541166750172554</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12432,7 +12434,7 @@
       </c>
       <c r="J19" s="16">
         <f ca="1">Lsl*MIN(vc,vs,vqsl)+Lsh*MIN(vc,vs,vqsh)</f>
-        <v>47.101306394592875</v>
+        <v>47.244910571722755</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -12449,7 +12451,7 @@
         <v>148</v>
       </c>
       <c r="J20" s="16">
-        <v>331.07033374402306</v>
+        <v>331.33383660150815</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.25" x14ac:dyDescent="0.35">
@@ -12471,7 +12473,7 @@
       </c>
       <c r="J21" s="16">
         <f>J20*3600*30*10^-6</f>
-        <v>35.75559604435449</v>
+        <v>35.784054352962883</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -12550,7 +12552,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView showFormulas="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -12609,7 +12611,7 @@
       </c>
       <c r="K2" s="16">
         <f ca="1">((Hc*rca+(Hs+Hc)*raa)/pcp)+Ta</f>
-        <v>20.836661038175286</v>
+        <v>20.669631634814394</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12652,7 +12654,7 @@
       </c>
       <c r="H4" s="16">
         <f ca="1">(slopesvp+psycho)*rsa+psycho*rss</f>
-        <v>68.766395946958681</v>
+        <v>36.681958750266645</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12674,7 +12676,7 @@
       </c>
       <c r="H5" s="16">
         <f ca="1">(1+(H3*H2)/(H4*(H3+H2)))^-1</f>
-        <v>0.83369652312624543</v>
+        <v>0.72782690592469279</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12689,14 +12691,14 @@
       </c>
       <c r="E6" s="36">
         <f>Water!H9</f>
-        <v>0.28807762645923773</v>
+        <v>0.39</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>205</v>
       </c>
       <c r="H6" s="16">
         <f ca="1">(1+(H4*H2)/(H3*(H4+H2)))^-1</f>
-        <v>0.92046539994874721</v>
+        <v>0.93056535530196116</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12786,7 +12788,7 @@
       </c>
       <c r="H11" s="16">
         <f ca="1">slopesvp+psycho*(1+rss/(raa+rsa))</f>
-        <v>3.5437765939015415</v>
+        <v>2.189081272845284</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12808,7 +12810,7 @@
       </c>
       <c r="H12" s="16">
         <f ca="1">H10/H11</f>
-        <v>68.017265921495166</v>
+        <v>110.10920331910728</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -12830,7 +12832,7 @@
       </c>
       <c r="H13" s="16">
         <f ca="1">H5*H9+H6*H12</f>
-        <v>115.65251181604663</v>
+        <v>148.77269656973482</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12845,7 +12847,7 @@
       </c>
       <c r="H15" s="16">
         <f ca="1">vpd+(raa/pcp)*(slopesvp*A-(slopesvp+psycho)*LET)</f>
-        <v>1.5331690433710792</v>
+        <v>1.1218696517312226</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" x14ac:dyDescent="0.35">
@@ -12882,7 +12884,7 @@
       </c>
       <c r="H17" s="16">
         <f ca="1">slopesvp*As+pcp*vpd0/rsa</f>
-        <v>261.21666052260446</v>
+        <v>228.04522812596446</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -12904,7 +12906,7 @@
       </c>
       <c r="H18" s="16">
         <f ca="1">slopesvp+psycho*(rss+rsa)/rsa</f>
-        <v>4.5418704996622825</v>
+        <v>2.4227633864390885</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12927,7 +12929,7 @@
       </c>
       <c r="H19" s="16">
         <f ca="1">H17/H18</f>
-        <v>57.513013755462119</v>
+        <v>94.126083216545183</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -12942,7 +12944,7 @@
         <v>214</v>
       </c>
       <c r="H20" s="16">
-        <v>215.9435358984108</v>
+        <v>259.48071167619662</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -12951,7 +12953,7 @@
       </c>
       <c r="H21" s="16">
         <f>H20*2*3600/2454000</f>
-        <v>0.63357516645010503</v>
+        <v>0.76131260149495339</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -12972,7 +12974,7 @@
       </c>
       <c r="H23" s="16">
         <f ca="1">slopesvp*Ac+pcp*vpd0/rca</f>
-        <v>369.62096535675408</v>
+        <v>347.4150045126853</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -13004,7 +13006,7 @@
       </c>
       <c r="H25" s="16">
         <f ca="1">H23/H24</f>
-        <v>58.13949806058455</v>
+        <v>54.646613353189636</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -13019,7 +13021,7 @@
         <v>215</v>
       </c>
       <c r="H26" s="16">
-        <v>212.28461053063566</v>
+        <v>207.5276193799379</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -13028,7 +13030,7 @@
       </c>
       <c r="H27" s="16">
         <f>H26*2*3600/2454000</f>
-        <v>0.62283993309721952</v>
+        <v>0.60888299084578357</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -13053,7 +13055,7 @@
       </c>
       <c r="H29" s="16">
         <f>PETs+PETc</f>
-        <v>1.2564150995473247</v>
+        <v>1.370195592340737</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -13083,7 +13085,7 @@
       </c>
       <c r="H32" s="16">
         <f ca="1">psycho*As*(rss+rsa)-pcp*vpd0</f>
-        <v>4514.4732393701088</v>
+        <v>1065.1098019665383</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.2">
@@ -13099,7 +13101,7 @@
       </c>
       <c r="H33" s="16">
         <f ca="1">slopesvp*rsa+psycho*(rss+rsa)</f>
-        <v>68.766395946958681</v>
+        <v>36.681958750266645</v>
       </c>
     </row>
     <row r="34" spans="4:8" ht="19.5" x14ac:dyDescent="0.35">
@@ -13115,7 +13117,7 @@
       </c>
       <c r="H34" s="16">
         <f ca="1">H32/H33</f>
-        <v>65.649408802116668</v>
+        <v>29.036339341033578</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.2">
@@ -13134,7 +13136,7 @@
       </c>
       <c r="H36" s="16">
         <f ca="1">psycho*Ac*(rcs+rca)-pcp*vpd0</f>
-        <v>28566.616180857793</v>
+        <v>29068.849754995306</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.2">
@@ -13166,7 +13168,7 @@
       </c>
       <c r="H38" s="16">
         <f ca="1">H36/H37</f>
-        <v>198.67229500037084</v>
+        <v>202.16517970776576</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.2">
@@ -13194,7 +13196,7 @@
       </c>
       <c r="E42" s="16">
         <f>E41*EXP(-(1/B13)*E6/E5)</f>
-        <v>63.666731938187688</v>
+        <v>14.906189086072134</v>
       </c>
     </row>
   </sheetData>
@@ -13213,7 +13215,7 @@
     <sheetView showFormulas="1" topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13331,7 +13333,7 @@
       </c>
       <c r="E5" s="16">
         <f>1/(1+(3.6073*H9/H3)^-9.3172)</f>
-        <v>0.99989178202775464</v>
+        <v>0.99999356396147077</v>
       </c>
       <c r="G5" s="44" t="s">
         <v>232</v>
@@ -13355,7 +13357,7 @@
       </c>
       <c r="E6" s="16">
         <f>(PETs*E5)*0.75</f>
-        <v>0.47512995167274508</v>
+        <v>0.57098077624328802</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>231</v>
@@ -13398,13 +13400,13 @@
         <v>270</v>
       </c>
       <c r="H8" s="16">
-        <v>5.7615525291847547</v>
+        <v>12609.731357114721</v>
       </c>
       <c r="I8" s="16">
-        <v>146.57521793618147</v>
+        <v>-12369.754763666893</v>
       </c>
       <c r="J8" s="16">
-        <v>177.73472055690885</v>
+        <v>102.86240290107077</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
@@ -13420,15 +13422,15 @@
       </c>
       <c r="H9" s="16">
         <f>MAX(0.01,MIN(H3,(H8/1000)/H4))</f>
-        <v>0.28807762645923773</v>
+        <v>0.39</v>
       </c>
       <c r="I9" s="16">
         <f>MAX(0.01,MIN(I3,(I8/1000)/I4))</f>
-        <v>0.31864177812213362</v>
+        <v>0.01</v>
       </c>
       <c r="J9" s="16">
         <f>MAX(0.01,MIN(J3,(J8/1000)/J4))</f>
-        <v>0.34179753953251701</v>
+        <v>0.19781231327128992</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13444,15 +13446,15 @@
       </c>
       <c r="H10" s="16">
         <f>[1]!interpolate(hydraulic_vwc,hydraulic_K,H9)</f>
-        <v>3.845324460706987</v>
+        <v>762.84210526315826</v>
       </c>
       <c r="I10" s="16">
         <f>[1]!interpolate(hydraulic_vwc,hydraulic_K,I9)</f>
-        <v>8.5399278862819052</v>
+        <v>4.75E-28</v>
       </c>
       <c r="J10" s="16">
         <f>[1]!interpolate(hydraulic_vwc,hydraulic_K,J9)</f>
-        <v>18.777691690951421</v>
+        <v>2.6858013508528813E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13468,15 +13470,15 @@
       </c>
       <c r="H11" s="16">
         <f>[1]!interpolate(matric_vwc,matric_Hm,H9)</f>
-        <v>0.59611867703811272</v>
+        <v>0</v>
       </c>
       <c r="I11" s="16">
         <f>[1]!interpolate(matric_vwc,matric_Hm,I9)</f>
-        <v>0.35679110938933184</v>
+        <v>1250</v>
       </c>
       <c r="J11" s="16">
         <f>[1]!interpolate(matric_vwc,matric_Hm,J9)</f>
-        <v>0.24101230233741491</v>
+        <v>3.2187686728710085</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13485,7 +13487,7 @@
       </c>
       <c r="E12" s="16">
         <f>SUM(H16:J16)/droot</f>
-        <v>0.31619664598910191</v>
+        <v>4.0400000000000005E-2</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>238</v>
@@ -13509,22 +13511,22 @@
       </c>
       <c r="E13" s="16">
         <f>IF(E12&gt;=E11,1,MAX(0,(E12-E9)/(E11-E9)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>239</v>
       </c>
       <c r="H13" s="16">
         <f>H11+H12</f>
-        <v>0.60611867703811273</v>
+        <v>0.01</v>
       </c>
       <c r="I13" s="16">
         <f>I11+I12</f>
-        <v>0.6067911093893319</v>
+        <v>1250.25</v>
       </c>
       <c r="J13" s="16">
         <f t="shared" ref="J13" si="0">J11+J12</f>
-        <v>0.98101230233741488</v>
+        <v>3.9587686728710088</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -13533,18 +13535,18 @@
       </c>
       <c r="E14" s="16">
         <f>PETc*E13</f>
-        <v>0.62283993309721952</v>
+        <v>0</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>267</v>
       </c>
       <c r="I14" s="16">
         <f>(H10*H4+I10*I4)/(I4+H4)</f>
-        <v>8.3443194102162828</v>
+        <v>31.785087719298261</v>
       </c>
       <c r="J14" s="16">
         <f>(I10*I4+J10*J4)/(J4+I4)</f>
-        <v>13.972210721412671</v>
+        <v>1.4251190841260187E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -13573,11 +13575,11 @@
       </c>
       <c r="H16" s="16">
         <f>MAX(0,H9*(H4-H15))</f>
-        <v>5.7615525291847547E-3</v>
+        <v>7.8000000000000005E-3</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" ref="I16:J16" si="1">MAX(0,I9*(I4-I15))</f>
-        <v>7.3287608968090723E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="1"/>
@@ -13597,7 +13599,7 @@
       </c>
       <c r="H17" s="16">
         <f>E6</f>
-        <v>0.47512995167274508</v>
+        <v>0.57098077624328802</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -13640,11 +13642,11 @@
       </c>
       <c r="H20" s="16">
         <f>H19*AETc</f>
-        <v>8.6500009908541856E-2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="16">
         <f>(I19-H19)*AETc</f>
-        <v>0.53633992318867763</v>
+        <v>0</v>
       </c>
       <c r="J20" s="16">
         <f>(J19-I19)*AETc</f>
@@ -13657,15 +13659,15 @@
       </c>
       <c r="H21" s="16">
         <f ca="1">Pn-H17-H20</f>
-        <v>-0.56162996158128697</v>
+        <v>-0.57098077624328802</v>
       </c>
       <c r="I21" s="16">
         <f>I14*(I13-H13)/(I6-H6)-I20</f>
-        <v>-0.51296079685394658</v>
+        <v>165579.11695906441</v>
       </c>
       <c r="J21" s="16">
         <f>J14*(J13-I13)/(J6-I6)-J20</f>
-        <v>10.670810947528663</v>
+        <v>-36.247212615167477</v>
       </c>
     </row>
     <row r="22" spans="4:10" ht="19.5" x14ac:dyDescent="0.35">
@@ -13674,15 +13676,15 @@
       </c>
       <c r="H22" s="29">
         <f ca="1">H21-I21</f>
-        <v>-4.8669164727340397E-2</v>
+        <v>-165579.68793984066</v>
       </c>
       <c r="I22" s="29">
         <f>I21-J21</f>
-        <v>-11.183771744382609</v>
+        <v>165615.36417167957</v>
       </c>
       <c r="J22" s="29">
         <f>J21-J14</f>
-        <v>-3.3013997738840075</v>
+        <v>-36.261463806008734</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.2">
@@ -13803,7 +13805,7 @@
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -13941,8 +13943,8 @@
         <v>0.31180000000000002</v>
       </c>
       <c r="E10" s="48">
-        <f>5.515</f>
-        <v>5.5149999999999997</v>
+        <f>5.52</f>
+        <v>5.52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -13953,11 +13955,11 @@
         <v>1</v>
       </c>
       <c r="D11" s="16">
-        <v>0.34989999999999999</v>
+        <v>0.34920000000000001</v>
       </c>
       <c r="E11" s="16">
-        <f xml:space="preserve"> 22.36</f>
-        <v>22.36</v>
+        <f xml:space="preserve"> 154.6</f>
+        <v>154.6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -13968,11 +13970,10 @@
         <v>0.5</v>
       </c>
       <c r="D12" s="16">
-        <v>0.39</v>
-      </c>
-      <c r="E12" s="71">
-        <f xml:space="preserve"> 314.2</f>
-        <v>314.2</v>
+        <v>0.41</v>
+      </c>
+      <c r="E12" s="75">
+        <v>1061</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -13982,6 +13983,12 @@
       <c r="B13" s="16">
         <v>0</v>
       </c>
+      <c r="D13" s="16">
+        <v>0.42</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1500</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
@@ -13990,9 +13997,6 @@
       <c r="A34" s="18"/>
     </row>
   </sheetData>
-  <sortState ref="D22:E26">
-    <sortCondition descending="1" ref="D22:D26"/>
-  </sortState>
   <phoneticPr fontId="22"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14058,11 +14062,11 @@
       </c>
       <c r="I2">
         <f ca="1">assim</f>
-        <v>47.101306394592875</v>
+        <v>47.244910571722755</v>
       </c>
       <c r="J2">
         <f>Photosynthesis!J20</f>
-        <v>331.07033374402306</v>
+        <v>331.33383660150815</v>
       </c>
       <c r="K2">
         <f ca="1">tsr</f>
@@ -14090,11 +14094,11 @@
       </c>
       <c r="I3">
         <f ca="1">LETs</f>
-        <v>57.513013755462119</v>
+        <v>94.126083216545183</v>
       </c>
       <c r="J3">
         <f>ET!H20</f>
-        <v>215.9435358984108</v>
+        <v>259.48071167619662</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -14122,11 +14126,11 @@
       </c>
       <c r="I4">
         <f ca="1">LETc</f>
-        <v>58.13949806058455</v>
+        <v>54.646613353189636</v>
       </c>
       <c r="J4">
         <f>ET!H26</f>
-        <v>212.28461053063566</v>
+        <v>207.5276193799379</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -14147,11 +14151,11 @@
       </c>
       <c r="H5">
         <f>Water!H8:J8</f>
-        <v>5.7615525291847547</v>
+        <v>12609.731357114721</v>
       </c>
       <c r="I5">
         <f>Water!H22:J22</f>
-        <v>-11.183771744382609</v>
+        <v>165615.36417167957</v>
       </c>
       <c r="J5">
         <v>100</v>
@@ -14194,7 +14198,7 @@
       </c>
       <c r="H21">
         <f>Water!H8:J8</f>
-        <v>5.7615525291847547</v>
+        <v>12609.731357114721</v>
       </c>
       <c r="I21">
         <f>Water!H7:J7</f>
@@ -14212,8 +14216,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14272,19 +14276,19 @@
       </c>
       <c r="C3">
         <f>Water!H9</f>
-        <v>0.28807762645923773</v>
+        <v>0.39</v>
       </c>
       <c r="D3">
         <f>Water!I9</f>
-        <v>0.31864177812213362</v>
+        <v>0.01</v>
       </c>
       <c r="E3">
         <f>Water!J9</f>
-        <v>0.34179753953251701</v>
+        <v>0.19781231327128992</v>
       </c>
       <c r="F3">
         <f>SUM(Water!H8:J8)</f>
-        <v>330.07149102227504</v>
+        <v>342.83899634889809</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -14378,8 +14382,8 @@
         <v>1.0083720642270705E-3</v>
       </c>
       <c r="M8">
-        <f>SQRT(SUM(L8:L42)/34)</f>
-        <v>26.494426804913402</v>
+        <f>SQRT(SUM(L8:L42)/35)</f>
+        <v>19.914325090423418</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -14394,20 +14398,20 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>0.23403359147150843</v>
+        <v>0.23403204351248397</v>
       </c>
       <c r="D9" s="3">
-        <v>0.23762875165915462</v>
+        <v>0.23762863050555053</v>
       </c>
       <c r="E9" s="3">
-        <v>0.23829198687409528</v>
+        <v>0.23829198361158857</v>
       </c>
       <c r="F9" s="3">
-        <v>237.90173076717087</v>
+        <v>237.901642380829</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ref="G9:G42" si="0">F9</f>
-        <v>237.90173076717087</v>
+        <v>237.901642380829</v>
       </c>
       <c r="H9" s="57">
         <v>23.839117647058668</v>
@@ -14418,15 +14422,15 @@
       </c>
       <c r="J9" s="59">
         <f t="shared" ref="J9:J42" si="1">(ABS(I9-G9)/G9)</f>
-        <v>2.0573440211530888E-3</v>
+        <v>2.0577163102306157E-3</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" ref="K9:K42" si="2">I9-G9</f>
-        <v>0.48944570341581084</v>
+        <v>0.48953408975768298</v>
       </c>
       <c r="L9" s="70">
         <f t="shared" ref="L9:L42" si="3">K9^2</f>
-        <v>0.23955709659219787</v>
+        <v>0.23964362503488321</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -14441,20 +14445,20 @@
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>0.2611828457841025</v>
+        <v>0.26117937569439165</v>
       </c>
       <c r="D10" s="3">
-        <v>0.23668540798349749</v>
+        <v>0.2366852678970133</v>
       </c>
       <c r="E10" s="3">
-        <v>0.23826271657978465</v>
+        <v>0.23826270454988407</v>
       </c>
       <c r="F10" s="3">
-        <v>237.99555720957892</v>
+        <v>237.99541711245371</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>237.99555720957892</v>
+        <v>237.99541711245371</v>
       </c>
       <c r="H10" s="57">
         <v>23.929065573770334</v>
@@ -14465,15 +14469,15 @@
       </c>
       <c r="J10" s="59">
         <f t="shared" si="1"/>
-        <v>5.4416920353851355E-3</v>
+        <v>5.4422838933811026E-3</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="2"/>
-        <v>1.295098528124413</v>
+        <v>1.295238625249624</v>
       </c>
       <c r="L10" s="70">
         <f t="shared" si="3"/>
-        <v>1.6772801975500209</v>
+        <v>1.6776430963385358</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -14488,20 +14492,20 @@
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>0.24171004311752375</v>
+        <v>0.24170764666603825</v>
       </c>
       <c r="D11" s="3">
-        <v>0.23593204835991488</v>
+        <v>0.23593178056661521</v>
       </c>
       <c r="E11" s="3">
-        <v>0.23822103661892563</v>
+        <v>0.23822101354352732</v>
       </c>
       <c r="F11" s="3">
-        <v>237.23788214975264</v>
+        <v>237.23769903659797</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>237.23788214975264</v>
+        <v>237.23769903659797</v>
       </c>
       <c r="H11" s="57">
         <v>23.482235772357964</v>
@@ -14512,15 +14516,15 @@
       </c>
       <c r="J11" s="59">
         <f t="shared" si="1"/>
-        <v>1.0181866421519612E-2</v>
+        <v>1.0181102425233535E-2</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="2"/>
-        <v>-2.4155244261729933</v>
+        <v>-2.415341313018331</v>
       </c>
       <c r="L11" s="70">
         <f t="shared" si="3"/>
-        <v>5.8347582534383688</v>
+        <v>5.8338736583731148</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -14535,20 +14539,20 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>0.23646534567650421</v>
+        <v>0.23646748388171643</v>
       </c>
       <c r="D12" s="3">
-        <v>0.23453256162351388</v>
+        <v>0.23453209199489169</v>
       </c>
       <c r="E12" s="3">
-        <v>0.23815560256428245</v>
+        <v>0.23815552688479358</v>
       </c>
       <c r="F12" s="3">
-        <v>236.45519859377333</v>
+        <v>236.45498597537718</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>236.45519859377333</v>
+        <v>236.45498597537718</v>
       </c>
       <c r="H12" s="57">
         <v>23.050303030303041</v>
@@ -14559,15 +14563,15 @@
       </c>
       <c r="J12" s="59">
         <f t="shared" si="1"/>
-        <v>2.5172499171687311E-2</v>
+        <v>2.5171622614743958E-2</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="2"/>
-        <v>-5.9521682907429181</v>
+        <v>-5.9519556723467701</v>
       </c>
       <c r="L12" s="70">
         <f t="shared" si="3"/>
-        <v>35.428307361325473</v>
+        <v>35.425776325580891</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -14582,20 +14586,20 @@
         <v>19</v>
       </c>
       <c r="C13" s="3">
-        <v>0.23484339745293911</v>
+        <v>0.23484406991797507</v>
       </c>
       <c r="D13" s="3">
-        <v>0.23314817357723661</v>
+        <v>0.23314775257838416</v>
       </c>
       <c r="E13" s="3">
-        <v>0.23806279333233502</v>
+        <v>0.23806266298928982</v>
       </c>
       <c r="F13" s="3">
-        <v>235.73768032740185</v>
+        <v>235.73743233884693</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
-        <v>235.73768032740185</v>
+        <v>235.73743233884693</v>
       </c>
       <c r="H13" s="57">
         <v>22.654267015706743</v>
@@ -14606,15 +14610,15 @@
       </c>
       <c r="J13" s="59">
         <f t="shared" si="1"/>
-        <v>3.9005262788553804E-2</v>
+        <v>3.9004251851538836E-2</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="2"/>
-        <v>-9.1950101703343989</v>
+        <v>-9.1947621817794811</v>
       </c>
       <c r="L13" s="70">
         <f t="shared" si="3"/>
-        <v>84.548212032553039</v>
+        <v>84.543651579482159</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -14629,20 +14633,20 @@
         <v>8</v>
       </c>
       <c r="C14" s="40">
-        <v>0.35032123509118634</v>
+        <v>0.31898598666159678</v>
       </c>
       <c r="D14" s="40">
-        <v>0.26238077794212078</v>
+        <v>0.26356650771759171</v>
       </c>
       <c r="E14" s="40">
-        <v>0.23863201062799153</v>
+        <v>0.23872156669161421</v>
       </c>
       <c r="F14" s="3">
-        <v>251.79022808175489</v>
+        <v>251.75552796296353</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>251.79022808175489</v>
+        <v>251.75552796296353</v>
       </c>
       <c r="H14" s="57">
         <v>27.313671444322264</v>
@@ -14653,15 +14657,15 @@
       </c>
       <c r="J14" s="59">
         <f t="shared" si="1"/>
-        <v>8.4778851522929799E-2</v>
+        <v>8.4928369411632287E-2</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="2"/>
-        <v>21.346486361467726</v>
+        <v>21.381186480259089</v>
       </c>
       <c r="L14" s="70">
         <f t="shared" si="3"/>
-        <v>455.67247998032764</v>
+        <v>457.15513530361403</v>
       </c>
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
@@ -14676,20 +14680,20 @@
         <v>0</v>
       </c>
       <c r="C15" s="40">
-        <v>0.28422377279863248</v>
+        <v>0.28438963987343863</v>
       </c>
       <c r="D15" s="40">
-        <v>0.27217825579250676</v>
+        <v>0.27215571704369573</v>
       </c>
       <c r="E15" s="40">
-        <v>0.2417956844962113</v>
+        <v>0.24189741986479432</v>
       </c>
       <c r="F15" s="3">
-        <v>256.62022905855565</v>
+        <v>256.66608096726185</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>256.62022905855565</v>
+        <v>256.66608096726185</v>
       </c>
       <c r="H15" s="57">
         <v>28.196189710610948</v>
@@ -14700,15 +14704,15 @@
       </c>
       <c r="J15" s="59">
         <f t="shared" si="1"/>
-        <v>9.875163832766802E-2</v>
+        <v>9.8555352711658592E-2</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="2"/>
-        <v>25.34166804755381</v>
+        <v>25.295816138847613</v>
       </c>
       <c r="L15" s="70">
         <f t="shared" si="3"/>
-        <v>642.20013943240974</v>
+        <v>639.87831413038339</v>
       </c>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
@@ -14723,20 +14727,20 @@
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>0.25537484331224636</v>
+        <v>0.25535613191185053</v>
       </c>
       <c r="D16" s="3">
-        <v>0.26572815523526938</v>
+        <v>0.26571178176910237</v>
       </c>
       <c r="E16" s="3">
-        <v>0.2449525802120783</v>
+        <v>0.24504716136579507</v>
       </c>
       <c r="F16" s="3">
-        <v>254.71778998474957</v>
+        <v>254.75906616223756</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
-        <v>254.71778998474957</v>
+        <v>254.75906616223756</v>
       </c>
       <c r="H16" s="57">
         <v>26.799947575360278</v>
@@ -14747,15 +14751,15 @@
       </c>
       <c r="J16" s="59">
         <f t="shared" si="1"/>
-        <v>5.21427489208681E-2</v>
+        <v>5.1972280283573362E-2</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="2"/>
-        <v>13.281685768853208</v>
+        <v>13.240409591365221</v>
       </c>
       <c r="L16" s="70">
         <f t="shared" si="3"/>
-        <v>176.40317686255784</v>
+        <v>175.30844614711614</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -14770,20 +14774,20 @@
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>0.25025510872548301</v>
+        <v>0.25023920038381497</v>
       </c>
       <c r="D17" s="3">
-        <v>0.26001661408068749</v>
+        <v>0.26000090401277481</v>
       </c>
       <c r="E17" s="3">
-        <v>0.2468556516609591</v>
+        <v>0.24694220641394665</v>
       </c>
       <c r="F17" s="3">
-        <v>252.97768351532466</v>
+        <v>253.015147188805</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>252.97768351532466</v>
+        <v>253.015147188805</v>
       </c>
       <c r="H17" s="57">
         <v>25.104677419354772</v>
@@ -14794,15 +14798,15 @@
       </c>
       <c r="J17" s="59">
         <f t="shared" si="1"/>
-        <v>7.6327259185293645E-3</v>
+        <v>7.779664645091164E-3</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="2"/>
-        <v>-1.9309093217769373</v>
+        <v>-1.9683729952572833</v>
       </c>
       <c r="L17" s="70">
         <f t="shared" si="3"/>
-        <v>3.728410808925072</v>
+        <v>3.8744922484581288</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -14817,20 +14821,20 @@
         <v>89</v>
       </c>
       <c r="C18" s="3">
-        <v>0.24635913826719522</v>
+        <v>0.24634432234695039</v>
       </c>
       <c r="D18" s="3">
-        <v>0.25530606927870397</v>
+        <v>0.25529175956351885</v>
       </c>
       <c r="E18" s="3">
-        <v>0.24791372374400045</v>
+        <v>0.24799232724556999</v>
       </c>
       <c r="F18" s="3">
-        <v>251.28311098042798</v>
+        <v>251.31710601385407</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>251.28311098042798</v>
+        <v>251.31710601385407</v>
       </c>
       <c r="H18" s="57">
         <v>27.897916181606572</v>
@@ -14841,15 +14845,15 @@
       </c>
       <c r="J18" s="59">
         <f t="shared" si="1"/>
-        <v>0.1102185130054161</v>
+        <v>0.11006833653689586</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="2"/>
-        <v>27.69605083563772</v>
+        <v>27.662055802211626</v>
       </c>
       <c r="L18" s="70">
         <f t="shared" si="3"/>
-        <v>767.07123189022889</v>
+        <v>765.18933120466988</v>
       </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -14864,20 +14868,20 @@
         <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>0.39</v>
+        <v>0.32722317683116026</v>
       </c>
       <c r="D19" s="3">
-        <v>0.34761374170964071</v>
+        <v>0.33468623828328309</v>
       </c>
       <c r="E19" s="3">
-        <v>0.26795313359338341</v>
+        <v>0.29284980484218825</v>
       </c>
       <c r="F19" s="3">
-        <v>326.45107235702903</v>
+        <v>312.78203166487128</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>326.45107235702903</v>
+        <v>312.78203166487128</v>
       </c>
       <c r="H19" s="57">
         <v>32.029561830574458</v>
@@ -14888,15 +14892,15 @@
       </c>
       <c r="J19" s="59">
         <f t="shared" si="1"/>
-        <v>1.8855671102076869E-2</v>
+        <v>2.4021797546617728E-2</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="2"/>
-        <v>-6.1554540512844369</v>
+        <v>7.5135866408733136</v>
       </c>
       <c r="L19" s="70">
         <f t="shared" si="3"/>
-        <v>37.889614577473985</v>
+        <v>56.453984209909926</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -14907,20 +14911,20 @@
         <v>0</v>
       </c>
       <c r="C20" s="40">
-        <v>0.30005242814295308</v>
+        <v>0.30168549324023275</v>
       </c>
       <c r="D20" s="40">
-        <v>0.33242405003034653</v>
+        <v>0.31007082770363631</v>
       </c>
       <c r="E20" s="40">
-        <v>0.29823931026955458</v>
+        <v>0.29889928681531563</v>
       </c>
       <c r="F20" s="3">
-        <v>314.00055291698686</v>
+        <v>304.09391975244148</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
-        <v>314.00055291698686</v>
+        <v>304.09391975244148</v>
       </c>
       <c r="H20" s="57">
         <v>30.046079335793408</v>
@@ -14931,15 +14935,15 @@
       </c>
       <c r="J20" s="59">
         <f t="shared" si="1"/>
-        <v>4.3120177443229837E-2</v>
+        <v>1.1947382563469364E-2</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="2"/>
-        <v>-13.539759559052754</v>
+        <v>-3.6331263945073715</v>
       </c>
       <c r="L20" s="70">
         <f t="shared" si="3"/>
-        <v>183.32508891696042</v>
+        <v>13.199607398466133</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -14950,20 +14954,20 @@
         <v>13</v>
       </c>
       <c r="C21" s="3">
-        <v>0.28761224849511818</v>
+        <v>0.28622835526344786</v>
       </c>
       <c r="D21" s="3">
-        <v>0.31298899709266026</v>
+        <v>0.29890461389219264</v>
       </c>
       <c r="E21" s="3">
-        <v>0.30143209204547977</v>
+        <v>0.29941664262096446</v>
       </c>
       <c r="F21" s="3">
-        <v>306.47187149617559</v>
+        <v>298.91734365857911</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
-        <v>306.47187149617559</v>
+        <v>298.91734365857911</v>
       </c>
       <c r="H21" s="57">
         <v>28.78559615384648</v>
@@ -14974,15 +14978,15 @@
       </c>
       <c r="J21" s="59">
         <f t="shared" si="1"/>
-        <v>6.0742638033399798E-2</v>
+        <v>3.7004818739285163E-2</v>
       </c>
       <c r="K21" s="15">
         <f t="shared" si="2"/>
-        <v>-18.615909957710812</v>
+        <v>-11.061382120114331</v>
       </c>
       <c r="L21" s="70">
         <f t="shared" si="3"/>
-        <v>346.55210355359657</v>
+        <v>122.35417440718501</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -14993,20 +14997,20 @@
         <v>87</v>
       </c>
       <c r="C22" s="3">
-        <v>0.33215915066828666</v>
+        <v>0.32993825029497692</v>
       </c>
       <c r="D22" s="3">
-        <v>0.32111037259194664</v>
+        <v>0.31130250287053712</v>
       </c>
       <c r="E22" s="3">
-        <v>0.30316809034107017</v>
+        <v>0.29989130273471964</v>
       </c>
       <c r="F22" s="3">
-        <v>312.0013613830177</v>
+        <v>305.74139374840081</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
-        <v>312.0013613830177</v>
+        <v>305.74139374840081</v>
       </c>
       <c r="H22" s="57">
         <v>31.642643442622873</v>
@@ -15017,15 +15021,15 @@
       </c>
       <c r="J22" s="59">
         <f t="shared" si="1"/>
-        <v>1.4182864534936336E-2</v>
+        <v>3.4947968761537156E-2</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="2"/>
-        <v>4.4250730432110572</v>
+        <v>10.685040677827942</v>
       </c>
       <c r="L22" s="70">
         <f t="shared" si="3"/>
-        <v>19.581271437753166</v>
+        <v>114.17009428683781</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -15036,20 +15040,20 @@
         <v>7</v>
       </c>
       <c r="C23" s="3">
-        <v>0.34906908623013461</v>
+        <v>0.32593741094575851</v>
       </c>
       <c r="D23" s="3">
-        <v>0.36216135234657826</v>
+        <v>0.33499798047649754</v>
       </c>
       <c r="E23" s="3">
-        <v>0.33580809435322684</v>
+        <v>0.32429488241727034</v>
       </c>
       <c r="F23" s="3">
-        <v>348.19581286770665</v>
+        <v>329.25115809508463</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>348.19581286770665</v>
+        <v>329.25115809508463</v>
       </c>
       <c r="H23" s="57">
         <v>32.228456104944506</v>
@@ -15060,15 +15064,15 @@
       </c>
       <c r="J23" s="59">
         <f t="shared" si="1"/>
-        <v>7.4415747865716822E-2</v>
+        <v>2.1158914325299569E-2</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="2"/>
-        <v>-25.911251818261576</v>
+        <v>-6.9665970456395598</v>
       </c>
       <c r="L23" s="70">
         <f t="shared" si="3"/>
-        <v>671.39297078936386</v>
+        <v>48.533474396313842</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -15079,20 +15083,20 @@
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>0.30610220347406725</v>
+        <v>0.31397611601011699</v>
       </c>
       <c r="D24" s="3">
-        <v>0.32896472463476445</v>
+        <v>0.2902844830575993</v>
       </c>
       <c r="E24" s="3">
-        <v>0.33818736386589787</v>
+        <v>0.31681896872355775</v>
       </c>
       <c r="F24" s="3">
-        <v>333.30324661173989</v>
+        <v>304.55624826294803</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
-        <v>333.30324661173989</v>
+        <v>304.55624826294803</v>
       </c>
       <c r="H24" s="57">
         <v>30.433051330798698</v>
@@ -15103,15 +15107,15 @@
       </c>
       <c r="J24" s="59">
         <f t="shared" si="1"/>
-        <v>8.6926045870482763E-2</v>
+        <v>7.4119298569167488E-4</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="2"/>
-        <v>-28.972733303752932</v>
+        <v>-0.22573495496106943</v>
       </c>
       <c r="L24" s="70">
         <f t="shared" si="3"/>
-        <v>839.41927509039431</v>
+        <v>5.0956269891276045E-2</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -15122,20 +15126,20 @@
         <v>7</v>
       </c>
       <c r="C25" s="40">
-        <v>0.28727796422419616</v>
+        <v>0.27784398833179541</v>
       </c>
       <c r="D25" s="40">
-        <v>0.30641794516710169</v>
+        <v>0.28358061435742549</v>
       </c>
       <c r="E25" s="40">
-        <v>0.33366148646889882</v>
+        <v>0.30859795033264803</v>
       </c>
       <c r="F25" s="3">
-        <v>320.20178702517808</v>
+        <v>296.47489654402864</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
-        <v>320.20178702517808</v>
+        <v>296.47489654402864</v>
       </c>
       <c r="H25" s="57">
         <v>29.758445544554792</v>
@@ -15146,15 +15150,15 @@
       </c>
       <c r="J25" s="59">
         <f t="shared" si="1"/>
-        <v>7.0634620093021891E-2</v>
+        <v>3.7425054008054983E-3</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="2"/>
-        <v>-22.617331579630161</v>
+        <v>1.1095589015192786</v>
       </c>
       <c r="L25" s="70">
         <f t="shared" si="3"/>
-        <v>511.54368778293576</v>
+        <v>1.2311209559406682</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -15165,20 +15169,20 @@
         <v>0</v>
       </c>
       <c r="C26" s="40">
-        <v>0.31715979877869693</v>
+        <v>0.30804135716248526</v>
       </c>
       <c r="D26" s="40">
-        <v>0.30220104541600507</v>
+        <v>0.28951080397108608</v>
       </c>
       <c r="E26" s="40">
-        <v>0.32843928650942944</v>
+        <v>0.30454783220171533</v>
       </c>
       <c r="F26" s="3">
-        <v>316.14410585183958</v>
+        <v>297.7006697148413</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
-        <v>316.14410585183958</v>
+        <v>297.7006697148413</v>
       </c>
       <c r="H26" s="57">
         <v>28.346896551724452</v>
@@ -15189,15 +15193,15 @@
       </c>
       <c r="J26" s="59">
         <f t="shared" si="1"/>
-        <v>0.10335520963312925</v>
+        <v>4.7805415457173574E-2</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="2"/>
-        <v>-32.675140334595085</v>
+        <v>-14.231704197596798</v>
       </c>
       <c r="L26" s="70">
         <f t="shared" si="3"/>
-        <v>1067.6647958854826</v>
+        <v>202.54140436789433</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -15208,20 +15212,20 @@
         <v>0</v>
       </c>
       <c r="C27" s="40">
-        <v>0.28499782162835524</v>
+        <v>0.27922628559070323</v>
       </c>
       <c r="D27" s="40">
-        <v>0.28935288405881932</v>
+        <v>0.28402936198493195</v>
       </c>
       <c r="E27" s="40">
-        <v>0.32353508541233034</v>
+        <v>0.30068152356501077</v>
       </c>
       <c r="F27" s="3">
-        <v>307.04052751403577</v>
+        <v>292.59242447868837</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
-        <v>307.04052751403577</v>
+        <v>292.59242447868837</v>
       </c>
       <c r="H27" s="57">
         <v>26.394255924170523</v>
@@ -15232,15 +15236,15 @@
       </c>
       <c r="J27" s="59">
         <f t="shared" si="1"/>
-        <v>0.14036573159014132</v>
+        <v>9.7917317196535694E-2</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="2"/>
-        <v>-43.097968272330547</v>
+        <v>-28.649865236983146</v>
       </c>
       <c r="L27" s="70">
         <f t="shared" si="3"/>
-        <v>1857.4348692028104</v>
+        <v>820.81477809729529</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -15251,20 +15255,20 @@
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <v>0.27867540420876447</v>
+        <v>0.2724663018261414</v>
       </c>
       <c r="D28" s="3">
-        <v>0.28376663526930451</v>
+        <v>0.28128219564703227</v>
       </c>
       <c r="E28" s="3">
-        <v>0.31482886298428892</v>
+        <v>0.29419408959660115</v>
       </c>
       <c r="F28" s="3">
-        <v>299.81716905988566</v>
+        <v>287.82006262439029</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
-        <v>299.81716905988566</v>
+        <v>287.82006262439029</v>
       </c>
       <c r="H28" s="57">
         <v>24.990241312741233</v>
@@ -15275,15 +15279,15 @@
       </c>
       <c r="J28" s="59">
         <f t="shared" si="1"/>
-        <v>0.16648398118422406</v>
+        <v>0.13174081456045364</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="2"/>
-        <v>-49.914755932473327</v>
+        <v>-37.917649496977958</v>
       </c>
       <c r="L28" s="70">
         <f t="shared" si="3"/>
-        <v>2491.482859798381</v>
+        <v>1437.7481433756727</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -15294,20 +15298,20 @@
         <v>0</v>
       </c>
       <c r="C29" s="3">
-        <v>0.2741572029952572</v>
+        <v>0.26874589221829398</v>
       </c>
       <c r="D29" s="3">
-        <v>0.28200944335107092</v>
+        <v>0.27954917864207357</v>
       </c>
       <c r="E29" s="3">
-        <v>0.30646054731841516</v>
+        <v>0.28756736372107672</v>
       </c>
       <c r="F29" s="3">
-        <v>294.56697260697365</v>
+        <v>283.50256915467963</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
-        <v>294.56697260697365</v>
+        <v>283.50256915467963</v>
       </c>
       <c r="H29" s="57">
         <v>25.10273866923826</v>
@@ -15318,15 +15322,15 @@
       </c>
       <c r="J29" s="59">
         <f t="shared" si="1"/>
-        <v>0.14780878361636215</v>
+        <v>0.114549870073941</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="2"/>
-        <v>-43.539585914591044</v>
+        <v>-32.475182462297028</v>
       </c>
       <c r="L29" s="70">
         <f t="shared" si="3"/>
-        <v>1895.6955416140547</v>
+        <v>1054.6374759594844</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -15337,20 +15341,20 @@
         <v>1</v>
       </c>
       <c r="C30" s="3">
-        <v>0.27217452880301618</v>
+        <v>0.26573582157673259</v>
       </c>
       <c r="D30" s="3">
-        <v>0.28114998474021269</v>
+        <v>0.27610823720821565</v>
       </c>
       <c r="E30" s="3">
-        <v>0.298546465382724</v>
+        <v>0.28343775145712441</v>
       </c>
       <c r="F30" s="3">
-        <v>290.01664555557466</v>
+        <v>279.71213630501859</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
-        <v>290.01664555557466</v>
+        <v>279.71213630501859</v>
       </c>
       <c r="H30" s="57">
         <v>25.065714285714499</v>
@@ -15361,15 +15365,15 @@
       </c>
       <c r="J30" s="59">
         <f t="shared" si="1"/>
-        <v>0.13571463328606551</v>
+        <v>0.10387462564795506</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="2"/>
-        <v>-39.359502698429651</v>
+        <v>-29.054993447873585</v>
       </c>
       <c r="L30" s="70">
         <f t="shared" si="3"/>
-        <v>1549.1704526676911</v>
+        <v>844.19264425597692</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -15380,20 +15384,20 @@
         <v>44</v>
       </c>
       <c r="C31" s="3">
-        <v>0.27655256797508354</v>
+        <v>0.26675222894034384</v>
       </c>
       <c r="D31" s="3">
-        <v>0.28181172783279745</v>
+        <v>0.27360456694648821</v>
       </c>
       <c r="E31" s="3">
-        <v>0.2916858764018635</v>
+        <v>0.2808603365071336</v>
       </c>
       <c r="F31" s="3">
-        <v>286.84110189155751</v>
+        <v>277.240520357901</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
-        <v>286.84110189155751</v>
+        <v>277.240520357901</v>
       </c>
       <c r="H31" s="57">
         <v>29.76519371727748</v>
@@ -15404,15 +15408,15 @@
       </c>
       <c r="J31" s="59">
         <f t="shared" si="1"/>
-        <v>3.7689282358510857E-2</v>
+        <v>7.362349770705913E-2</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="2"/>
-        <v>10.810835281217294</v>
+        <v>20.411416814873803</v>
       </c>
       <c r="L31" s="70">
         <f t="shared" si="3"/>
-        <v>116.87415947761261</v>
+        <v>416.625936390513</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -15423,20 +15427,20 @@
         <v>53</v>
       </c>
       <c r="C32" s="3">
-        <v>0.3697229794800328</v>
+        <v>0.31353318966881999</v>
       </c>
       <c r="D32" s="3">
-        <v>0.34567888742144937</v>
+        <v>0.32357678533763617</v>
       </c>
       <c r="E32" s="3">
-        <v>0.29492728768585852</v>
+        <v>0.29137081031502415</v>
       </c>
       <c r="F32" s="3">
-        <v>319.76893740011377</v>
+        <v>306.6288064125016</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
-        <v>319.76893740011377</v>
+        <v>306.6288064125016</v>
       </c>
       <c r="H32" s="57">
         <v>33.404543630892626</v>
@@ -15447,15 +15451,15 @@
       </c>
       <c r="J32" s="59">
         <f t="shared" si="1"/>
-        <v>4.46462968695076E-2</v>
+        <v>8.9413092713610198E-2</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="2"/>
-        <v>14.276498908812471</v>
+        <v>27.416629896424638</v>
       </c>
       <c r="L32" s="70">
         <f t="shared" si="3"/>
-        <v>203.81842109332368</v>
+        <v>751.67159487752531</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -15466,20 +15470,20 @@
         <v>27</v>
       </c>
       <c r="C33">
-        <v>0.34462779073138011</v>
+        <v>0.31282890184375955</v>
       </c>
       <c r="D33">
-        <v>0.3556257243335747</v>
+        <v>0.32963462264851917</v>
       </c>
       <c r="E33">
-        <v>0.32154558403327554</v>
+        <v>0.30984006731377584</v>
       </c>
       <c r="F33">
-        <v>337.68409270537524</v>
+        <v>319.00533945835741</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>337.68409270537524</v>
+        <v>319.00533945835741</v>
       </c>
       <c r="H33" s="57">
         <v>32.796229838709721</v>
@@ -15490,15 +15494,15 @@
       </c>
       <c r="J33" s="59">
         <f t="shared" si="1"/>
-        <v>2.8789612920144668E-2</v>
+        <v>2.8077771186989973E-2</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="2"/>
-        <v>-9.7217943182780004</v>
+        <v>8.956958928739823</v>
       </c>
       <c r="L33" s="70">
         <f t="shared" si="3"/>
-        <v>94.513284766902416</v>
+        <v>80.227113251132039</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -15509,20 +15513,20 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.34663068828436389</v>
+        <v>0.30811774779315582</v>
       </c>
       <c r="D34">
-        <v>0.35051259700994358</v>
+        <v>0.31847130438681515</v>
       </c>
       <c r="E34">
-        <v>0.33160824395737748</v>
+        <v>0.31463207596886433</v>
       </c>
       <c r="F34">
-        <v>340.60469524809764</v>
+        <v>316.26783447760749</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
-        <v>340.60469524809764</v>
+        <v>316.26783447760749</v>
       </c>
       <c r="H34" s="57">
         <v>31.639990029910287</v>
@@ -15533,15 +15537,15 @@
       </c>
       <c r="J34" s="59">
         <f t="shared" si="1"/>
-        <v>7.1064184630114782E-2</v>
+        <v>4.1757588694878861E-4</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="2"/>
-        <v>-24.204794948994788</v>
+        <v>0.13206582149535961</v>
       </c>
       <c r="L34" s="70">
         <f t="shared" si="3"/>
-        <v>585.87209852288356</v>
+        <v>1.7441381207244189E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -15552,20 +15556,20 @@
         <v>42</v>
       </c>
       <c r="C35">
-        <v>0.34414979416909319</v>
+        <v>0.31383399137328399</v>
       </c>
       <c r="D35">
-        <v>0.35196896777014913</v>
+        <v>0.31932816434310868</v>
       </c>
       <c r="E35">
-        <v>0.33963745338593976</v>
+        <v>0.31684455330668587</v>
       </c>
       <c r="F35">
-        <v>345.40019681833917</v>
+        <v>317.92680314477229</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="0"/>
-        <v>345.40019681833917</v>
+        <v>317.92680314477229</v>
       </c>
       <c r="H35" s="57">
         <v>33.125084409136065</v>
@@ -15576,15 +15580,15 @@
       </c>
       <c r="J35" s="59">
         <f t="shared" si="1"/>
-        <v>4.0965097464667269E-2</v>
+        <v>4.1909146428654745E-2</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="2"/>
-        <v>-14.14935272697852</v>
+        <v>13.324040946588354</v>
       </c>
       <c r="L35" s="70">
         <f t="shared" si="3"/>
-        <v>200.20418259245449</v>
+        <v>177.53006714636308</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -15595,20 +15599,20 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>0.34253654779825898</v>
+        <v>0.31741725320858494</v>
       </c>
       <c r="D36">
-        <v>0.35381907248767935</v>
+        <v>0.32076580111405234</v>
       </c>
       <c r="E36">
-        <v>0.34637426616487826</v>
+        <v>0.31897879572859983</v>
       </c>
       <c r="F36">
-        <v>349.72212270603438</v>
+        <v>319.76958735550772</v>
       </c>
       <c r="G36" s="3">
         <f>F36</f>
-        <v>349.72212270603438</v>
+        <v>319.76958735550772</v>
       </c>
       <c r="H36" s="57">
         <v>31.253610567514585</v>
@@ -15619,15 +15623,15 @@
       </c>
       <c r="J36" s="59">
         <f t="shared" si="1"/>
-        <v>0.10633018221196705</v>
+        <v>2.2620918206083074E-2</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="2"/>
-        <v>-37.186017030888536</v>
+        <v>-7.2334816803618764</v>
       </c>
       <c r="L36" s="70">
         <f t="shared" si="3"/>
-        <v>1382.7998626215322</v>
+        <v>52.323257220130877</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -15638,20 +15642,20 @@
         <v>269</v>
       </c>
       <c r="C37">
-        <v>0.30243139254547874</v>
+        <v>0.31016985970481259</v>
       </c>
       <c r="D37">
-        <v>0.32672366820514426</v>
+        <v>0.29584041154573426</v>
       </c>
       <c r="E37">
-        <v>0.34391522620309289</v>
+        <v>0.31510053324459458</v>
       </c>
       <c r="F37">
-        <v>335.1774328508842</v>
+        <v>306.14226379232321</v>
       </c>
       <c r="G37" s="3">
-        <f>F37*1.3</f>
-        <v>435.73066270614947</v>
+        <f>F37*1.5</f>
+        <v>459.21339568848481</v>
       </c>
       <c r="H37" s="57">
         <v>49.394859359844446</v>
@@ -15662,15 +15666,15 @@
       </c>
       <c r="J37" s="59">
         <f t="shared" si="1"/>
-        <v>0.13360990142563442</v>
+        <v>7.564064601791988E-2</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="2"/>
-        <v>58.217930892294987</v>
+        <v>34.735197909959652</v>
       </c>
       <c r="L37" s="70">
         <f t="shared" si="3"/>
-        <v>3389.3274773800349</v>
+        <v>1206.5339738440655</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -15684,17 +15688,17 @@
         <v>0.39</v>
       </c>
       <c r="D38">
-        <v>0.39</v>
+        <v>0.31087037559147462</v>
       </c>
       <c r="E38">
-        <v>0.3878195593248312</v>
+        <v>0.3399686782318157</v>
       </c>
       <c r="F38">
-        <v>415.99099341169392</v>
+        <v>413.53234343586576</v>
       </c>
       <c r="G38" s="3">
-        <f>F38*1.3</f>
-        <v>540.78829143520215</v>
+        <f>F38*1.35</f>
+        <v>558.26866363841884</v>
       </c>
       <c r="H38" s="65">
         <v>53.245215264187699</v>
@@ -15705,15 +15709,15 @@
       </c>
       <c r="J38" s="59">
         <f>(ABS(I38-G38)/G38)</f>
-        <v>1.5414791565109212E-2</v>
+        <v>4.6243883416789415E-2</v>
       </c>
       <c r="K38" s="15">
         <f t="shared" si="2"/>
-        <v>-8.3361387933251763</v>
+        <v>-25.816510996541865</v>
       </c>
       <c r="L38" s="70">
         <f t="shared" si="3"/>
-        <v>69.491209981580923</v>
+        <v>666.49224003456709</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -15724,20 +15728,20 @@
         <v>8</v>
       </c>
       <c r="C39">
-        <v>0.28657128455568498</v>
+        <v>0.01</v>
       </c>
       <c r="D39">
-        <v>0.30281371590419531</v>
+        <v>0.39</v>
       </c>
       <c r="E39">
-        <v>0.34851868109178952</v>
+        <v>0.1924873856281375</v>
       </c>
       <c r="F39">
-        <v>326.25544917477413</v>
+        <v>321.49648769164571</v>
       </c>
       <c r="G39" s="3">
-        <f>F39*1.3</f>
-        <v>424.13208392720639</v>
+        <f>F39*1.15</f>
+        <v>369.72096084539254</v>
       </c>
       <c r="H39" s="65">
         <v>38.059320175438501</v>
@@ -15748,15 +15752,15 @@
       </c>
       <c r="J39" s="59">
         <f t="shared" si="1"/>
-        <v>0.10265406420018428</v>
+        <v>2.9406612176199953E-2</v>
       </c>
       <c r="K39" s="15">
         <f t="shared" si="2"/>
-        <v>-43.538882172821388</v>
+        <v>10.872240908992467</v>
       </c>
       <c r="L39" s="70">
         <f t="shared" si="3"/>
-        <v>1895.6342608588241</v>
+        <v>118.20562238316934</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -15767,20 +15771,20 @@
         <v>36</v>
       </c>
       <c r="C40">
-        <v>0.32325812282302252</v>
+        <v>0.39</v>
       </c>
       <c r="D40">
-        <v>0.3011457926774207</v>
+        <v>0.01</v>
       </c>
       <c r="E40">
-        <v>0.33824434410533216</v>
+        <v>0.21586593319609279</v>
       </c>
       <c r="F40">
-        <v>320.87928602284671</v>
+        <v>310.74585673322423</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="0"/>
-        <v>320.87928602284671</v>
+        <v>310.74585673322423</v>
       </c>
       <c r="H40" s="65">
         <v>31.054798076922918</v>
@@ -15791,15 +15795,15 @@
       </c>
       <c r="J40" s="59">
         <f t="shared" si="1"/>
-        <v>3.2196859391172845E-2</v>
+        <v>6.3677748136452923E-4</v>
       </c>
       <c r="K40" s="15">
         <f t="shared" si="2"/>
-        <v>-10.331305253617529</v>
+        <v>-0.19787596399504537</v>
       </c>
       <c r="L40" s="70">
         <f t="shared" si="3"/>
-        <v>106.73586824342516</v>
+        <v>3.9154897126968492E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -15810,20 +15814,20 @@
         <v>49</v>
       </c>
       <c r="C41">
-        <v>0.36236753584075865</v>
+        <v>0.39</v>
       </c>
       <c r="D41">
-        <v>0.34260499742573214</v>
+        <v>0.01</v>
       </c>
       <c r="E41">
-        <v>0.33526781120608623</v>
+        <v>0.20604331784577332</v>
       </c>
       <c r="F41">
-        <v>339.18491135981674</v>
+        <v>328.35109580396829</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="0"/>
-        <v>339.18491135981674</v>
+        <v>328.35109580396829</v>
       </c>
       <c r="H41" s="65">
         <v>36.095828677840181</v>
@@ -15834,15 +15838,15 @@
       </c>
       <c r="J41" s="59">
         <f t="shared" si="1"/>
-        <v>6.4193231153160848E-2</v>
+        <v>9.9305869208673611E-2</v>
       </c>
       <c r="K41" s="15">
         <f t="shared" si="2"/>
-        <v>21.77337541858509</v>
+        <v>32.607190974433536</v>
       </c>
       <c r="L41" s="70">
         <f t="shared" si="3"/>
-        <v>474.07987711864541</v>
+        <v>1063.2289032431797</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -15853,20 +15857,20 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0.34280740679488603</v>
+        <v>0.39</v>
       </c>
       <c r="D42">
-        <v>0.35524242724297811</v>
+        <v>0.01</v>
       </c>
       <c r="E42">
-        <v>0.34449394105135522</v>
+        <v>0.2008343792920049</v>
       </c>
       <c r="F42">
-        <v>349.40451401437235</v>
+        <v>357.75745981830016</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="0"/>
-        <v>349.40451401437235</v>
+        <v>357.75745981830016</v>
       </c>
       <c r="H42" s="65">
         <v>30.813527168731987</v>
@@ -15877,21 +15881,21 @@
       </c>
       <c r="J42" s="59">
         <f t="shared" si="1"/>
-        <v>0.11811307716921748</v>
+        <v>0.1387034337625907</v>
       </c>
       <c r="K42" s="15">
         <f t="shared" si="2"/>
-        <v>-41.269242327052496</v>
+        <v>-49.622188130980305</v>
       </c>
       <c r="L42" s="70">
         <f t="shared" si="3"/>
-        <v>1703.1503622489813</v>
+        <v>2462.3615549064025</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F47">
         <f>F37/H37</f>
-        <v>6.7856744040730428</v>
+        <v>6.197856776189175</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
